--- a/output/clientes.xlsx
+++ b/output/clientes.xlsx
@@ -28,7 +28,7 @@
     <t>gender</t>
   </si>
   <si>
-    <t>birthday</t>
+    <t>birth_date</t>
   </si>
   <si>
     <t>age</t>
@@ -1849,4516 +1849,4516 @@
     <t>50346472-1</t>
   </si>
   <si>
-    <t>Wendy</t>
-  </si>
-  <si>
-    <t>Imelda</t>
-  </si>
-  <si>
-    <t>Erica</t>
-  </si>
-  <si>
-    <t>Audra</t>
-  </si>
-  <si>
-    <t>Nehru</t>
-  </si>
-  <si>
-    <t>Mariko</t>
-  </si>
-  <si>
-    <t>Sybil</t>
-  </si>
-  <si>
-    <t>Tamara</t>
-  </si>
-  <si>
-    <t>Tyrone</t>
-  </si>
-  <si>
-    <t>Darryl</t>
-  </si>
-  <si>
-    <t>Noel</t>
-  </si>
-  <si>
-    <t>Piper</t>
-  </si>
-  <si>
-    <t>Zachery</t>
-  </si>
-  <si>
-    <t>Ila</t>
-  </si>
-  <si>
-    <t>Quinlan</t>
-  </si>
-  <si>
-    <t>Mia</t>
-  </si>
-  <si>
-    <t>Eric</t>
-  </si>
-  <si>
-    <t>Kimberly</t>
-  </si>
-  <si>
-    <t>Jessica</t>
-  </si>
-  <si>
-    <t>Lawrence</t>
-  </si>
-  <si>
-    <t>Yen</t>
-  </si>
-  <si>
-    <t>Sophia</t>
-  </si>
-  <si>
-    <t>Addison</t>
-  </si>
-  <si>
-    <t>Troy</t>
-  </si>
-  <si>
-    <t>Breanna</t>
-  </si>
-  <si>
-    <t>Randall</t>
-  </si>
-  <si>
-    <t>Alfonso</t>
-  </si>
-  <si>
-    <t>Uriel</t>
-  </si>
-  <si>
-    <t>Alea</t>
-  </si>
-  <si>
-    <t>Hermione</t>
-  </si>
-  <si>
-    <t>Oliver</t>
-  </si>
-  <si>
-    <t>Victor</t>
-  </si>
-  <si>
-    <t>Bell</t>
-  </si>
-  <si>
-    <t>Jacob</t>
-  </si>
-  <si>
-    <t>Aidan</t>
-  </si>
-  <si>
-    <t>Velma</t>
-  </si>
-  <si>
-    <t>Zena</t>
-  </si>
-  <si>
-    <t>Destiny</t>
-  </si>
-  <si>
-    <t>Calvin</t>
-  </si>
-  <si>
-    <t>Jerome</t>
-  </si>
-  <si>
-    <t>Abel</t>
-  </si>
-  <si>
-    <t>Allen</t>
-  </si>
-  <si>
-    <t>Quincy</t>
-  </si>
-  <si>
-    <t>Lee</t>
-  </si>
-  <si>
-    <t>Xandra</t>
-  </si>
-  <si>
-    <t>Zephr</t>
-  </si>
-  <si>
-    <t>Cynthia</t>
-  </si>
-  <si>
-    <t>Myles</t>
-  </si>
-  <si>
-    <t>Jocelyn</t>
-  </si>
-  <si>
-    <t>Fay</t>
-  </si>
-  <si>
-    <t>Gannon</t>
-  </si>
-  <si>
-    <t>Kylan</t>
-  </si>
-  <si>
-    <t>Janna</t>
-  </si>
-  <si>
-    <t>Bernard</t>
-  </si>
-  <si>
-    <t>Yuri</t>
-  </si>
-  <si>
-    <t>Ruby</t>
-  </si>
-  <si>
-    <t>Linus</t>
-  </si>
-  <si>
-    <t>Brennan</t>
-  </si>
-  <si>
-    <t>Colton</t>
-  </si>
-  <si>
-    <t>Hilary</t>
-  </si>
-  <si>
-    <t>Hilel</t>
-  </si>
-  <si>
-    <t>Orson</t>
-  </si>
-  <si>
-    <t>Donna</t>
-  </si>
-  <si>
-    <t>Alexis</t>
-  </si>
-  <si>
-    <t>Maris</t>
-  </si>
-  <si>
-    <t>Rogan</t>
-  </si>
-  <si>
-    <t>Hu</t>
-  </si>
-  <si>
-    <t>Wanda</t>
-  </si>
-  <si>
-    <t>Caesar</t>
-  </si>
-  <si>
-    <t>Hedwig</t>
-  </si>
-  <si>
-    <t>Benjamin</t>
-  </si>
-  <si>
-    <t>Irene</t>
-  </si>
-  <si>
-    <t>Shea</t>
-  </si>
-  <si>
-    <t>Lewis</t>
-  </si>
-  <si>
-    <t>Kalia</t>
-  </si>
-  <si>
-    <t>Davis</t>
-  </si>
-  <si>
-    <t>Dominic</t>
-  </si>
-  <si>
-    <t>Samuel</t>
-  </si>
-  <si>
-    <t>Darrel</t>
-  </si>
-  <si>
-    <t>David</t>
-  </si>
-  <si>
-    <t>Salvador</t>
-  </si>
-  <si>
-    <t>Reece</t>
-  </si>
-  <si>
-    <t>Kasper</t>
-  </si>
-  <si>
-    <t>Anne</t>
-  </si>
-  <si>
-    <t>India</t>
-  </si>
-  <si>
-    <t>Maxine</t>
-  </si>
-  <si>
-    <t>Madonna</t>
-  </si>
-  <si>
-    <t>Anthony</t>
-  </si>
-  <si>
-    <t>Channing</t>
-  </si>
-  <si>
-    <t>Isaiah</t>
-  </si>
-  <si>
-    <t>Kaseem</t>
-  </si>
-  <si>
-    <t>Hayley</t>
-  </si>
-  <si>
-    <t>Joelle</t>
-  </si>
-  <si>
-    <t>Leah</t>
-  </si>
-  <si>
-    <t>Tatiana</t>
-  </si>
-  <si>
-    <t>Selma</t>
-  </si>
-  <si>
-    <t>Eugenia</t>
-  </si>
-  <si>
-    <t>Fletcher</t>
-  </si>
-  <si>
-    <t>Harding</t>
-  </si>
-  <si>
-    <t>Gisela</t>
-  </si>
-  <si>
-    <t>Noah</t>
-  </si>
-  <si>
-    <t>Dai</t>
-  </si>
-  <si>
-    <t>Denise</t>
-  </si>
-  <si>
-    <t>Igor</t>
-  </si>
-  <si>
-    <t>Avram</t>
-  </si>
-  <si>
-    <t>Hamish</t>
-  </si>
-  <si>
-    <t>Amela</t>
-  </si>
-  <si>
-    <t>Abraham</t>
-  </si>
-  <si>
-    <t>Craig</t>
-  </si>
-  <si>
-    <t>Nash</t>
-  </si>
-  <si>
-    <t>Ferris</t>
-  </si>
-  <si>
-    <t>Blake</t>
-  </si>
-  <si>
-    <t>Herman</t>
-  </si>
-  <si>
-    <t>Alisa</t>
-  </si>
-  <si>
-    <t>Jaime</t>
-  </si>
-  <si>
-    <t>Lars</t>
-  </si>
-  <si>
-    <t>Otto</t>
-  </si>
-  <si>
-    <t>Garth</t>
-  </si>
-  <si>
-    <t>Cheryl</t>
-  </si>
-  <si>
-    <t>Jarrod</t>
-  </si>
-  <si>
-    <t>Barry</t>
-  </si>
-  <si>
-    <t>Penelope</t>
-  </si>
-  <si>
-    <t>Garrett</t>
-  </si>
-  <si>
-    <t>Wesley</t>
-  </si>
-  <si>
-    <t>Philip</t>
-  </si>
-  <si>
-    <t>Blossom</t>
-  </si>
-  <si>
-    <t>Shellie</t>
-  </si>
-  <si>
-    <t>Uma</t>
-  </si>
-  <si>
-    <t>Travis</t>
-  </si>
-  <si>
-    <t>Christian</t>
-  </si>
-  <si>
-    <t>MacKenzie</t>
-  </si>
-  <si>
-    <t>Paul</t>
-  </si>
-  <si>
-    <t>Upton</t>
-  </si>
-  <si>
-    <t>Mechelle</t>
-  </si>
-  <si>
-    <t>Hyatt</t>
-  </si>
-  <si>
-    <t>Meredith</t>
-  </si>
-  <si>
-    <t>Zelenia</t>
-  </si>
-  <si>
-    <t>Kieran</t>
-  </si>
-  <si>
-    <t>Ryder</t>
-  </si>
-  <si>
-    <t>Harriet</t>
-  </si>
-  <si>
-    <t>Tarik</t>
-  </si>
-  <si>
-    <t>Winter</t>
-  </si>
-  <si>
-    <t>Ariel</t>
-  </si>
-  <si>
-    <t>Gareth</t>
-  </si>
-  <si>
-    <t>Michael</t>
-  </si>
-  <si>
-    <t>Camille</t>
-  </si>
-  <si>
-    <t>Devin</t>
-  </si>
-  <si>
-    <t>Basil</t>
-  </si>
-  <si>
-    <t>Cameron</t>
-  </si>
-  <si>
-    <t>Brittany</t>
-  </si>
-  <si>
-    <t>Aristotle</t>
-  </si>
-  <si>
-    <t>Teagan</t>
-  </si>
-  <si>
-    <t>Vincent</t>
-  </si>
-  <si>
-    <t>Brock</t>
-  </si>
-  <si>
-    <t>Isabella</t>
-  </si>
-  <si>
-    <t>Kennan</t>
-  </si>
-  <si>
-    <t>Lyle</t>
-  </si>
-  <si>
-    <t>Kelly</t>
-  </si>
-  <si>
-    <t>Hadley</t>
-  </si>
-  <si>
-    <t>Wyatt</t>
-  </si>
-  <si>
-    <t>Yasir</t>
-  </si>
-  <si>
-    <t>Aimee</t>
-  </si>
-  <si>
-    <t>Gretchen</t>
-  </si>
-  <si>
-    <t>Ifeoma</t>
-  </si>
-  <si>
-    <t>Cade</t>
-  </si>
-  <si>
-    <t>Maia</t>
-  </si>
-  <si>
-    <t>Tatyana</t>
-  </si>
-  <si>
-    <t>Deirdre</t>
-  </si>
-  <si>
-    <t>Fatima</t>
-  </si>
-  <si>
-    <t>Brendan</t>
-  </si>
-  <si>
-    <t>Hedy</t>
-  </si>
-  <si>
-    <t>Lysandra</t>
-  </si>
-  <si>
-    <t>Dillon</t>
-  </si>
-  <si>
-    <t>Rooney</t>
-  </si>
-  <si>
-    <t>Felicia</t>
-  </si>
-  <si>
-    <t>Connor</t>
-  </si>
-  <si>
-    <t>Robin</t>
-  </si>
-  <si>
-    <t>Price</t>
-  </si>
-  <si>
-    <t>Sydney</t>
-  </si>
-  <si>
-    <t>Adrian</t>
-  </si>
-  <si>
-    <t>Hayden</t>
-  </si>
-  <si>
-    <t>Buffy</t>
-  </si>
-  <si>
-    <t>Cody</t>
-  </si>
-  <si>
-    <t>Michelle</t>
-  </si>
-  <si>
-    <t>Uta</t>
-  </si>
-  <si>
-    <t>Reese</t>
-  </si>
-  <si>
-    <t>Laith</t>
-  </si>
-  <si>
-    <t>Phyllis</t>
-  </si>
-  <si>
-    <t>Raphael</t>
-  </si>
-  <si>
-    <t>Palmer</t>
-  </si>
-  <si>
-    <t>Amethyst</t>
-  </si>
-  <si>
-    <t>Chancellor</t>
-  </si>
-  <si>
-    <t>Griffin</t>
-  </si>
-  <si>
-    <t>Armando</t>
-  </si>
-  <si>
-    <t>Ishmael</t>
-  </si>
-  <si>
-    <t>Tallulah</t>
-  </si>
-  <si>
-    <t>Keely</t>
-  </si>
-  <si>
-    <t>Abra</t>
-  </si>
-  <si>
-    <t>Amber</t>
-  </si>
-  <si>
-    <t>Kibo</t>
-  </si>
-  <si>
-    <t>Wyoming</t>
-  </si>
-  <si>
-    <t>Kylie</t>
-  </si>
-  <si>
-    <t>Judah</t>
-  </si>
-  <si>
-    <t>Lance</t>
-  </si>
-  <si>
-    <t>Justine</t>
-  </si>
-  <si>
-    <t>Cameran</t>
-  </si>
-  <si>
-    <t>Olympia</t>
-  </si>
-  <si>
-    <t>Sybill</t>
-  </si>
-  <si>
-    <t>Nigel</t>
-  </si>
-  <si>
-    <t>Rafael</t>
-  </si>
-  <si>
-    <t>Iona</t>
-  </si>
-  <si>
-    <t>Erich</t>
-  </si>
-  <si>
-    <t>Chandler</t>
-  </si>
-  <si>
-    <t>Vernon</t>
-  </si>
-  <si>
-    <t>Karleigh</t>
-  </si>
-  <si>
-    <t>MacKensie</t>
-  </si>
-  <si>
-    <t>Vladimir</t>
-  </si>
-  <si>
-    <t>Oscar</t>
-  </si>
-  <si>
-    <t>Lane</t>
-  </si>
-  <si>
-    <t>Basia</t>
-  </si>
-  <si>
-    <t>Stephanie</t>
-  </si>
-  <si>
-    <t>Jin</t>
-  </si>
-  <si>
-    <t>Edward</t>
-  </si>
-  <si>
-    <t>Whoopi</t>
-  </si>
-  <si>
-    <t>Nadine</t>
-  </si>
-  <si>
-    <t>Gillian</t>
-  </si>
-  <si>
-    <t>Vanna</t>
-  </si>
-  <si>
-    <t>Jolie</t>
-  </si>
-  <si>
-    <t>Ora</t>
-  </si>
-  <si>
-    <t>Tanisha</t>
-  </si>
-  <si>
-    <t>Ann</t>
-  </si>
-  <si>
-    <t>Allegra</t>
-  </si>
-  <si>
-    <t>Amity</t>
-  </si>
-  <si>
-    <t>Meghan</t>
-  </si>
-  <si>
-    <t>Colorado</t>
-  </si>
-  <si>
-    <t>Burke</t>
-  </si>
-  <si>
-    <t>Jason</t>
-  </si>
-  <si>
-    <t>Lydia</t>
-  </si>
-  <si>
-    <t>Fallon</t>
-  </si>
-  <si>
-    <t>Carol</t>
-  </si>
-  <si>
-    <t>Kylee</t>
-  </si>
-  <si>
-    <t>Colt</t>
-  </si>
-  <si>
-    <t>Haviva</t>
-  </si>
-  <si>
-    <t>Whitney</t>
-  </si>
-  <si>
-    <t>Madison</t>
-  </si>
-  <si>
-    <t>Bert</t>
-  </si>
-  <si>
-    <t>Brandon</t>
-  </si>
-  <si>
-    <t>Donovan</t>
-  </si>
-  <si>
-    <t>Flynn</t>
-  </si>
-  <si>
-    <t>Melinda</t>
-  </si>
-  <si>
-    <t>Jasmine</t>
-  </si>
-  <si>
-    <t>Matthew</t>
-  </si>
-  <si>
-    <t>Charity</t>
-  </si>
-  <si>
-    <t>Jesse</t>
-  </si>
-  <si>
-    <t>Odysseus</t>
-  </si>
-  <si>
-    <t>Christen</t>
-  </si>
-  <si>
-    <t>Tana</t>
-  </si>
-  <si>
-    <t>Porter</t>
-  </si>
-  <si>
-    <t>Mufutau</t>
-  </si>
-  <si>
-    <t>Yuli</t>
-  </si>
-  <si>
-    <t>Serena</t>
-  </si>
-  <si>
-    <t>Colin</t>
-  </si>
-  <si>
-    <t>Brody</t>
-  </si>
-  <si>
-    <t>Teegan</t>
-  </si>
-  <si>
-    <t>Kasimir</t>
-  </si>
-  <si>
-    <t>Chloe</t>
-  </si>
-  <si>
-    <t>Charles</t>
-  </si>
-  <si>
-    <t>Rose</t>
-  </si>
-  <si>
-    <t>Quinn</t>
-  </si>
-  <si>
-    <t>Dean</t>
-  </si>
-  <si>
-    <t>Jerry</t>
-  </si>
-  <si>
-    <t>Flavia</t>
-  </si>
-  <si>
-    <t>Damon</t>
-  </si>
-  <si>
-    <t>Abdul</t>
-  </si>
-  <si>
-    <t>Clementine</t>
-  </si>
-  <si>
-    <t>Carter</t>
-  </si>
-  <si>
-    <t>Shoshana</t>
-  </si>
-  <si>
-    <t>Tucker</t>
-  </si>
-  <si>
-    <t>Sonia</t>
-  </si>
-  <si>
-    <t>Claudia</t>
-  </si>
-  <si>
-    <t>Chanda</t>
-  </si>
-  <si>
-    <t>Lucius</t>
-  </si>
-  <si>
-    <t>Scarlett</t>
-  </si>
-  <si>
-    <t>Victoria</t>
-  </si>
-  <si>
-    <t>Margaret</t>
-  </si>
-  <si>
-    <t>Neil</t>
-  </si>
-  <si>
-    <t>Seth</t>
-  </si>
-  <si>
-    <t>Shafira</t>
-  </si>
-  <si>
-    <t>John</t>
-  </si>
-  <si>
-    <t>Adria</t>
-  </si>
-  <si>
-    <t>Charde</t>
-  </si>
-  <si>
-    <t>Lillian</t>
-  </si>
-  <si>
-    <t>Sierra</t>
-  </si>
-  <si>
-    <t>Jonas</t>
-  </si>
-  <si>
-    <t>Nita</t>
-  </si>
-  <si>
-    <t>Xander</t>
-  </si>
-  <si>
-    <t>Jenette</t>
-  </si>
-  <si>
-    <t>Russell</t>
-  </si>
-  <si>
-    <t>Karina</t>
-  </si>
-  <si>
-    <t>Nolan</t>
-  </si>
-  <si>
-    <t>Indigo</t>
-  </si>
-  <si>
-    <t>Cairo</t>
-  </si>
-  <si>
-    <t>Aiko</t>
-  </si>
-  <si>
-    <t>Mariam</t>
-  </si>
-  <si>
-    <t>Ciara</t>
-  </si>
-  <si>
-    <t>Hanna</t>
-  </si>
-  <si>
-    <t>Daniel</t>
-  </si>
-  <si>
-    <t>Octavia</t>
-  </si>
-  <si>
-    <t>Deanna</t>
-  </si>
-  <si>
-    <t>Keiko</t>
-  </si>
-  <si>
-    <t>Amal</t>
-  </si>
-  <si>
-    <t>Autumn</t>
-  </si>
-  <si>
-    <t>Yeo</t>
-  </si>
-  <si>
-    <t>Eliana</t>
-  </si>
-  <si>
-    <t>Hall</t>
-  </si>
-  <si>
-    <t>Barbara</t>
-  </si>
-  <si>
-    <t>Peter</t>
-  </si>
-  <si>
-    <t>Eden</t>
-  </si>
-  <si>
-    <t>Dexter</t>
-  </si>
-  <si>
-    <t>Molly</t>
-  </si>
-  <si>
-    <t>Demetria</t>
-  </si>
-  <si>
-    <t>Hiram</t>
-  </si>
-  <si>
-    <t>Zoe</t>
-  </si>
-  <si>
-    <t>Richard</t>
-  </si>
-  <si>
-    <t>Brian</t>
-  </si>
-  <si>
-    <t>Dakota</t>
-  </si>
-  <si>
-    <t>Sheila</t>
-  </si>
-  <si>
-    <t>Rebecca</t>
-  </si>
-  <si>
-    <t>Kato</t>
-  </si>
-  <si>
-    <t>Rahim</t>
-  </si>
-  <si>
-    <t>Dante</t>
-  </si>
-  <si>
-    <t>Cassady</t>
-  </si>
-  <si>
-    <t>Hayfa</t>
-  </si>
-  <si>
-    <t>Angelica</t>
-  </si>
-  <si>
-    <t>Emi</t>
-  </si>
-  <si>
-    <t>Kameko</t>
-  </si>
-  <si>
-    <t>Ivy</t>
-  </si>
-  <si>
-    <t>Joshua</t>
-  </si>
-  <si>
-    <t>Brynn</t>
-  </si>
-  <si>
-    <t>Nola</t>
-  </si>
-  <si>
-    <t>Keelie</t>
-  </si>
-  <si>
-    <t>Kellie</t>
-  </si>
-  <si>
-    <t>August</t>
-  </si>
-  <si>
-    <t>Halla</t>
-  </si>
-  <si>
-    <t>Brielle</t>
-  </si>
-  <si>
-    <t>Natalie</t>
-  </si>
-  <si>
-    <t>Joel</t>
-  </si>
-  <si>
-    <t>Lucas</t>
-  </si>
-  <si>
-    <t>Ginger</t>
-  </si>
-  <si>
-    <t>Yoko</t>
-  </si>
-  <si>
-    <t>Anjolie</t>
-  </si>
-  <si>
-    <t>Jacqueline</t>
-  </si>
-  <si>
-    <t>Ima</t>
-  </si>
-  <si>
-    <t>Bruce</t>
-  </si>
-  <si>
-    <t>Tashya</t>
-  </si>
-  <si>
-    <t>Derek</t>
-  </si>
-  <si>
-    <t>Lucy</t>
-  </si>
-  <si>
-    <t>Mari</t>
-  </si>
-  <si>
-    <t>Allistair</t>
-  </si>
-  <si>
-    <t>Christine</t>
-  </si>
-  <si>
-    <t>Boris</t>
-  </si>
-  <si>
-    <t>Cailin</t>
-  </si>
-  <si>
-    <t>Aline</t>
-  </si>
-  <si>
-    <t>Chastity</t>
-  </si>
-  <si>
-    <t>Keith</t>
-  </si>
-  <si>
-    <t>Kay</t>
-  </si>
-  <si>
-    <t>Raymond</t>
-  </si>
-  <si>
-    <t>Graham</t>
-  </si>
-  <si>
-    <t>Ahmed</t>
-  </si>
-  <si>
-    <t>Ulla</t>
-  </si>
-  <si>
-    <t>Brenden</t>
-  </si>
-  <si>
-    <t>Helen</t>
-  </si>
-  <si>
-    <t>Keane</t>
-  </si>
-  <si>
-    <t>Erin</t>
-  </si>
-  <si>
-    <t>Quin</t>
-  </si>
-  <si>
-    <t>Rama</t>
-  </si>
-  <si>
-    <t>Britanni</t>
-  </si>
-  <si>
-    <t>Nissim</t>
-  </si>
-  <si>
-    <t>Alexander</t>
-  </si>
-  <si>
-    <t>Justin</t>
-  </si>
-  <si>
-    <t>Josiah</t>
-  </si>
-  <si>
-    <t>Vera</t>
-  </si>
-  <si>
-    <t>Xenos</t>
-  </si>
-  <si>
-    <t>Rylee</t>
-  </si>
-  <si>
-    <t>Nell</t>
-  </si>
-  <si>
-    <t>Leo</t>
-  </si>
-  <si>
-    <t>Chelsea</t>
-  </si>
-  <si>
-    <t>Lara</t>
-  </si>
-  <si>
-    <t>Edan</t>
-  </si>
-  <si>
-    <t>Zephania</t>
-  </si>
-  <si>
-    <t>Dalton</t>
-  </si>
-  <si>
-    <t>Sandra</t>
-  </si>
-  <si>
-    <t>Solomon</t>
-  </si>
-  <si>
-    <t>Beatrice</t>
-  </si>
-  <si>
-    <t>Ignatius</t>
-  </si>
-  <si>
-    <t>Robert</t>
-  </si>
-  <si>
-    <t>Erasmus</t>
-  </si>
-  <si>
-    <t>Tyler</t>
-  </si>
-  <si>
-    <t>Cassandra</t>
-  </si>
-  <si>
-    <t>Mary</t>
-  </si>
-  <si>
-    <t>Danielle</t>
-  </si>
-  <si>
-    <t>Cara</t>
-  </si>
-  <si>
-    <t>Lucian</t>
-  </si>
-  <si>
-    <t>Amos</t>
-  </si>
-  <si>
-    <t>Branden</t>
-  </si>
-  <si>
-    <t>Naomi</t>
-  </si>
-  <si>
-    <t>Yael</t>
-  </si>
-  <si>
-    <t>Macey</t>
-  </si>
-  <si>
-    <t>Jonah</t>
-  </si>
-  <si>
-    <t>Melanie</t>
-  </si>
-  <si>
-    <t>Alfreda</t>
-  </si>
-  <si>
-    <t>Britanney</t>
-  </si>
-  <si>
-    <t>Slade</t>
-  </si>
-  <si>
-    <t>Quyn</t>
-  </si>
-  <si>
-    <t>Cecilia</t>
-  </si>
-  <si>
-    <t>Xaviera</t>
-  </si>
-  <si>
-    <t>Andrew</t>
-  </si>
-  <si>
-    <t>Ava</t>
-  </si>
-  <si>
-    <t>Maite</t>
-  </si>
-  <si>
-    <t>Nero</t>
-  </si>
-  <si>
-    <t>Regina</t>
-  </si>
-  <si>
-    <t>Cullen</t>
-  </si>
-  <si>
-    <t>Fritz</t>
-  </si>
-  <si>
-    <t>Ralph</t>
-  </si>
-  <si>
-    <t>Nevada</t>
-  </si>
-  <si>
-    <t>Camden</t>
-  </si>
-  <si>
-    <t>Inga</t>
-  </si>
-  <si>
-    <t>Iliana</t>
-  </si>
-  <si>
-    <t>Madeson</t>
-  </si>
-  <si>
-    <t>Ella</t>
-  </si>
-  <si>
-    <t>Louis</t>
-  </si>
-  <si>
-    <t>Amery</t>
-  </si>
-  <si>
-    <t>Yoshi</t>
-  </si>
-  <si>
-    <t>William</t>
-  </si>
-  <si>
-    <t>Harrison</t>
-  </si>
-  <si>
-    <t>Irma</t>
-  </si>
-  <si>
-    <t>Leonard</t>
-  </si>
-  <si>
-    <t>Jamal</t>
-  </si>
-  <si>
-    <t>Clinton</t>
-  </si>
-  <si>
-    <t>Rashad</t>
-  </si>
-  <si>
-    <t>Willow</t>
-  </si>
-  <si>
-    <t>Aspen</t>
-  </si>
-  <si>
-    <t>Hashim</t>
-  </si>
-  <si>
-    <t>Armand</t>
-  </si>
-  <si>
-    <t>Deborah</t>
-  </si>
-  <si>
-    <t>Ian</t>
-  </si>
-  <si>
-    <t>Ivor</t>
-  </si>
-  <si>
-    <t>Jameson</t>
-  </si>
-  <si>
-    <t>Rina</t>
-  </si>
-  <si>
-    <t>Nathaniel</t>
-  </si>
-  <si>
-    <t>Ashton</t>
-  </si>
-  <si>
-    <t>Marvin</t>
-  </si>
-  <si>
-    <t>Drake</t>
-  </si>
-  <si>
-    <t>Denton</t>
-  </si>
-  <si>
-    <t>Yetta</t>
-  </si>
-  <si>
-    <t>Melissa</t>
-  </si>
-  <si>
-    <t>Lester</t>
-  </si>
-  <si>
-    <t>Jeremy</t>
-  </si>
-  <si>
-    <t>Vance</t>
-  </si>
-  <si>
-    <t>Kareem</t>
-  </si>
-  <si>
-    <t>Suki</t>
-  </si>
-  <si>
-    <t>Xyla</t>
-  </si>
-  <si>
-    <t>Carissa</t>
-  </si>
-  <si>
-    <t>Baker</t>
-  </si>
-  <si>
-    <t>Kirsten</t>
-  </si>
-  <si>
-    <t>Bo</t>
-  </si>
-  <si>
-    <t>Callie</t>
-  </si>
-  <si>
-    <t>Ebony</t>
-  </si>
-  <si>
-    <t>Arthur</t>
-  </si>
-  <si>
-    <t>Lana</t>
-  </si>
-  <si>
-    <t>Hunter</t>
-  </si>
-  <si>
-    <t>Athena</t>
-  </si>
-  <si>
-    <t>Logan</t>
-  </si>
-  <si>
-    <t>Keegan</t>
-  </si>
-  <si>
-    <t>Rhonda</t>
-  </si>
-  <si>
-    <t>Mara</t>
-  </si>
-  <si>
-    <t>Ware</t>
-  </si>
-  <si>
-    <t>Camacho</t>
-  </si>
-  <si>
-    <t>Delaney</t>
-  </si>
-  <si>
-    <t>Pace</t>
-  </si>
-  <si>
-    <t>Fisher</t>
-  </si>
-  <si>
-    <t>Burns</t>
-  </si>
-  <si>
-    <t>Rivera</t>
-  </si>
-  <si>
-    <t>Hunt</t>
-  </si>
-  <si>
-    <t>Ramos</t>
-  </si>
-  <si>
-    <t>Wilcox</t>
-  </si>
-  <si>
-    <t>Mclean</t>
-  </si>
-  <si>
-    <t>Velasquez</t>
-  </si>
-  <si>
-    <t>Horn</t>
-  </si>
-  <si>
-    <t>Vazquez</t>
-  </si>
-  <si>
-    <t>Wilder</t>
-  </si>
-  <si>
-    <t>Mathis</t>
-  </si>
-  <si>
-    <t>Mcguire</t>
-  </si>
-  <si>
-    <t>Rocha</t>
-  </si>
-  <si>
-    <t>Glover</t>
-  </si>
-  <si>
-    <t>Burch</t>
-  </si>
-  <si>
-    <t>Webster</t>
-  </si>
-  <si>
-    <t>Barr</t>
-  </si>
-  <si>
-    <t>Justice</t>
-  </si>
-  <si>
-    <t>Wiggins</t>
-  </si>
-  <si>
-    <t>Weaver</t>
-  </si>
-  <si>
-    <t>Goodman</t>
-  </si>
-  <si>
-    <t>Salas</t>
-  </si>
-  <si>
-    <t>Arnold</t>
-  </si>
-  <si>
-    <t>Patterson</t>
-  </si>
-  <si>
-    <t>Lamb</t>
-  </si>
-  <si>
-    <t>English</t>
-  </si>
-  <si>
-    <t>Taylor</t>
-  </si>
-  <si>
-    <t>Dennis</t>
-  </si>
-  <si>
-    <t>Middleton</t>
-  </si>
-  <si>
-    <t>Reynolds</t>
-  </si>
-  <si>
-    <t>Ruiz</t>
-  </si>
-  <si>
-    <t>Frost</t>
-  </si>
-  <si>
-    <t>Whitehead</t>
-  </si>
-  <si>
-    <t>Langley</t>
-  </si>
-  <si>
-    <t>Gallegos</t>
-  </si>
-  <si>
-    <t>Craft</t>
-  </si>
-  <si>
-    <t>Jones</t>
-  </si>
-  <si>
-    <t>Mullins</t>
-  </si>
-  <si>
-    <t>Jensen</t>
-  </si>
-  <si>
-    <t>Douglas</t>
-  </si>
-  <si>
-    <t>Wong</t>
-  </si>
-  <si>
-    <t>Pickett</t>
-  </si>
-  <si>
-    <t>Hinton</t>
-  </si>
-  <si>
-    <t>Morris</t>
-  </si>
-  <si>
-    <t>Dixon</t>
-  </si>
-  <si>
-    <t>Rojas</t>
-  </si>
-  <si>
-    <t>Mcfadden</t>
-  </si>
-  <si>
-    <t>Moses</t>
-  </si>
-  <si>
-    <t>Collins</t>
-  </si>
-  <si>
-    <t>Parrish</t>
-  </si>
-  <si>
-    <t>Kent</t>
-  </si>
-  <si>
-    <t>Hewitt</t>
-  </si>
-  <si>
-    <t>Molina</t>
-  </si>
-  <si>
-    <t>Robertson</t>
-  </si>
-  <si>
-    <t>Compton</t>
-  </si>
-  <si>
-    <t>Mcmillan</t>
-  </si>
-  <si>
-    <t>Bolton</t>
-  </si>
-  <si>
-    <t>Hoffman</t>
-  </si>
-  <si>
-    <t>Ballard</t>
-  </si>
-  <si>
-    <t>Meyers</t>
-  </si>
-  <si>
-    <t>Simmons</t>
-  </si>
-  <si>
-    <t>Villarreal</t>
-  </si>
-  <si>
-    <t>Cardenas</t>
-  </si>
-  <si>
-    <t>Conley</t>
-  </si>
-  <si>
-    <t>Miller</t>
-  </si>
-  <si>
-    <t>Foreman</t>
-  </si>
-  <si>
-    <t>Wilson</t>
-  </si>
-  <si>
-    <t>Olson</t>
-  </si>
-  <si>
-    <t>Lloyd</t>
-  </si>
-  <si>
-    <t>Nguyen</t>
-  </si>
-  <si>
-    <t>Soto</t>
-  </si>
-  <si>
-    <t>Wood</t>
-  </si>
-  <si>
-    <t>Crane</t>
-  </si>
-  <si>
-    <t>Jackson</t>
-  </si>
-  <si>
-    <t>Reed</t>
-  </si>
-  <si>
-    <t>Mcgowan</t>
-  </si>
-  <si>
-    <t>Heath</t>
-  </si>
-  <si>
-    <t>Murphy</t>
-  </si>
-  <si>
-    <t>Houston</t>
-  </si>
-  <si>
-    <t>Nicholson</t>
-  </si>
-  <si>
-    <t>Clemons</t>
-  </si>
-  <si>
-    <t>Bush</t>
-  </si>
-  <si>
-    <t>Cervantes</t>
-  </si>
-  <si>
-    <t>Lowery</t>
-  </si>
-  <si>
-    <t>Goff</t>
-  </si>
-  <si>
-    <t>Boone</t>
-  </si>
-  <si>
-    <t>Carey</t>
-  </si>
-  <si>
-    <t>Best</t>
-  </si>
-  <si>
-    <t>Weiss</t>
-  </si>
-  <si>
-    <t>Hester</t>
-  </si>
-  <si>
-    <t>Le</t>
-  </si>
-  <si>
-    <t>Browning</t>
-  </si>
-  <si>
-    <t>Page</t>
-  </si>
-  <si>
-    <t>Boyd</t>
-  </si>
-  <si>
-    <t>Byers</t>
-  </si>
-  <si>
-    <t>Blackwell</t>
-  </si>
-  <si>
-    <t>Bauer</t>
-  </si>
-  <si>
-    <t>Warren</t>
-  </si>
-  <si>
-    <t>Terry</t>
-  </si>
-  <si>
-    <t>Ferrell</t>
-  </si>
-  <si>
-    <t>Levine</t>
-  </si>
-  <si>
-    <t>Sampson</t>
-  </si>
-  <si>
-    <t>Joseph</t>
-  </si>
-  <si>
-    <t>Macdonald</t>
-  </si>
-  <si>
-    <t>Odom</t>
-  </si>
-  <si>
-    <t>Love</t>
-  </si>
-  <si>
-    <t>Bryan</t>
-  </si>
-  <si>
-    <t>Stone</t>
-  </si>
-  <si>
-    <t>Silva</t>
-  </si>
-  <si>
-    <t>Strong</t>
-  </si>
-  <si>
-    <t>Young</t>
-  </si>
-  <si>
-    <t>Chavez</t>
-  </si>
-  <si>
-    <t>Rodriquez</t>
-  </si>
-  <si>
-    <t>Good</t>
-  </si>
-  <si>
-    <t>Conway</t>
-  </si>
-  <si>
-    <t>Bennett</t>
-  </si>
-  <si>
-    <t>Duran</t>
-  </si>
-  <si>
-    <t>Brewer</t>
-  </si>
-  <si>
-    <t>Morse</t>
-  </si>
-  <si>
-    <t>Dyer</t>
-  </si>
-  <si>
-    <t>Fox</t>
-  </si>
-  <si>
-    <t>Harvey</t>
-  </si>
-  <si>
-    <t>Eaton</t>
-  </si>
-  <si>
-    <t>Parker</t>
-  </si>
-  <si>
-    <t>Kramer</t>
-  </si>
-  <si>
-    <t>Levy</t>
-  </si>
-  <si>
-    <t>Buckner</t>
-  </si>
-  <si>
-    <t>Mccarthy</t>
-  </si>
-  <si>
-    <t>Gibbs</t>
-  </si>
-  <si>
-    <t>Frye</t>
-  </si>
-  <si>
-    <t>Shaffer</t>
-  </si>
-  <si>
-    <t>Haney</t>
-  </si>
-  <si>
-    <t>Buchanan</t>
-  </si>
-  <si>
-    <t>Green</t>
-  </si>
-  <si>
-    <t>Owen</t>
-  </si>
-  <si>
-    <t>Yates</t>
-  </si>
-  <si>
-    <t>Butler</t>
-  </si>
-  <si>
-    <t>Mathews</t>
-  </si>
-  <si>
-    <t>Little</t>
-  </si>
-  <si>
-    <t>Thomas</t>
-  </si>
-  <si>
-    <t>Phelps</t>
-  </si>
-  <si>
-    <t>Richmond</t>
-  </si>
-  <si>
-    <t>Kidd</t>
-  </si>
-  <si>
-    <t>Sharpe</t>
-  </si>
-  <si>
-    <t>Gould</t>
-  </si>
-  <si>
-    <t>Mann</t>
-  </si>
-  <si>
-    <t>Kline</t>
-  </si>
-  <si>
-    <t>Roberson</t>
-  </si>
-  <si>
-    <t>Nunez</t>
-  </si>
-  <si>
-    <t>Haynes</t>
-  </si>
-  <si>
-    <t>Castro</t>
-  </si>
-  <si>
-    <t>Franklin</t>
-  </si>
-  <si>
-    <t>Pate</t>
-  </si>
-  <si>
-    <t>Estes</t>
-  </si>
-  <si>
-    <t>Ayala</t>
-  </si>
-  <si>
-    <t>Serrano</t>
-  </si>
-  <si>
-    <t>Erickson</t>
-  </si>
-  <si>
-    <t>Vaughn</t>
-  </si>
-  <si>
-    <t>Callahan</t>
-  </si>
-  <si>
-    <t>Evans</t>
-  </si>
-  <si>
-    <t>Cain</t>
-  </si>
-  <si>
-    <t>Clay</t>
-  </si>
-  <si>
-    <t>Montgomery</t>
-  </si>
-  <si>
-    <t>Fulton</t>
-  </si>
-  <si>
-    <t>Donaldson</t>
-  </si>
-  <si>
-    <t>Matthews</t>
-  </si>
-  <si>
-    <t>Miranda</t>
-  </si>
-  <si>
-    <t>Jacobson</t>
-  </si>
-  <si>
-    <t>Pruitt</t>
-  </si>
-  <si>
-    <t>Rasmussen</t>
-  </si>
-  <si>
-    <t>Curry</t>
-  </si>
-  <si>
-    <t>Estrada</t>
-  </si>
-  <si>
-    <t>Gamble</t>
-  </si>
-  <si>
-    <t>Sellers</t>
-  </si>
-  <si>
-    <t>Carney</t>
-  </si>
-  <si>
-    <t>Cummings</t>
-  </si>
-  <si>
-    <t>Barron</t>
-  </si>
-  <si>
-    <t>Luna</t>
-  </si>
-  <si>
-    <t>Gilliam</t>
-  </si>
-  <si>
-    <t>Summers</t>
-  </si>
-  <si>
-    <t>Fischer</t>
-  </si>
-  <si>
-    <t>Romero</t>
-  </si>
-  <si>
-    <t>Landry</t>
-  </si>
-  <si>
-    <t>Mccormick</t>
-  </si>
-  <si>
-    <t>Franco</t>
-  </si>
-  <si>
-    <t>Calhoun</t>
-  </si>
-  <si>
-    <t>Gutierrez</t>
-  </si>
-  <si>
-    <t>Mueller</t>
-  </si>
-  <si>
-    <t>Waller</t>
-  </si>
-  <si>
-    <t>Newman</t>
-  </si>
-  <si>
-    <t>Wiley</t>
-  </si>
-  <si>
-    <t>Hurst</t>
-  </si>
-  <si>
-    <t>Witt</t>
-  </si>
-  <si>
-    <t>Joyce</t>
-  </si>
-  <si>
-    <t>Everett</t>
-  </si>
-  <si>
-    <t>Barlow</t>
-  </si>
-  <si>
-    <t>Gardner</t>
-  </si>
-  <si>
-    <t>Oconnor</t>
-  </si>
-  <si>
-    <t>Knapp</t>
-  </si>
-  <si>
-    <t>Kane</t>
-  </si>
-  <si>
-    <t>Keller</t>
-  </si>
-  <si>
-    <t>Johnson</t>
-  </si>
-  <si>
-    <t>Ratliff</t>
-  </si>
-  <si>
-    <t>Mcconnell</t>
-  </si>
-  <si>
-    <t>Sutton</t>
-  </si>
-  <si>
-    <t>Baldwin</t>
-  </si>
-  <si>
-    <t>Goodwin</t>
-  </si>
-  <si>
-    <t>Cantrell</t>
-  </si>
-  <si>
-    <t>Wallace</t>
-  </si>
-  <si>
-    <t>Cannon</t>
-  </si>
-  <si>
-    <t>Fowler</t>
-  </si>
-  <si>
-    <t>Hansen</t>
-  </si>
-  <si>
-    <t>Austin</t>
-  </si>
-  <si>
-    <t>Grant</t>
-  </si>
-  <si>
-    <t>Fernandez</t>
-  </si>
-  <si>
-    <t>Wilkins</t>
-  </si>
-  <si>
-    <t>Pacheco</t>
-  </si>
-  <si>
-    <t>Fuentes</t>
-  </si>
-  <si>
-    <t>Beck</t>
-  </si>
-  <si>
-    <t>Powell</t>
-  </si>
-  <si>
-    <t>Daugherty</t>
-  </si>
-  <si>
-    <t>Salazar</t>
-  </si>
-  <si>
-    <t>Howell</t>
-  </si>
-  <si>
-    <t>Garcia</t>
-  </si>
-  <si>
-    <t>Lang</t>
-  </si>
-  <si>
-    <t>Henry</t>
-  </si>
-  <si>
-    <t>Hodge</t>
-  </si>
-  <si>
-    <t>Ashley</t>
-  </si>
-  <si>
-    <t>Finley</t>
-  </si>
-  <si>
-    <t>Guthrie</t>
-  </si>
-  <si>
-    <t>Case</t>
-  </si>
-  <si>
-    <t>Farley</t>
-  </si>
-  <si>
-    <t>Foster</t>
-  </si>
-  <si>
-    <t>Osborn</t>
-  </si>
-  <si>
-    <t>Lawson</t>
-  </si>
-  <si>
-    <t>Guerrero</t>
-  </si>
-  <si>
-    <t>Cortez</t>
-  </si>
-  <si>
-    <t>Pennington</t>
-  </si>
-  <si>
-    <t>Mcmahon</t>
-  </si>
-  <si>
-    <t>Bowman</t>
-  </si>
-  <si>
-    <t>Stout</t>
-  </si>
-  <si>
-    <t>Joyner</t>
-  </si>
-  <si>
-    <t>Richardson</t>
-  </si>
-  <si>
-    <t>Schneider</t>
-  </si>
-  <si>
-    <t>Morrison</t>
-  </si>
-  <si>
-    <t>White</t>
-  </si>
-  <si>
-    <t>Adams</t>
-  </si>
-  <si>
-    <t>Mooney</t>
-  </si>
-  <si>
-    <t>Wooten</t>
-  </si>
-  <si>
-    <t>Coleman</t>
-  </si>
-  <si>
-    <t>Puckett</t>
-  </si>
-  <si>
-    <t>Pope</t>
-  </si>
-  <si>
-    <t>Ramirez</t>
-  </si>
-  <si>
-    <t>Mcleod</t>
-  </si>
-  <si>
-    <t>Todd</t>
-  </si>
-  <si>
-    <t>Cherry</t>
-  </si>
-  <si>
-    <t>Nelson</t>
-  </si>
-  <si>
-    <t>Benson</t>
-  </si>
-  <si>
-    <t>Sweet</t>
-  </si>
-  <si>
-    <t>Harper</t>
-  </si>
-  <si>
-    <t>Thornton</t>
-  </si>
-  <si>
-    <t>Berg</t>
-  </si>
-  <si>
-    <t>Lyons</t>
-  </si>
-  <si>
-    <t>Castaneda</t>
-  </si>
-  <si>
-    <t>Wolf</t>
-  </si>
-  <si>
-    <t>Maddox</t>
-  </si>
-  <si>
-    <t>Chan</t>
-  </si>
-  <si>
-    <t>Jacobs</t>
-  </si>
-  <si>
-    <t>Moon</t>
-  </si>
-  <si>
-    <t>Morales</t>
-  </si>
-  <si>
-    <t>Griffith</t>
-  </si>
-  <si>
-    <t>Mendez</t>
-  </si>
-  <si>
-    <t>Casey</t>
-  </si>
-  <si>
-    <t>Hatfield</t>
-  </si>
-  <si>
-    <t>Emerson</t>
-  </si>
-  <si>
-    <t>Barnes</t>
-  </si>
-  <si>
-    <t>Figueroa</t>
-  </si>
-  <si>
-    <t>Wagner</t>
-  </si>
-  <si>
-    <t>Frank</t>
-  </si>
-  <si>
-    <t>Medina</t>
-  </si>
-  <si>
-    <t>Sharp</t>
-  </si>
-  <si>
-    <t>Bradford</t>
-  </si>
-  <si>
-    <t>Anderson</t>
-  </si>
-  <si>
-    <t>Petersen</t>
-  </si>
-  <si>
-    <t>Franks</t>
-  </si>
-  <si>
-    <t>Navarro</t>
-  </si>
-  <si>
-    <t>Phillips</t>
-  </si>
-  <si>
-    <t>Ortiz</t>
-  </si>
-  <si>
-    <t>Dickerson</t>
-  </si>
-  <si>
-    <t>Woodward</t>
-  </si>
-  <si>
-    <t>Humphrey</t>
-  </si>
-  <si>
-    <t>Kirk</t>
-  </si>
-  <si>
-    <t>Burks</t>
-  </si>
-  <si>
-    <t>Schmidt</t>
-  </si>
-  <si>
-    <t>Hernandez</t>
-  </si>
-  <si>
-    <t>Ford</t>
-  </si>
-  <si>
-    <t>Mendoza</t>
-  </si>
-  <si>
-    <t>Stanton</t>
-  </si>
-  <si>
-    <t>Daniels</t>
-  </si>
-  <si>
-    <t>Ball</t>
-  </si>
-  <si>
-    <t>Foley</t>
-  </si>
-  <si>
-    <t>Henderson</t>
-  </si>
-  <si>
-    <t>Bridges</t>
-  </si>
-  <si>
-    <t>Reeves</t>
-  </si>
-  <si>
-    <t>Williams</t>
-  </si>
-  <si>
-    <t>Copeland</t>
-  </si>
-  <si>
-    <t>Saunders</t>
-  </si>
-  <si>
-    <t>Forbes</t>
-  </si>
-  <si>
-    <t>Cline</t>
-  </si>
-  <si>
-    <t>Lynn</t>
-  </si>
-  <si>
-    <t>Bullock</t>
-  </si>
-  <si>
-    <t>Acosta</t>
-  </si>
-  <si>
-    <t>Bates</t>
-  </si>
-  <si>
-    <t>Burton</t>
-  </si>
-  <si>
-    <t>Long</t>
-  </si>
-  <si>
-    <t>Stark</t>
-  </si>
-  <si>
-    <t>Mckenzie</t>
-  </si>
-  <si>
-    <t>Dickson</t>
-  </si>
-  <si>
-    <t>Stevenson</t>
-  </si>
-  <si>
-    <t>Ewing</t>
-  </si>
-  <si>
-    <t>Crosby</t>
-  </si>
-  <si>
-    <t>Rowland</t>
-  </si>
-  <si>
-    <t>Richards</t>
-  </si>
-  <si>
-    <t>Mills</t>
-  </si>
-  <si>
-    <t>Blevins</t>
-  </si>
-  <si>
-    <t>Olsen</t>
-  </si>
-  <si>
-    <t>Dunn</t>
-  </si>
-  <si>
-    <t>Owens</t>
-  </si>
-  <si>
-    <t>Sloan</t>
-  </si>
-  <si>
-    <t>Cash</t>
-  </si>
-  <si>
-    <t>Lott</t>
-  </si>
-  <si>
-    <t>Winters</t>
-  </si>
-  <si>
-    <t>Burnett</t>
-  </si>
-  <si>
-    <t>House</t>
-  </si>
-  <si>
-    <t>Mccullough</t>
-  </si>
-  <si>
-    <t>Mason</t>
-  </si>
-  <si>
-    <t>Duffy</t>
-  </si>
-  <si>
-    <t>Hicks</t>
-  </si>
-  <si>
-    <t>Duncan</t>
-  </si>
-  <si>
-    <t>Gilbert</t>
-  </si>
-  <si>
-    <t>Wilkerson</t>
-  </si>
-  <si>
-    <t>Guy</t>
-  </si>
-  <si>
-    <t>Nixon</t>
-  </si>
-  <si>
-    <t>Mack</t>
-  </si>
-  <si>
-    <t>Cross</t>
-  </si>
-  <si>
-    <t>French</t>
-  </si>
-  <si>
-    <t>Carroll</t>
-  </si>
-  <si>
-    <t>Bentley</t>
-  </si>
-  <si>
-    <t>Huffman</t>
-  </si>
-  <si>
-    <t>Lynch</t>
-  </si>
-  <si>
-    <t>Finch</t>
-  </si>
-  <si>
-    <t>Flowers</t>
-  </si>
-  <si>
-    <t>Byrd</t>
-  </si>
-  <si>
-    <t>Faulkner</t>
-  </si>
-  <si>
-    <t>Parks</t>
-  </si>
-  <si>
-    <t>Carson</t>
-  </si>
-  <si>
-    <t>Roy</t>
-  </si>
-  <si>
-    <t>Hill</t>
-  </si>
-  <si>
-    <t>Sargent</t>
-  </si>
-  <si>
-    <t>Gill</t>
-  </si>
-  <si>
-    <t>Blackburn</t>
-  </si>
-  <si>
-    <t>Willis</t>
-  </si>
-  <si>
-    <t>Caldwell</t>
-  </si>
-  <si>
-    <t>Vega</t>
-  </si>
-  <si>
-    <t>Sanchez</t>
-  </si>
-  <si>
-    <t>Gonzales</t>
-  </si>
-  <si>
-    <t>Gibson</t>
-  </si>
-  <si>
-    <t>Stephenson</t>
-  </si>
-  <si>
-    <t>Koch</t>
-  </si>
-  <si>
-    <t>Davidson</t>
-  </si>
-  <si>
-    <t>Underwood</t>
-  </si>
-  <si>
-    <t>Hull</t>
-  </si>
-  <si>
-    <t>Orr</t>
-  </si>
-  <si>
-    <t>Robbins</t>
-  </si>
-  <si>
-    <t>Valencia</t>
-  </si>
-  <si>
-    <t>Perez</t>
-  </si>
-  <si>
-    <t>Burgess</t>
-  </si>
-  <si>
-    <t>Day</t>
-  </si>
-  <si>
-    <t>Calderon</t>
-  </si>
-  <si>
-    <t>Holt</t>
-  </si>
-  <si>
-    <t>Payne</t>
-  </si>
-  <si>
-    <t>Kirby</t>
-  </si>
-  <si>
-    <t>Kim</t>
-  </si>
-  <si>
-    <t>Stafford</t>
-  </si>
-  <si>
-    <t>Frederick</t>
-  </si>
-  <si>
-    <t>Mckee</t>
-  </si>
-  <si>
-    <t>Edwards</t>
-  </si>
-  <si>
-    <t>Trujillo</t>
-  </si>
-  <si>
-    <t>Rutledge</t>
-  </si>
-  <si>
-    <t>Hendricks</t>
-  </si>
-  <si>
-    <t>Harris</t>
-  </si>
-  <si>
-    <t>Morgan</t>
-  </si>
-  <si>
-    <t>Hudson</t>
-  </si>
-  <si>
-    <t>Huber</t>
-  </si>
-  <si>
-    <t>Rivers</t>
-  </si>
-  <si>
-    <t>Mejia</t>
-  </si>
-  <si>
-    <t>Nielsen</t>
-  </si>
-  <si>
-    <t>Roberts</t>
-  </si>
-  <si>
-    <t>Freeman</t>
-  </si>
-  <si>
-    <t>Chase</t>
-  </si>
-  <si>
-    <t>Gray</t>
-  </si>
-  <si>
-    <t>Hahn</t>
-  </si>
-  <si>
-    <t>Martinez</t>
-  </si>
-  <si>
-    <t>Barrera</t>
-  </si>
-  <si>
-    <t>Hoover</t>
-  </si>
-  <si>
-    <t>Mayo</t>
-  </si>
-  <si>
-    <t>Atkinson</t>
-  </si>
-  <si>
-    <t>Walton</t>
-  </si>
-  <si>
-    <t>Oneil</t>
-  </si>
-  <si>
-    <t>Livingston</t>
-  </si>
-  <si>
-    <t>Mercado</t>
-  </si>
-  <si>
-    <t>Pollard</t>
-  </si>
-  <si>
-    <t>Steele</t>
-  </si>
-  <si>
-    <t>Howe</t>
-  </si>
-  <si>
-    <t>Carlson</t>
-  </si>
-  <si>
-    <t>Carpenter</t>
-  </si>
-  <si>
-    <t>Manning</t>
-  </si>
-  <si>
-    <t>Potter</t>
-  </si>
-  <si>
-    <t>Rosales</t>
-  </si>
-  <si>
-    <t>Hooper</t>
-  </si>
-  <si>
-    <t>Schwartz</t>
-  </si>
-  <si>
-    <t>male</t>
-  </si>
-  <si>
-    <t>female</t>
-  </si>
-  <si>
-    <t>8679 Primis Avenue</t>
-  </si>
-  <si>
-    <t>252-8718 Dictum Rd.</t>
-  </si>
-  <si>
-    <t>Ap #198-2498 Felis Road</t>
-  </si>
-  <si>
-    <t>4481 Donec Av.</t>
-  </si>
-  <si>
-    <t>461-7845 Dui, Street</t>
-  </si>
-  <si>
-    <t>Ap #881-5503 Malesuada Avenue</t>
-  </si>
-  <si>
-    <t>802-4119 Imperdiet Avenue</t>
-  </si>
-  <si>
-    <t>Ap #760-7115 Ut St.</t>
-  </si>
-  <si>
-    <t>3300 In Ave</t>
-  </si>
-  <si>
-    <t>Ap #327-9658 Nec, Avenue</t>
-  </si>
-  <si>
-    <t>P.O. Box 495, 2922 Nulla. Street</t>
-  </si>
-  <si>
-    <t>917 Enim. Street</t>
-  </si>
-  <si>
-    <t>P.O. Box 466, 4134 Ornare, Road</t>
-  </si>
-  <si>
-    <t>9357 Elit St.</t>
-  </si>
-  <si>
-    <t>7808 Porttitor Rd.</t>
-  </si>
-  <si>
-    <t>Ap #217-6504 Euismod Rd.</t>
-  </si>
-  <si>
-    <t>P.O. Box 915, 472 Erat Ave</t>
-  </si>
-  <si>
-    <t>Ap #182-5660 Aliquam Street</t>
-  </si>
-  <si>
-    <t>Ap #817-3183 Nisl Av.</t>
-  </si>
-  <si>
-    <t>Ap #500-5066 Odio Avenue</t>
-  </si>
-  <si>
-    <t>9587 Magna, Road</t>
-  </si>
-  <si>
-    <t>P.O. Box 449, 4040 Imperdiet Rd.</t>
-  </si>
-  <si>
-    <t>Ap #538-9162 Nunc Road</t>
-  </si>
-  <si>
-    <t>Ap #482-6246 Eros Rd.</t>
-  </si>
-  <si>
-    <t>318-8493 Dapibus Ave</t>
-  </si>
-  <si>
-    <t>7278 Pede. Road</t>
-  </si>
-  <si>
-    <t>1261 Nonummy Street</t>
-  </si>
-  <si>
-    <t>P.O. Box 309, 6936 Et Ave</t>
-  </si>
-  <si>
-    <t>P.O. Box 930, 6447 Luctus. Avenue</t>
-  </si>
-  <si>
-    <t>P.O. Box 777, 9165 Eu, Ave</t>
-  </si>
-  <si>
-    <t>P.O. Box 388, 8517 Lorem Avenue</t>
-  </si>
-  <si>
-    <t>P.O. Box 185, 4976 Dolor Av.</t>
-  </si>
-  <si>
-    <t>P.O. Box 130, 4813 A Ave</t>
-  </si>
-  <si>
-    <t>P.O. Box 446, 2679 Ac, Avenue</t>
-  </si>
-  <si>
-    <t>687-3397 Integer Road</t>
-  </si>
-  <si>
-    <t>244-5311 Leo. Rd.</t>
-  </si>
-  <si>
-    <t>3201 Ut St.</t>
-  </si>
-  <si>
-    <t>P.O. Box 699, 9161 Eget Avenue</t>
-  </si>
-  <si>
-    <t>Ap #322-4486 Tincidunt Avenue</t>
-  </si>
-  <si>
-    <t>3962 Non, Rd.</t>
-  </si>
-  <si>
-    <t>Ap #780-3416 Bibendum. Av.</t>
-  </si>
-  <si>
-    <t>Ap #581-6936 A, Av.</t>
-  </si>
-  <si>
-    <t>5380 Ultrices Road</t>
-  </si>
-  <si>
-    <t>206 Torquent Rd.</t>
-  </si>
-  <si>
-    <t>7243 Montes, Ave</t>
-  </si>
-  <si>
-    <t>6948 Aliquet. Avenue</t>
-  </si>
-  <si>
-    <t>P.O. Box 583, 3534 Lectus. Rd.</t>
-  </si>
-  <si>
-    <t>3612 Vestibulum Ave</t>
-  </si>
-  <si>
-    <t>8618 Interdum Ave</t>
-  </si>
-  <si>
-    <t>3833 Magna. Rd.</t>
-  </si>
-  <si>
-    <t>9945 Cras Street</t>
-  </si>
-  <si>
-    <t>Ap #268-7014 Parturient St.</t>
-  </si>
-  <si>
-    <t>Ap #519-9013 Sapien Av.</t>
-  </si>
-  <si>
-    <t>2201 Eu St.</t>
-  </si>
-  <si>
-    <t>4966 Diam. Street</t>
-  </si>
-  <si>
-    <t>168-6184 Lorem Street</t>
-  </si>
-  <si>
-    <t>Ap #752-2675 At, Ave</t>
-  </si>
-  <si>
-    <t>Ap #354-5186 Nec Rd.</t>
-  </si>
-  <si>
-    <t>P.O. Box 760, 4765 Est. Rd.</t>
-  </si>
-  <si>
-    <t>Ap #650-3955 Ullamcorper Ave</t>
-  </si>
-  <si>
-    <t>P.O. Box 691, 9461 Massa Rd.</t>
-  </si>
-  <si>
-    <t>4172 Arcu. St.</t>
-  </si>
-  <si>
-    <t>618-4821 Justo. Av.</t>
-  </si>
-  <si>
-    <t>693-6312 Erat, Rd.</t>
-  </si>
-  <si>
-    <t>P.O. Box 160, 7950 Nulla St.</t>
-  </si>
-  <si>
-    <t>493-4350 Mauris Rd.</t>
-  </si>
-  <si>
-    <t>Ap #158-9288 Proin Ave</t>
-  </si>
-  <si>
-    <t>Ap #459-9737 Enim. Ave</t>
-  </si>
-  <si>
-    <t>874-5056 Nulla St.</t>
-  </si>
-  <si>
-    <t>Ap #824-7675 Nisi Avenue</t>
-  </si>
-  <si>
-    <t>P.O. Box 930, 1093 Mauris Road</t>
-  </si>
-  <si>
-    <t>7284 Dictum Rd.</t>
-  </si>
-  <si>
-    <t>483-1889 Euismod Street</t>
-  </si>
-  <si>
-    <t>Ap #601-954 Phasellus Rd.</t>
-  </si>
-  <si>
-    <t>6585 Ut Road</t>
-  </si>
-  <si>
-    <t>P.O. Box 693, 3921 Nunc Rd.</t>
-  </si>
-  <si>
-    <t>P.O. Box 556, 9887 Ultrices St.</t>
-  </si>
-  <si>
-    <t>P.O. Box 116, 7435 Auctor. Ave</t>
-  </si>
-  <si>
-    <t>P.O. Box 286, 6444 Consectetuer Rd.</t>
-  </si>
-  <si>
-    <t>7149 Proin Road</t>
-  </si>
-  <si>
-    <t>850-4364 Nonummy St.</t>
-  </si>
-  <si>
-    <t>124-9690 In, Rd.</t>
-  </si>
-  <si>
-    <t>P.O. Box 728, 9033 Nisi Av.</t>
-  </si>
-  <si>
-    <t>206-698 Facilisis Rd.</t>
-  </si>
-  <si>
-    <t>7945 Quisque Rd.</t>
-  </si>
-  <si>
-    <t>8473 Justo. Ave</t>
-  </si>
-  <si>
-    <t>9451 Faucibus Road</t>
-  </si>
-  <si>
-    <t>P.O. Box 758, 7728 Est Rd.</t>
-  </si>
-  <si>
-    <t>113-8873 Nibh. Ave</t>
-  </si>
-  <si>
-    <t>657-3280 Arcu. Avenue</t>
-  </si>
-  <si>
-    <t>963-1023 Quam Rd.</t>
-  </si>
-  <si>
-    <t>1598 Fermentum St.</t>
-  </si>
-  <si>
-    <t>P.O. Box 517, 5746 Egestas. Street</t>
-  </si>
-  <si>
-    <t>178-2557 Arcu. Avenue</t>
-  </si>
-  <si>
-    <t>5747 Mauris Av.</t>
-  </si>
-  <si>
-    <t>Ap #483-3029 Placerat. Rd.</t>
-  </si>
-  <si>
-    <t>2403 Lacus. St.</t>
-  </si>
-  <si>
-    <t>P.O. Box 920, 604 Aenean Av.</t>
-  </si>
-  <si>
-    <t>P.O. Box 286, 8529 Risus. St.</t>
-  </si>
-  <si>
-    <t>737-5326 Amet Av.</t>
-  </si>
-  <si>
-    <t>219-881 Nec, Avenue</t>
-  </si>
-  <si>
-    <t>467-3332 Erat, St.</t>
-  </si>
-  <si>
-    <t>Ap #350-1415 Venenatis St.</t>
-  </si>
-  <si>
-    <t>P.O. Box 964, 7936 Lorem Ave</t>
-  </si>
-  <si>
-    <t>Ap #405-4291 Praesent Road</t>
-  </si>
-  <si>
-    <t>426-4969 Nulla St.</t>
-  </si>
-  <si>
-    <t>P.O. Box 106, 5356 Libero. Road</t>
-  </si>
-  <si>
-    <t>2498 Sapien. Avenue</t>
-  </si>
-  <si>
-    <t>3958 Malesuada St.</t>
-  </si>
-  <si>
-    <t>613-9004 Odio St.</t>
-  </si>
-  <si>
-    <t>946-6480 Facilisis Rd.</t>
-  </si>
-  <si>
-    <t>4380 Amet Rd.</t>
-  </si>
-  <si>
-    <t>816-9720 Id Avenue</t>
-  </si>
-  <si>
-    <t>681-8614 Habitant St.</t>
-  </si>
-  <si>
-    <t>8565 Libero. Ave</t>
-  </si>
-  <si>
-    <t>233 Nunc Rd.</t>
-  </si>
-  <si>
-    <t>P.O. Box 997, 7436 Duis Avenue</t>
-  </si>
-  <si>
-    <t>Ap #291-8093 Egestas St.</t>
-  </si>
-  <si>
-    <t>P.O. Box 987, 7882 Elit, Rd.</t>
-  </si>
-  <si>
-    <t>618-2810 Dignissim Ave</t>
-  </si>
-  <si>
-    <t>Ap #164-2510 Eget Rd.</t>
-  </si>
-  <si>
-    <t>4590 A Road</t>
-  </si>
-  <si>
-    <t>5115 At Av.</t>
-  </si>
-  <si>
-    <t>4123 Nisi. Avenue</t>
-  </si>
-  <si>
-    <t>6645 Vehicula Rd.</t>
-  </si>
-  <si>
-    <t>9523 Et Rd.</t>
-  </si>
-  <si>
-    <t>P.O. Box 635, 7315 Lorem Avenue</t>
-  </si>
-  <si>
-    <t>P.O. Box 980, 4966 Lacinia Rd.</t>
-  </si>
-  <si>
-    <t>Ap #337-5063 Elit, Av.</t>
-  </si>
-  <si>
-    <t>P.O. Box 614, 7997 Lacus. Street</t>
-  </si>
-  <si>
-    <t>935-3085 Aliquam Av.</t>
-  </si>
-  <si>
-    <t>Ap #528-8676 Nunc Avenue</t>
-  </si>
-  <si>
-    <t>768-1877 Placerat, Avenue</t>
-  </si>
-  <si>
-    <t>Ap #279-3143 Rhoncus. Rd.</t>
-  </si>
-  <si>
-    <t>Ap #413-9237 Vitae Street</t>
-  </si>
-  <si>
-    <t>Ap #509-2596 Pellentesque Rd.</t>
-  </si>
-  <si>
-    <t>513-1604 Lorem Rd.</t>
-  </si>
-  <si>
-    <t>Ap #121-4481 Eros Av.</t>
-  </si>
-  <si>
-    <t>3271 Sem Av.</t>
-  </si>
-  <si>
-    <t>Ap #617-788 Turpis Road</t>
-  </si>
-  <si>
-    <t>1496 Proin Rd.</t>
-  </si>
-  <si>
-    <t>284-5744 Libero Av.</t>
-  </si>
-  <si>
-    <t>959-4753 Id, Av.</t>
-  </si>
-  <si>
-    <t>P.O. Box 129, 1497 Venenatis Av.</t>
-  </si>
-  <si>
-    <t>P.O. Box 509, 2604 Integer Rd.</t>
-  </si>
-  <si>
-    <t>Ap #648-7372 Mauris St.</t>
-  </si>
-  <si>
-    <t>Ap #832-113 Sed Road</t>
-  </si>
-  <si>
-    <t>P.O. Box 102, 4994 Nec, Ave</t>
-  </si>
-  <si>
-    <t>Ap #623-7324 Tincidunt St.</t>
-  </si>
-  <si>
-    <t>Ap #592-8548 Sit Road</t>
-  </si>
-  <si>
-    <t>918-8234 Nonummy Road</t>
-  </si>
-  <si>
-    <t>9238 Aliquam Street</t>
-  </si>
-  <si>
-    <t>9778 Ante. Ave</t>
-  </si>
-  <si>
-    <t>P.O. Box 635, 4520 Faucibus Av.</t>
-  </si>
-  <si>
-    <t>456-9203 Lorem Rd.</t>
-  </si>
-  <si>
-    <t>834 Etiam Rd.</t>
-  </si>
-  <si>
-    <t>9673 Egestas, Street</t>
-  </si>
-  <si>
-    <t>3610 Auctor, Street</t>
-  </si>
-  <si>
-    <t>3541 Donec St.</t>
-  </si>
-  <si>
-    <t>5912 Lacinia Avenue</t>
-  </si>
-  <si>
-    <t>434-844 Mauris Av.</t>
-  </si>
-  <si>
-    <t>808-7340 Fusce Road</t>
-  </si>
-  <si>
-    <t>P.O. Box 403, 4183 Tellus Ave</t>
-  </si>
-  <si>
-    <t>P.O. Box 473, 3732 Fusce Street</t>
-  </si>
-  <si>
-    <t>906-3074 Mi. St.</t>
-  </si>
-  <si>
-    <t>530-6594 Quisque Road</t>
-  </si>
-  <si>
-    <t>671-7030 Non St.</t>
-  </si>
-  <si>
-    <t>P.O. Box 433, 5994 Egestas Avenue</t>
-  </si>
-  <si>
-    <t>6937 Faucibus Rd.</t>
-  </si>
-  <si>
-    <t>397-5152 Quam. Rd.</t>
-  </si>
-  <si>
-    <t>416-9178 Velit. Rd.</t>
-  </si>
-  <si>
-    <t>P.O. Box 214, 9013 Urna Rd.</t>
-  </si>
-  <si>
-    <t>5942 Ultricies Ave</t>
-  </si>
-  <si>
-    <t>P.O. Box 262, 8031 Leo. St.</t>
-  </si>
-  <si>
-    <t>P.O. Box 449, 263 Luctus Avenue</t>
-  </si>
-  <si>
-    <t>394-2475 Nec, Road</t>
-  </si>
-  <si>
-    <t>Ap #387-2377 Justo. St.</t>
-  </si>
-  <si>
-    <t>Ap #981-6239 Mauris Road</t>
-  </si>
-  <si>
-    <t>Ap #813-1691 Lorem Av.</t>
-  </si>
-  <si>
-    <t>6019 Parturient Rd.</t>
-  </si>
-  <si>
-    <t>Ap #624-9870 Dui, Rd.</t>
-  </si>
-  <si>
-    <t>450-2308 Sem Ave</t>
-  </si>
-  <si>
-    <t>P.O. Box 233, 4594 Ac St.</t>
-  </si>
-  <si>
-    <t>P.O. Box 579, 2825 Ut, Road</t>
-  </si>
-  <si>
-    <t>3574 Phasellus Ave</t>
-  </si>
-  <si>
-    <t>Ap #895-3306 Montes, Av.</t>
-  </si>
-  <si>
-    <t>Ap #278-4463 Nunc Avenue</t>
-  </si>
-  <si>
-    <t>996-3029 Erat Rd.</t>
-  </si>
-  <si>
-    <t>116-634 Venenatis St.</t>
-  </si>
-  <si>
-    <t>Ap #917-5249 Placerat, St.</t>
-  </si>
-  <si>
-    <t>6772 Cursus. St.</t>
-  </si>
-  <si>
-    <t>865 Placerat. Ave</t>
-  </si>
-  <si>
-    <t>P.O. Box 733, 6625 Cum Av.</t>
-  </si>
-  <si>
-    <t>P.O. Box 934, 9157 Sed St.</t>
-  </si>
-  <si>
-    <t>925-6019 Elit Rd.</t>
-  </si>
-  <si>
-    <t>P.O. Box 308, 9459 In St.</t>
-  </si>
-  <si>
-    <t>Ap #540-7369 Sociosqu Avenue</t>
-  </si>
-  <si>
-    <t>Ap #281-4274 Gravida. Avenue</t>
-  </si>
-  <si>
-    <t>Ap #393-398 Sem Av.</t>
-  </si>
-  <si>
-    <t>P.O. Box 560, 7091 Tempor St.</t>
-  </si>
-  <si>
-    <t>560 Ante. Avenue</t>
-  </si>
-  <si>
-    <t>366-4171 Lectus. Ave</t>
-  </si>
-  <si>
-    <t>Ap #285-9205 Nunc. Ave</t>
-  </si>
-  <si>
-    <t>865-8738 Pede St.</t>
-  </si>
-  <si>
-    <t>7665 Massa Street</t>
-  </si>
-  <si>
-    <t>146-7089 Tempor Rd.</t>
-  </si>
-  <si>
-    <t>Ap #428-5145 Ante Road</t>
-  </si>
-  <si>
-    <t>Ap #429-2214 Ipsum Rd.</t>
-  </si>
-  <si>
-    <t>7534 Lacus, Ave</t>
-  </si>
-  <si>
-    <t>P.O. Box 783, 2750 Phasellus Rd.</t>
-  </si>
-  <si>
-    <t>Ap #943-4645 Velit Ave</t>
-  </si>
-  <si>
-    <t>8929 Integer Av.</t>
-  </si>
-  <si>
-    <t>508-463 Magna. Rd.</t>
-  </si>
-  <si>
-    <t>973-4501 Gravida. Road</t>
-  </si>
-  <si>
-    <t>P.O. Box 906, 7551 Consequat Ave</t>
-  </si>
-  <si>
-    <t>138-8825 Sociis Avenue</t>
-  </si>
-  <si>
-    <t>693-6769 In Rd.</t>
-  </si>
-  <si>
-    <t>201-3915 Ipsum St.</t>
-  </si>
-  <si>
-    <t>222-8490 Nunc St.</t>
-  </si>
-  <si>
-    <t>624-2912 Eu Rd.</t>
-  </si>
-  <si>
-    <t>Ap #681-5911 Magna. Rd.</t>
-  </si>
-  <si>
-    <t>P.O. Box 792, 844 Nec Av.</t>
-  </si>
-  <si>
-    <t>4678 Accumsan Rd.</t>
-  </si>
-  <si>
-    <t>3926 Donec Av.</t>
-  </si>
-  <si>
-    <t>P.O. Box 105, 3166 Sed Street</t>
-  </si>
-  <si>
-    <t>Ap #885-4919 Arcu. St.</t>
-  </si>
-  <si>
-    <t>5567 Velit Rd.</t>
-  </si>
-  <si>
-    <t>P.O. Box 989, 3223 Tincidunt Road</t>
-  </si>
-  <si>
-    <t>P.O. Box 208, 7424 Consectetuer Avenue</t>
-  </si>
-  <si>
-    <t>P.O. Box 537, 7622 Aenean Avenue</t>
-  </si>
-  <si>
-    <t>565-8354 Sapien Street</t>
-  </si>
-  <si>
-    <t>Ap #816-5343 Elit, Rd.</t>
-  </si>
-  <si>
-    <t>817-9691 Suspendisse Ave</t>
-  </si>
-  <si>
-    <t>352-9267 Nonummy Ave</t>
-  </si>
-  <si>
-    <t>P.O. Box 742, 4959 Diam. Av.</t>
-  </si>
-  <si>
-    <t>461-7662 Non Av.</t>
-  </si>
-  <si>
-    <t>P.O. Box 523, 9679 Tellus Street</t>
-  </si>
-  <si>
-    <t>6248 Sagittis. Rd.</t>
-  </si>
-  <si>
-    <t>911-3837 Amet St.</t>
-  </si>
-  <si>
-    <t>P.O. Box 162, 6039 Velit St.</t>
-  </si>
-  <si>
-    <t>P.O. Box 212, 3595 Aliquam St.</t>
-  </si>
-  <si>
-    <t>499-9165 Ligula Rd.</t>
-  </si>
-  <si>
-    <t>P.O. Box 605, 1013 Tristique Av.</t>
-  </si>
-  <si>
-    <t>2846 Nullam St.</t>
-  </si>
-  <si>
-    <t>441-8364 Vel Rd.</t>
-  </si>
-  <si>
-    <t>Ap #166-3642 Luctus Av.</t>
-  </si>
-  <si>
-    <t>Ap #115-9478 Sagittis Avenue</t>
-  </si>
-  <si>
-    <t>7015 Libero Rd.</t>
-  </si>
-  <si>
-    <t>828-2887 Nonummy Ave</t>
-  </si>
-  <si>
-    <t>P.O. Box 990, 5262 Elit Street</t>
-  </si>
-  <si>
-    <t>7538 Neque Street</t>
-  </si>
-  <si>
-    <t>457-1383 Urna Ave</t>
-  </si>
-  <si>
-    <t>7565 In Ave</t>
-  </si>
-  <si>
-    <t>757-7013 Cursus, Avenue</t>
-  </si>
-  <si>
-    <t>430-4013 Fringilla. Avenue</t>
-  </si>
-  <si>
-    <t>P.O. Box 927, 8340 Dis Street</t>
-  </si>
-  <si>
-    <t>6871 At, Rd.</t>
-  </si>
-  <si>
-    <t>Ap #206-4915 Velit St.</t>
-  </si>
-  <si>
-    <t>P.O. Box 172, 6632 Mauris St.</t>
-  </si>
-  <si>
-    <t>144-9275 Vulputate Av.</t>
-  </si>
-  <si>
-    <t>P.O. Box 236, 5407 Phasellus Road</t>
-  </si>
-  <si>
-    <t>4342 Erat. St.</t>
-  </si>
-  <si>
-    <t>Ap #353-6085 Tincidunt Road</t>
-  </si>
-  <si>
-    <t>P.O. Box 641, 8472 Vel, Street</t>
-  </si>
-  <si>
-    <t>P.O. Box 665, 8553 Lacinia Road</t>
-  </si>
-  <si>
-    <t>661-4234 Tincidunt Av.</t>
-  </si>
-  <si>
-    <t>1332 Diam. Street</t>
-  </si>
-  <si>
-    <t>P.O. Box 358, 3265 Quis, Avenue</t>
-  </si>
-  <si>
-    <t>901 Nascetur Ave</t>
-  </si>
-  <si>
-    <t>P.O. Box 619, 4800 Ligula. Street</t>
-  </si>
-  <si>
-    <t>646-8067 Est Street</t>
-  </si>
-  <si>
-    <t>6880 Sed, Avenue</t>
-  </si>
-  <si>
-    <t>P.O. Box 163, 9714 Ut Avenue</t>
-  </si>
-  <si>
-    <t>P.O. Box 996, 1106 Nunc Ave</t>
-  </si>
-  <si>
-    <t>P.O. Box 735, 644 Curabitur Avenue</t>
-  </si>
-  <si>
-    <t>P.O. Box 646, 6778 Amet Ave</t>
-  </si>
-  <si>
-    <t>725-8431 Egestas Rd.</t>
-  </si>
-  <si>
-    <t>5128 Fringilla Av.</t>
-  </si>
-  <si>
-    <t>Ap #151-2908 Molestie Rd.</t>
-  </si>
-  <si>
-    <t>Ap #412-6917 Et Street</t>
-  </si>
-  <si>
-    <t>5643 Sapien. Avenue</t>
-  </si>
-  <si>
-    <t>8230 Ultrices, Road</t>
-  </si>
-  <si>
-    <t>6473 Convallis Rd.</t>
-  </si>
-  <si>
-    <t>P.O. Box 902, 1410 Lacus. St.</t>
-  </si>
-  <si>
-    <t>253 Fringilla Rd.</t>
-  </si>
-  <si>
-    <t>Ap #467-5041 Nisl Av.</t>
-  </si>
-  <si>
-    <t>649-5580 Neque Rd.</t>
-  </si>
-  <si>
-    <t>334-9208 Quam Av.</t>
-  </si>
-  <si>
-    <t>P.O. Box 899, 1664 Donec Rd.</t>
-  </si>
-  <si>
-    <t>Ap #252-3838 Etiam Road</t>
-  </si>
-  <si>
-    <t>P.O. Box 899, 3180 Quam. Rd.</t>
-  </si>
-  <si>
-    <t>5342 Ornare, Street</t>
-  </si>
-  <si>
-    <t>Ap #290-2014 Urna Rd.</t>
-  </si>
-  <si>
-    <t>352-1956 Sem Street</t>
-  </si>
-  <si>
-    <t>108-6883 Laoreet St.</t>
-  </si>
-  <si>
-    <t>P.O. Box 628, 826 Enim St.</t>
-  </si>
-  <si>
-    <t>Ap #107-8564 Volutpat Ave</t>
-  </si>
-  <si>
-    <t>Ap #802-3330 Lectus. Road</t>
-  </si>
-  <si>
-    <t>Ap #821-9860 Lectus Av.</t>
-  </si>
-  <si>
-    <t>6777 Aliquet, Avenue</t>
-  </si>
-  <si>
-    <t>P.O. Box 173, 706 Feugiat Rd.</t>
-  </si>
-  <si>
-    <t>537-7658 Semper Road</t>
-  </si>
-  <si>
-    <t>9694 Ligula Avenue</t>
-  </si>
-  <si>
-    <t>9524 Donec Avenue</t>
-  </si>
-  <si>
-    <t>P.O. Box 415, 5950 Et St.</t>
-  </si>
-  <si>
-    <t>1606 Donec Av.</t>
-  </si>
-  <si>
-    <t>224-5727 Aenean St.</t>
-  </si>
-  <si>
-    <t>Ap #635-5914 Sodales. Rd.</t>
-  </si>
-  <si>
-    <t>P.O. Box 161, 1484 Aliquet, Rd.</t>
-  </si>
-  <si>
-    <t>P.O. Box 215, 6178 Risus. St.</t>
-  </si>
-  <si>
-    <t>P.O. Box 257, 1856 Leo. Street</t>
-  </si>
-  <si>
-    <t>Ap #242-6270 Pulvinar St.</t>
-  </si>
-  <si>
-    <t>Ap #385-3875 Faucibus Road</t>
-  </si>
-  <si>
-    <t>9949 Sit Rd.</t>
-  </si>
-  <si>
-    <t>P.O. Box 939, 6150 Ac Road</t>
-  </si>
-  <si>
-    <t>7034 Venenatis Road</t>
-  </si>
-  <si>
-    <t>Ap #110-9720 Maecenas Rd.</t>
-  </si>
-  <si>
-    <t>553-4253 Quis Rd.</t>
-  </si>
-  <si>
-    <t>P.O. Box 360, 6117 Blandit Road</t>
-  </si>
-  <si>
-    <t>Ap #361-4358 Sed St.</t>
-  </si>
-  <si>
-    <t>Ap #836-9895 Est Av.</t>
-  </si>
-  <si>
-    <t>P.O. Box 342, 8111 Dictum Avenue</t>
-  </si>
-  <si>
-    <t>P.O. Box 562, 487 Ante, Ave</t>
-  </si>
-  <si>
-    <t>Ap #708-7053 Orci. Av.</t>
-  </si>
-  <si>
-    <t>9270 Fames St.</t>
-  </si>
-  <si>
-    <t>Ap #728-3889 Sit Rd.</t>
-  </si>
-  <si>
-    <t>6717 Lectus. St.</t>
-  </si>
-  <si>
-    <t>1056 Commodo St.</t>
-  </si>
-  <si>
-    <t>5885 Sed St.</t>
-  </si>
-  <si>
-    <t>P.O. Box 426, 1648 Diam St.</t>
-  </si>
-  <si>
-    <t>1284 Purus Rd.</t>
-  </si>
-  <si>
-    <t>914-9281 Sit Rd.</t>
-  </si>
-  <si>
-    <t>P.O. Box 645, 4270 Ut Rd.</t>
-  </si>
-  <si>
-    <t>623-7394 In Avenue</t>
-  </si>
-  <si>
-    <t>674-2390 Orci. St.</t>
-  </si>
-  <si>
-    <t>P.O. Box 833, 3365 Magnis St.</t>
-  </si>
-  <si>
-    <t>Ap #625-5821 Risus. Ave</t>
-  </si>
-  <si>
-    <t>Ap #813-164 Tempus, St.</t>
-  </si>
-  <si>
-    <t>435-6345 Molestie Street</t>
-  </si>
-  <si>
-    <t>P.O. Box 994, 2279 Nec Av.</t>
-  </si>
-  <si>
-    <t>Ap #750-1809 Enim. Ave</t>
-  </si>
-  <si>
-    <t>4751 Ut St.</t>
-  </si>
-  <si>
-    <t>P.O. Box 954, 5877 Nec Street</t>
-  </si>
-  <si>
-    <t>2627 Aliquet Ave</t>
-  </si>
-  <si>
-    <t>5807 Orci. St.</t>
-  </si>
-  <si>
-    <t>Ap #866-4514 Donec St.</t>
-  </si>
-  <si>
-    <t>5717 Ultricies Avenue</t>
-  </si>
-  <si>
-    <t>Ap #159-3111 Justo Rd.</t>
-  </si>
-  <si>
-    <t>P.O. Box 710, 6130 Primis Road</t>
-  </si>
-  <si>
-    <t>P.O. Box 672, 3734 Amet Av.</t>
-  </si>
-  <si>
-    <t>P.O. Box 684, 3887 A, Street</t>
-  </si>
-  <si>
-    <t>396-5072 Non St.</t>
-  </si>
-  <si>
-    <t>6982 Ornare. Street</t>
-  </si>
-  <si>
-    <t>Ap #499-4115 Amet Avenue</t>
-  </si>
-  <si>
-    <t>Ap #492-4727 Ut Av.</t>
-  </si>
-  <si>
-    <t>P.O. Box 585, 3683 Gravida. Av.</t>
-  </si>
-  <si>
-    <t>Ap #106-3214 A, St.</t>
-  </si>
-  <si>
-    <t>196-252 Duis St.</t>
-  </si>
-  <si>
-    <t>Ap #472-196 Nonummy Avenue</t>
-  </si>
-  <si>
-    <t>5713 Dolor. Ave</t>
-  </si>
-  <si>
-    <t>P.O. Box 277, 6059 Dictum Avenue</t>
-  </si>
-  <si>
-    <t>P.O. Box 883, 2027 Magna St.</t>
-  </si>
-  <si>
-    <t>Ap #192-6041 Non, Rd.</t>
-  </si>
-  <si>
-    <t>Ap #279-9290 Ipsum Street</t>
-  </si>
-  <si>
-    <t>7594 Mauris Avenue</t>
-  </si>
-  <si>
-    <t>420-4294 Proin Street</t>
-  </si>
-  <si>
-    <t>7614 Lacus. Rd.</t>
-  </si>
-  <si>
-    <t>Ap #888-8711 Quam Rd.</t>
-  </si>
-  <si>
-    <t>466-4325 Euismod Av.</t>
-  </si>
-  <si>
-    <t>P.O. Box 693, 502 Curabitur Street</t>
-  </si>
-  <si>
-    <t>Ap #135-324 Nam Road</t>
-  </si>
-  <si>
-    <t>P.O. Box 584, 6789 Sed Ave</t>
-  </si>
-  <si>
-    <t>4994 Nibh Avenue</t>
-  </si>
-  <si>
-    <t>Ap #230-3814 Et Street</t>
-  </si>
-  <si>
-    <t>P.O. Box 584, 5233 Sociis Road</t>
-  </si>
-  <si>
-    <t>P.O. Box 395, 902 Bibendum. Road</t>
-  </si>
-  <si>
-    <t>6114 Dapibus St.</t>
-  </si>
-  <si>
-    <t>7087 Convallis St.</t>
-  </si>
-  <si>
-    <t>5282 Id St.</t>
-  </si>
-  <si>
-    <t>9985 Montes, Avenue</t>
-  </si>
-  <si>
-    <t>775-155 Pede Avenue</t>
-  </si>
-  <si>
-    <t>8330 At Road</t>
-  </si>
-  <si>
-    <t>5657 Ullamcorper Street</t>
-  </si>
-  <si>
-    <t>P.O. Box 249, 1945 Et St.</t>
-  </si>
-  <si>
-    <t>P.O. Box 791, 7653 Ac Road</t>
-  </si>
-  <si>
-    <t>5924 Amet Street</t>
-  </si>
-  <si>
-    <t>9356 Gravida Road</t>
-  </si>
-  <si>
-    <t>468-2353 Augue St.</t>
-  </si>
-  <si>
-    <t>Ap #513-258 Malesuada Av.</t>
-  </si>
-  <si>
-    <t>3040 Ante St.</t>
-  </si>
-  <si>
-    <t>752-4120 Pellentesque Ave</t>
-  </si>
-  <si>
-    <t>317-2284 Ac Avenue</t>
-  </si>
-  <si>
-    <t>3412 Lorem Street</t>
-  </si>
-  <si>
-    <t>472 Vehicula Street</t>
-  </si>
-  <si>
-    <t>875-8422 Egestas Rd.</t>
-  </si>
-  <si>
-    <t>Ap #677-2961 Aliquet Rd.</t>
-  </si>
-  <si>
-    <t>Ap #938-3417 Ante. Road</t>
-  </si>
-  <si>
-    <t>3437 Ut Av.</t>
-  </si>
-  <si>
-    <t>7740 Ut Ave</t>
-  </si>
-  <si>
-    <t>P.O. Box 551, 2227 Nulla. Av.</t>
-  </si>
-  <si>
-    <t>7468 Tristique Av.</t>
-  </si>
-  <si>
-    <t>982-4955 Nisl. Ave</t>
-  </si>
-  <si>
-    <t>Ap #537-1504 Hendrerit Road</t>
-  </si>
-  <si>
-    <t>734-3166 Massa St.</t>
-  </si>
-  <si>
-    <t>Ap #418-6805 Mauris Road</t>
-  </si>
-  <si>
-    <t>421-3138 Metus. Road</t>
-  </si>
-  <si>
-    <t>P.O. Box 897, 4694 Imperdiet St.</t>
-  </si>
-  <si>
-    <t>1106 Quisque Street</t>
-  </si>
-  <si>
-    <t>P.O. Box 166, 4015 Amet Ave</t>
-  </si>
-  <si>
-    <t>576 At Rd.</t>
-  </si>
-  <si>
-    <t>Ap #813-2751 Ut, St.</t>
-  </si>
-  <si>
-    <t>P.O. Box 732, 8144 Justo. Avenue</t>
-  </si>
-  <si>
-    <t>Ap #280-2097 Feugiat Avenue</t>
-  </si>
-  <si>
-    <t>Ap #528-1701 Sociis Av.</t>
-  </si>
-  <si>
-    <t>1480 Quisque Rd.</t>
-  </si>
-  <si>
-    <t>P.O. Box 726, 4379 Tincidunt Ave</t>
-  </si>
-  <si>
-    <t>Ap #996-3165 Molestie Street</t>
-  </si>
-  <si>
-    <t>418-703 In Rd.</t>
-  </si>
-  <si>
-    <t>573-6578 Phasellus Rd.</t>
-  </si>
-  <si>
-    <t>9296 Risus. St.</t>
-  </si>
-  <si>
-    <t>758-6997 Dictum St.</t>
-  </si>
-  <si>
-    <t>P.O. Box 903, 2040 Proin St.</t>
-  </si>
-  <si>
-    <t>8705 Adipiscing Avenue</t>
-  </si>
-  <si>
-    <t>6742 Enim St.</t>
-  </si>
-  <si>
-    <t>3954 Tempus Avenue</t>
-  </si>
-  <si>
-    <t>4473 Fringilla Street</t>
-  </si>
-  <si>
-    <t>Ap #886-4798 Duis Ave</t>
-  </si>
-  <si>
-    <t>Ap #168-2665 Facilisis St.</t>
-  </si>
-  <si>
-    <t>969-1870 Nunc Av.</t>
-  </si>
-  <si>
-    <t>5203 Nunc Street</t>
-  </si>
-  <si>
-    <t>718-9518 Dolor Road</t>
-  </si>
-  <si>
-    <t>2558 Ut Ave</t>
-  </si>
-  <si>
-    <t>2507 Fames Road</t>
-  </si>
-  <si>
-    <t>334-5014 Tellus St.</t>
-  </si>
-  <si>
-    <t>138-1503 Aliquam Av.</t>
-  </si>
-  <si>
-    <t>128 In Rd.</t>
-  </si>
-  <si>
-    <t>576-2402 Auctor. Street</t>
-  </si>
-  <si>
-    <t>P.O. Box 398, 954 Molestie Rd.</t>
-  </si>
-  <si>
-    <t>9335 Malesuada Av.</t>
-  </si>
-  <si>
-    <t>P.O. Box 308, 9481 Mauris Avenue</t>
-  </si>
-  <si>
-    <t>P.O. Box 598, 5036 Enim. Rd.</t>
-  </si>
-  <si>
-    <t>Ap #844-7039 Lectus Rd.</t>
-  </si>
-  <si>
-    <t>960-5073 Mi Road</t>
-  </si>
-  <si>
-    <t>Ap #920-7439 Dictum. Rd.</t>
-  </si>
-  <si>
-    <t>8930 Leo. Ave</t>
-  </si>
-  <si>
-    <t>5178 Nullam St.</t>
-  </si>
-  <si>
-    <t>9734 Fusce Avenue</t>
-  </si>
-  <si>
-    <t>Ap #715-2606 Aliquam St.</t>
-  </si>
-  <si>
-    <t>1211 Neque St.</t>
-  </si>
-  <si>
-    <t>P.O. Box 401, 3413 Dolor. St.</t>
-  </si>
-  <si>
-    <t>9467 Natoque St.</t>
-  </si>
-  <si>
-    <t>P.O. Box 575, 4580 Metus. Avenue</t>
-  </si>
-  <si>
-    <t>536-3397 Placerat Av.</t>
-  </si>
-  <si>
-    <t>255-1827 Eget St.</t>
-  </si>
-  <si>
-    <t>7613 Lorem Av.</t>
-  </si>
-  <si>
-    <t>Ap #913-2562 Imperdiet, Rd.</t>
-  </si>
-  <si>
-    <t>948-7328 Molestie Ave</t>
-  </si>
-  <si>
-    <t>Ap #252-4816 Laoreet, Ave</t>
-  </si>
-  <si>
-    <t>Ap #110-5738 Nunc. Rd.</t>
-  </si>
-  <si>
-    <t>640-5910 Molestie Ave</t>
-  </si>
-  <si>
-    <t>814-2508 Purus, Ave</t>
-  </si>
-  <si>
-    <t>Ap #321-4350 Et Avenue</t>
-  </si>
-  <si>
-    <t>6205 Venenatis Rd.</t>
-  </si>
-  <si>
-    <t>981-9670 Donec Street</t>
-  </si>
-  <si>
-    <t>289-5213 Metus Av.</t>
-  </si>
-  <si>
-    <t>732-9340 Rutrum Rd.</t>
-  </si>
-  <si>
-    <t>Ap #647-7787 Bibendum Av.</t>
-  </si>
-  <si>
-    <t>Ap #277-1463 Ullamcorper Av.</t>
-  </si>
-  <si>
-    <t>Ap #727-2761 Dictum Av.</t>
-  </si>
-  <si>
-    <t>P.O. Box 277, 7796 Vehicula Avenue</t>
-  </si>
-  <si>
-    <t>4872 Sed Av.</t>
-  </si>
-  <si>
-    <t>P.O. Box 990, 1603 Magna Road</t>
-  </si>
-  <si>
-    <t>P.O. Box 105, 9478 Ipsum Ave</t>
-  </si>
-  <si>
-    <t>Ap #423-658 Pede Road</t>
-  </si>
-  <si>
-    <t>223 Sed Street</t>
-  </si>
-  <si>
-    <t>8604 Mollis. Av.</t>
-  </si>
-  <si>
-    <t>5940 Quis St.</t>
-  </si>
-  <si>
-    <t>P.O. Box 172, 685 Sagittis Road</t>
-  </si>
-  <si>
-    <t>P.O. Box 207, 4651 Nec Street</t>
-  </si>
-  <si>
-    <t>259-8736 Ornare. St.</t>
-  </si>
-  <si>
-    <t>Ap #912-7827 Urna, Ave</t>
-  </si>
-  <si>
-    <t>5215 Lectus. Rd.</t>
-  </si>
-  <si>
-    <t>654-8679 Eu Avenue</t>
-  </si>
-  <si>
-    <t>Ap #937-4623 Eleifend. Rd.</t>
-  </si>
-  <si>
-    <t>Ap #485-8850 Vel, St.</t>
-  </si>
-  <si>
-    <t>297-5499 At, Rd.</t>
-  </si>
-  <si>
-    <t>1199 A Ave</t>
-  </si>
-  <si>
-    <t>260 Elit Rd.</t>
-  </si>
-  <si>
-    <t>P.O. Box 671, 5772 Feugiat Street</t>
-  </si>
-  <si>
-    <t>P.O. Box 105, 1426 Donec Av.</t>
-  </si>
-  <si>
-    <t>P.O. Box 531, 4838 Rutrum. St.</t>
-  </si>
-  <si>
-    <t>P.O. Box 382, 6280 Sem, Rd.</t>
-  </si>
-  <si>
-    <t>5285 Mauris Road</t>
-  </si>
-  <si>
-    <t>Ap #675-2604 Vulputate, Road</t>
-  </si>
-  <si>
-    <t>P.O. Box 716, 3066 Porta St.</t>
-  </si>
-  <si>
-    <t>9894 Vivamus St.</t>
-  </si>
-  <si>
-    <t>Ap #324-8921 Ligula. Ave</t>
-  </si>
-  <si>
-    <t>P.O. Box 482, 4964 Ultricies Rd.</t>
-  </si>
-  <si>
-    <t>P.O. Box 222, 2908 Nunc Rd.</t>
-  </si>
-  <si>
-    <t>Ap #122-7574 Turpis Avenue</t>
-  </si>
-  <si>
-    <t>Ap #919-8745 Nunc St.</t>
-  </si>
-  <si>
-    <t>P.O. Box 113, 5453 Auctor Street</t>
-  </si>
-  <si>
-    <t>146 Eget Avenue</t>
-  </si>
-  <si>
-    <t>474-7978 Sed Av.</t>
-  </si>
-  <si>
-    <t>P.O. Box 590, 6160 Duis St.</t>
-  </si>
-  <si>
-    <t>683-1490 Lorem, Ave</t>
-  </si>
-  <si>
-    <t>487-4895 Mauris Avenue</t>
-  </si>
-  <si>
-    <t>2596 Consectetuer Road</t>
-  </si>
-  <si>
-    <t>Ap #412-8311 Erat Street</t>
-  </si>
-  <si>
-    <t>435-9554 Bibendum. Rd.</t>
-  </si>
-  <si>
-    <t>593-361 Non, Av.</t>
-  </si>
-  <si>
-    <t>P.O. Box 613, 4251 Lorem, Street</t>
-  </si>
-  <si>
-    <t>Ap #861-9472 Orci, St.</t>
-  </si>
-  <si>
-    <t>Ap #776-9390 Donec Road</t>
-  </si>
-  <si>
-    <t>P.O. Box 556, 7059 Ligula Av.</t>
-  </si>
-  <si>
-    <t>Ap #543-6055 Egestas St.</t>
-  </si>
-  <si>
-    <t>1321 Rutrum Rd.</t>
-  </si>
-  <si>
-    <t>Ap #881-2112 At, Street</t>
-  </si>
-  <si>
-    <t>674-1871 Nec, St.</t>
-  </si>
-  <si>
-    <t>P.O. Box 945, 9104 Magnis Street</t>
-  </si>
-  <si>
-    <t>7279 Dignissim Street</t>
-  </si>
-  <si>
-    <t>3376 Eget Rd.</t>
-  </si>
-  <si>
-    <t>P.O. Box 710, 5894 Convallis Street</t>
-  </si>
-  <si>
-    <t>P.O. Box 173, 7057 Lacinia Street</t>
-  </si>
-  <si>
-    <t>658-2202 Metus Rd.</t>
-  </si>
-  <si>
-    <t>Ap #412-8543 Ipsum. St.</t>
-  </si>
-  <si>
-    <t>2349 Dictum Ave</t>
-  </si>
-  <si>
-    <t>Ap #932-3496 Et St.</t>
-  </si>
-  <si>
-    <t>9289 Porttitor Rd.</t>
-  </si>
-  <si>
-    <t>8740 Dolor, Av.</t>
-  </si>
-  <si>
-    <t>7118 Fringilla, Av.</t>
-  </si>
-  <si>
-    <t>3320 Id St.</t>
-  </si>
-  <si>
-    <t>9153 Cum Road</t>
-  </si>
-  <si>
-    <t>P.O. Box 751, 3214 Congue Rd.</t>
-  </si>
-  <si>
-    <t>Ap #633-8045 Quisque Ave</t>
-  </si>
-  <si>
-    <t>Ap #371-1509 Et, Avenue</t>
-  </si>
-  <si>
-    <t>P.O. Box 712, 4825 Justo Road</t>
-  </si>
-  <si>
-    <t>P.O. Box 317, 4743 Ante Avenue</t>
-  </si>
-  <si>
-    <t>Ap #995-8498 Cum Road</t>
-  </si>
-  <si>
-    <t>9296 Nec, Road</t>
-  </si>
-  <si>
-    <t>Ap #272-8959 Massa. Rd.</t>
-  </si>
-  <si>
-    <t>Ap #866-5787 Diam Av.</t>
-  </si>
-  <si>
-    <t>Ap #147-3702 Laoreet Road</t>
-  </si>
-  <si>
-    <t>367-9289 Turpis Street</t>
-  </si>
-  <si>
-    <t>P.O. Box 166, 6115 Arcu. Rd.</t>
-  </si>
-  <si>
-    <t>Ap #677-2969 Id St.</t>
-  </si>
-  <si>
-    <t>P.O. Box 448, 4547 Faucibus Avenue</t>
-  </si>
-  <si>
-    <t>287-6523 Quis Street</t>
-  </si>
-  <si>
-    <t>7808 Consequat Ave</t>
-  </si>
-  <si>
-    <t>P.O. Box 943, 3373 Nullam Avenue</t>
-  </si>
-  <si>
-    <t>P.O. Box 708, 3643 At Street</t>
-  </si>
-  <si>
-    <t>P.O. Box 533, 5852 A St.</t>
-  </si>
-  <si>
-    <t>4715 Non, Rd.</t>
-  </si>
-  <si>
-    <t>P.O. Box 728, 4817 Metus. Rd.</t>
-  </si>
-  <si>
-    <t>606-4866 Ut Ave</t>
-  </si>
-  <si>
-    <t>Ap #837-1286 Velit St.</t>
-  </si>
-  <si>
-    <t>Ap #291-8298 Id St.</t>
-  </si>
-  <si>
-    <t>275-7354 Mauris. Road</t>
-  </si>
-  <si>
-    <t>Ap #490-2171 Maecenas Avenue</t>
-  </si>
-  <si>
-    <t>7723 Placerat Ave</t>
-  </si>
-  <si>
-    <t>Ap #514-9440 Metus. Rd.</t>
-  </si>
-  <si>
-    <t>184-5914 Aenean Av.</t>
-  </si>
-  <si>
-    <t>8638 Varius Road</t>
-  </si>
-  <si>
-    <t>3082 Cras Street</t>
-  </si>
-  <si>
-    <t>P.O. Box 549, 2162 Gravida. St.</t>
-  </si>
-  <si>
-    <t>4216 Dui Av.</t>
-  </si>
-  <si>
-    <t>6591 Odio. St.</t>
-  </si>
-  <si>
-    <t>535-2071 Morbi Road</t>
-  </si>
-  <si>
-    <t>756-1256 Nec Street</t>
-  </si>
-  <si>
-    <t>P.O. Box 638, 3185 Accumsan Rd.</t>
-  </si>
-  <si>
-    <t>9548 Vitae, Ave</t>
-  </si>
-  <si>
-    <t>448-7413 Diam St.</t>
-  </si>
-  <si>
-    <t>503-6047 Cras Rd.</t>
-  </si>
-  <si>
-    <t>1583 Integer Road</t>
-  </si>
-  <si>
-    <t>997-3676 Porttitor Street</t>
-  </si>
-  <si>
-    <t>Ap #578-3124 Lacus. Rd.</t>
-  </si>
-  <si>
-    <t>P.O. Box 369, 6224 Luctus Rd.</t>
-  </si>
-  <si>
-    <t>141-8554 Lacinia Ave</t>
-  </si>
-  <si>
-    <t>685-4975 Montes, Avenue</t>
-  </si>
-  <si>
-    <t>P.O. Box 283, 9422 Ligula. Road</t>
-  </si>
-  <si>
-    <t>P.O. Box 827, 3409 Est Street</t>
-  </si>
-  <si>
-    <t>Ap #718-2384 Lacus. Rd.</t>
-  </si>
-  <si>
-    <t>P.O. Box 496, 7544 Rutrum Av.</t>
-  </si>
-  <si>
-    <t>Ap #436-6569 Phasellus Street</t>
-  </si>
-  <si>
-    <t>P.O. Box 302, 231 Facilisis Avenue</t>
-  </si>
-  <si>
-    <t>793-1306 Tellus St.</t>
-  </si>
-  <si>
-    <t>655 Augue Avenue</t>
-  </si>
-  <si>
-    <t>Ap #283-8499 Mus. Road</t>
-  </si>
-  <si>
-    <t>280-7098 Eu Ave</t>
-  </si>
-  <si>
-    <t>2256 Cubilia Rd.</t>
-  </si>
-  <si>
-    <t>3284 Neque. Avenue</t>
-  </si>
-  <si>
-    <t>Ap #868-538 Rutrum Road</t>
-  </si>
-  <si>
-    <t>9594 Donec St.</t>
-  </si>
-  <si>
-    <t>P.O. Box 168, 1096 Donec Av.</t>
-  </si>
-  <si>
-    <t>4276 Habitant St.</t>
-  </si>
-  <si>
-    <t>178-3433 Mi Street</t>
-  </si>
-  <si>
-    <t>160-9900 Non, Rd.</t>
-  </si>
-  <si>
-    <t>2196 Dolor. Ave</t>
-  </si>
-  <si>
-    <t>Ap #822-6862 Nisl Rd.</t>
-  </si>
-  <si>
-    <t>7252 Dictum Street</t>
+    <t>WENDY</t>
+  </si>
+  <si>
+    <t>IMELDA</t>
+  </si>
+  <si>
+    <t>ERICA</t>
+  </si>
+  <si>
+    <t>AUDRA</t>
+  </si>
+  <si>
+    <t>NEHRU</t>
+  </si>
+  <si>
+    <t>MARIKO</t>
+  </si>
+  <si>
+    <t>SYBIL</t>
+  </si>
+  <si>
+    <t>TAMARA</t>
+  </si>
+  <si>
+    <t>TYRONE</t>
+  </si>
+  <si>
+    <t>DARRYL</t>
+  </si>
+  <si>
+    <t>NOEL</t>
+  </si>
+  <si>
+    <t>PIPER</t>
+  </si>
+  <si>
+    <t>ZACHERY</t>
+  </si>
+  <si>
+    <t>ILA</t>
+  </si>
+  <si>
+    <t>QUINLAN</t>
+  </si>
+  <si>
+    <t>MIA</t>
+  </si>
+  <si>
+    <t>ERIC</t>
+  </si>
+  <si>
+    <t>KIMBERLY</t>
+  </si>
+  <si>
+    <t>JESSICA</t>
+  </si>
+  <si>
+    <t>LAWRENCE</t>
+  </si>
+  <si>
+    <t>YEN</t>
+  </si>
+  <si>
+    <t>SOPHIA</t>
+  </si>
+  <si>
+    <t>ADDISON</t>
+  </si>
+  <si>
+    <t>TROY</t>
+  </si>
+  <si>
+    <t>BREANNA</t>
+  </si>
+  <si>
+    <t>RANDALL</t>
+  </si>
+  <si>
+    <t>ALFONSO</t>
+  </si>
+  <si>
+    <t>URIEL</t>
+  </si>
+  <si>
+    <t>ALEA</t>
+  </si>
+  <si>
+    <t>HERMIONE</t>
+  </si>
+  <si>
+    <t>OLIVER</t>
+  </si>
+  <si>
+    <t>VICTOR</t>
+  </si>
+  <si>
+    <t>BELL</t>
+  </si>
+  <si>
+    <t>JACOB</t>
+  </si>
+  <si>
+    <t>AIDAN</t>
+  </si>
+  <si>
+    <t>VELMA</t>
+  </si>
+  <si>
+    <t>ZENA</t>
+  </si>
+  <si>
+    <t>DESTINY</t>
+  </si>
+  <si>
+    <t>CALVIN</t>
+  </si>
+  <si>
+    <t>JEROME</t>
+  </si>
+  <si>
+    <t>ABEL</t>
+  </si>
+  <si>
+    <t>ALLEN</t>
+  </si>
+  <si>
+    <t>QUINCY</t>
+  </si>
+  <si>
+    <t>LEE</t>
+  </si>
+  <si>
+    <t>XANDRA</t>
+  </si>
+  <si>
+    <t>ZEPHR</t>
+  </si>
+  <si>
+    <t>CYNTHIA</t>
+  </si>
+  <si>
+    <t>MYLES</t>
+  </si>
+  <si>
+    <t>JOCELYN</t>
+  </si>
+  <si>
+    <t>FAY</t>
+  </si>
+  <si>
+    <t>GANNON</t>
+  </si>
+  <si>
+    <t>KYLAN</t>
+  </si>
+  <si>
+    <t>JANNA</t>
+  </si>
+  <si>
+    <t>BERNARD</t>
+  </si>
+  <si>
+    <t>YURI</t>
+  </si>
+  <si>
+    <t>RUBY</t>
+  </si>
+  <si>
+    <t>LINUS</t>
+  </si>
+  <si>
+    <t>BRENNAN</t>
+  </si>
+  <si>
+    <t>COLTON</t>
+  </si>
+  <si>
+    <t>HILARY</t>
+  </si>
+  <si>
+    <t>HILEL</t>
+  </si>
+  <si>
+    <t>ORSON</t>
+  </si>
+  <si>
+    <t>DONNA</t>
+  </si>
+  <si>
+    <t>ALEXIS</t>
+  </si>
+  <si>
+    <t>MARIS</t>
+  </si>
+  <si>
+    <t>ROGAN</t>
+  </si>
+  <si>
+    <t>HU</t>
+  </si>
+  <si>
+    <t>WANDA</t>
+  </si>
+  <si>
+    <t>CAESAR</t>
+  </si>
+  <si>
+    <t>HEDWIG</t>
+  </si>
+  <si>
+    <t>BENJAMIN</t>
+  </si>
+  <si>
+    <t>IRENE</t>
+  </si>
+  <si>
+    <t>SHEA</t>
+  </si>
+  <si>
+    <t>LEWIS</t>
+  </si>
+  <si>
+    <t>KALIA</t>
+  </si>
+  <si>
+    <t>DAVIS</t>
+  </si>
+  <si>
+    <t>DOMINIC</t>
+  </si>
+  <si>
+    <t>SAMUEL</t>
+  </si>
+  <si>
+    <t>DARREL</t>
+  </si>
+  <si>
+    <t>DAVID</t>
+  </si>
+  <si>
+    <t>SALVADOR</t>
+  </si>
+  <si>
+    <t>REECE</t>
+  </si>
+  <si>
+    <t>KASPER</t>
+  </si>
+  <si>
+    <t>ANNE</t>
+  </si>
+  <si>
+    <t>INDIA</t>
+  </si>
+  <si>
+    <t>MAXINE</t>
+  </si>
+  <si>
+    <t>MADONNA</t>
+  </si>
+  <si>
+    <t>ANTHONY</t>
+  </si>
+  <si>
+    <t>CHANNING</t>
+  </si>
+  <si>
+    <t>ISAIAH</t>
+  </si>
+  <si>
+    <t>KASEEM</t>
+  </si>
+  <si>
+    <t>HAYLEY</t>
+  </si>
+  <si>
+    <t>JOELLE</t>
+  </si>
+  <si>
+    <t>LEAH</t>
+  </si>
+  <si>
+    <t>TATIANA</t>
+  </si>
+  <si>
+    <t>SELMA</t>
+  </si>
+  <si>
+    <t>EUGENIA</t>
+  </si>
+  <si>
+    <t>FLETCHER</t>
+  </si>
+  <si>
+    <t>HARDING</t>
+  </si>
+  <si>
+    <t>GISELA</t>
+  </si>
+  <si>
+    <t>NOAH</t>
+  </si>
+  <si>
+    <t>DAI</t>
+  </si>
+  <si>
+    <t>DENISE</t>
+  </si>
+  <si>
+    <t>IGOR</t>
+  </si>
+  <si>
+    <t>AVRAM</t>
+  </si>
+  <si>
+    <t>HAMISH</t>
+  </si>
+  <si>
+    <t>AMELA</t>
+  </si>
+  <si>
+    <t>ABRAHAM</t>
+  </si>
+  <si>
+    <t>CRAIG</t>
+  </si>
+  <si>
+    <t>NASH</t>
+  </si>
+  <si>
+    <t>FERRIS</t>
+  </si>
+  <si>
+    <t>BLAKE</t>
+  </si>
+  <si>
+    <t>HERMAN</t>
+  </si>
+  <si>
+    <t>ALISA</t>
+  </si>
+  <si>
+    <t>JAIME</t>
+  </si>
+  <si>
+    <t>LARS</t>
+  </si>
+  <si>
+    <t>OTTO</t>
+  </si>
+  <si>
+    <t>GARTH</t>
+  </si>
+  <si>
+    <t>CHERYL</t>
+  </si>
+  <si>
+    <t>JARROD</t>
+  </si>
+  <si>
+    <t>BARRY</t>
+  </si>
+  <si>
+    <t>PENELOPE</t>
+  </si>
+  <si>
+    <t>GARRETT</t>
+  </si>
+  <si>
+    <t>WESLEY</t>
+  </si>
+  <si>
+    <t>PHILIP</t>
+  </si>
+  <si>
+    <t>BLOSSOM</t>
+  </si>
+  <si>
+    <t>SHELLIE</t>
+  </si>
+  <si>
+    <t>UMA</t>
+  </si>
+  <si>
+    <t>TRAVIS</t>
+  </si>
+  <si>
+    <t>CHRISTIAN</t>
+  </si>
+  <si>
+    <t>MACKENZIE</t>
+  </si>
+  <si>
+    <t>PAUL</t>
+  </si>
+  <si>
+    <t>UPTON</t>
+  </si>
+  <si>
+    <t>MECHELLE</t>
+  </si>
+  <si>
+    <t>HYATT</t>
+  </si>
+  <si>
+    <t>MEREDITH</t>
+  </si>
+  <si>
+    <t>ZELENIA</t>
+  </si>
+  <si>
+    <t>KIERAN</t>
+  </si>
+  <si>
+    <t>RYDER</t>
+  </si>
+  <si>
+    <t>HARRIET</t>
+  </si>
+  <si>
+    <t>TARIK</t>
+  </si>
+  <si>
+    <t>WINTER</t>
+  </si>
+  <si>
+    <t>ARIEL</t>
+  </si>
+  <si>
+    <t>GARETH</t>
+  </si>
+  <si>
+    <t>MICHAEL</t>
+  </si>
+  <si>
+    <t>CAMILLE</t>
+  </si>
+  <si>
+    <t>DEVIN</t>
+  </si>
+  <si>
+    <t>BASIL</t>
+  </si>
+  <si>
+    <t>CAMERON</t>
+  </si>
+  <si>
+    <t>BRITTANY</t>
+  </si>
+  <si>
+    <t>ARISTOTLE</t>
+  </si>
+  <si>
+    <t>TEAGAN</t>
+  </si>
+  <si>
+    <t>VINCENT</t>
+  </si>
+  <si>
+    <t>BROCK</t>
+  </si>
+  <si>
+    <t>ISABELLA</t>
+  </si>
+  <si>
+    <t>KENNAN</t>
+  </si>
+  <si>
+    <t>LYLE</t>
+  </si>
+  <si>
+    <t>KELLY</t>
+  </si>
+  <si>
+    <t>HADLEY</t>
+  </si>
+  <si>
+    <t>WYATT</t>
+  </si>
+  <si>
+    <t>YASIR</t>
+  </si>
+  <si>
+    <t>AIMEE</t>
+  </si>
+  <si>
+    <t>GRETCHEN</t>
+  </si>
+  <si>
+    <t>IFEOMA</t>
+  </si>
+  <si>
+    <t>CADE</t>
+  </si>
+  <si>
+    <t>MAIA</t>
+  </si>
+  <si>
+    <t>TATYANA</t>
+  </si>
+  <si>
+    <t>DEIRDRE</t>
+  </si>
+  <si>
+    <t>FATIMA</t>
+  </si>
+  <si>
+    <t>BRENDAN</t>
+  </si>
+  <si>
+    <t>HEDY</t>
+  </si>
+  <si>
+    <t>LYSANDRA</t>
+  </si>
+  <si>
+    <t>DILLON</t>
+  </si>
+  <si>
+    <t>ROONEY</t>
+  </si>
+  <si>
+    <t>FELICIA</t>
+  </si>
+  <si>
+    <t>CONNOR</t>
+  </si>
+  <si>
+    <t>ROBIN</t>
+  </si>
+  <si>
+    <t>PRICE</t>
+  </si>
+  <si>
+    <t>SYDNEY</t>
+  </si>
+  <si>
+    <t>ADRIAN</t>
+  </si>
+  <si>
+    <t>HAYDEN</t>
+  </si>
+  <si>
+    <t>BUFFY</t>
+  </si>
+  <si>
+    <t>CODY</t>
+  </si>
+  <si>
+    <t>MICHELLE</t>
+  </si>
+  <si>
+    <t>UTA</t>
+  </si>
+  <si>
+    <t>REESE</t>
+  </si>
+  <si>
+    <t>LAITH</t>
+  </si>
+  <si>
+    <t>PHYLLIS</t>
+  </si>
+  <si>
+    <t>RAPHAEL</t>
+  </si>
+  <si>
+    <t>PALMER</t>
+  </si>
+  <si>
+    <t>AMETHYST</t>
+  </si>
+  <si>
+    <t>CHANCELLOR</t>
+  </si>
+  <si>
+    <t>GRIFFIN</t>
+  </si>
+  <si>
+    <t>ARMANDO</t>
+  </si>
+  <si>
+    <t>ISHMAEL</t>
+  </si>
+  <si>
+    <t>TALLULAH</t>
+  </si>
+  <si>
+    <t>KEELY</t>
+  </si>
+  <si>
+    <t>ABRA</t>
+  </si>
+  <si>
+    <t>AMBER</t>
+  </si>
+  <si>
+    <t>KIBO</t>
+  </si>
+  <si>
+    <t>WYOMING</t>
+  </si>
+  <si>
+    <t>KYLIE</t>
+  </si>
+  <si>
+    <t>JUDAH</t>
+  </si>
+  <si>
+    <t>LANCE</t>
+  </si>
+  <si>
+    <t>JUSTINE</t>
+  </si>
+  <si>
+    <t>CAMERAN</t>
+  </si>
+  <si>
+    <t>OLYMPIA</t>
+  </si>
+  <si>
+    <t>SYBILL</t>
+  </si>
+  <si>
+    <t>NIGEL</t>
+  </si>
+  <si>
+    <t>RAFAEL</t>
+  </si>
+  <si>
+    <t>IONA</t>
+  </si>
+  <si>
+    <t>ERICH</t>
+  </si>
+  <si>
+    <t>CHANDLER</t>
+  </si>
+  <si>
+    <t>VERNON</t>
+  </si>
+  <si>
+    <t>KARLEIGH</t>
+  </si>
+  <si>
+    <t>MACKENSIE</t>
+  </si>
+  <si>
+    <t>VLADIMIR</t>
+  </si>
+  <si>
+    <t>OSCAR</t>
+  </si>
+  <si>
+    <t>LANE</t>
+  </si>
+  <si>
+    <t>BASIA</t>
+  </si>
+  <si>
+    <t>STEPHANIE</t>
+  </si>
+  <si>
+    <t>JIN</t>
+  </si>
+  <si>
+    <t>EDWARD</t>
+  </si>
+  <si>
+    <t>WHOOPI</t>
+  </si>
+  <si>
+    <t>NADINE</t>
+  </si>
+  <si>
+    <t>GILLIAN</t>
+  </si>
+  <si>
+    <t>VANNA</t>
+  </si>
+  <si>
+    <t>JOLIE</t>
+  </si>
+  <si>
+    <t>ORA</t>
+  </si>
+  <si>
+    <t>TANISHA</t>
+  </si>
+  <si>
+    <t>ANN</t>
+  </si>
+  <si>
+    <t>ALLEGRA</t>
+  </si>
+  <si>
+    <t>AMITY</t>
+  </si>
+  <si>
+    <t>MEGHAN</t>
+  </si>
+  <si>
+    <t>COLORADO</t>
+  </si>
+  <si>
+    <t>BURKE</t>
+  </si>
+  <si>
+    <t>JASON</t>
+  </si>
+  <si>
+    <t>LYDIA</t>
+  </si>
+  <si>
+    <t>FALLON</t>
+  </si>
+  <si>
+    <t>CAROL</t>
+  </si>
+  <si>
+    <t>KYLEE</t>
+  </si>
+  <si>
+    <t>COLT</t>
+  </si>
+  <si>
+    <t>HAVIVA</t>
+  </si>
+  <si>
+    <t>WHITNEY</t>
+  </si>
+  <si>
+    <t>MADISON</t>
+  </si>
+  <si>
+    <t>BERT</t>
+  </si>
+  <si>
+    <t>BRANDON</t>
+  </si>
+  <si>
+    <t>DONOVAN</t>
+  </si>
+  <si>
+    <t>FLYNN</t>
+  </si>
+  <si>
+    <t>MELINDA</t>
+  </si>
+  <si>
+    <t>JASMINE</t>
+  </si>
+  <si>
+    <t>MATTHEW</t>
+  </si>
+  <si>
+    <t>CHARITY</t>
+  </si>
+  <si>
+    <t>JESSE</t>
+  </si>
+  <si>
+    <t>ODYSSEUS</t>
+  </si>
+  <si>
+    <t>CHRISTEN</t>
+  </si>
+  <si>
+    <t>TANA</t>
+  </si>
+  <si>
+    <t>PORTER</t>
+  </si>
+  <si>
+    <t>MUFUTAU</t>
+  </si>
+  <si>
+    <t>YULI</t>
+  </si>
+  <si>
+    <t>SERENA</t>
+  </si>
+  <si>
+    <t>COLIN</t>
+  </si>
+  <si>
+    <t>BRODY</t>
+  </si>
+  <si>
+    <t>TEEGAN</t>
+  </si>
+  <si>
+    <t>KASIMIR</t>
+  </si>
+  <si>
+    <t>CHLOE</t>
+  </si>
+  <si>
+    <t>CHARLES</t>
+  </si>
+  <si>
+    <t>ROSE</t>
+  </si>
+  <si>
+    <t>QUINN</t>
+  </si>
+  <si>
+    <t>DEAN</t>
+  </si>
+  <si>
+    <t>JERRY</t>
+  </si>
+  <si>
+    <t>FLAVIA</t>
+  </si>
+  <si>
+    <t>DAMON</t>
+  </si>
+  <si>
+    <t>ABDUL</t>
+  </si>
+  <si>
+    <t>CLEMENTINE</t>
+  </si>
+  <si>
+    <t>CARTER</t>
+  </si>
+  <si>
+    <t>SHOSHANA</t>
+  </si>
+  <si>
+    <t>TUCKER</t>
+  </si>
+  <si>
+    <t>SONIA</t>
+  </si>
+  <si>
+    <t>CLAUDIA</t>
+  </si>
+  <si>
+    <t>CHANDA</t>
+  </si>
+  <si>
+    <t>LUCIUS</t>
+  </si>
+  <si>
+    <t>SCARLETT</t>
+  </si>
+  <si>
+    <t>VICTORIA</t>
+  </si>
+  <si>
+    <t>MARGARET</t>
+  </si>
+  <si>
+    <t>NEIL</t>
+  </si>
+  <si>
+    <t>SETH</t>
+  </si>
+  <si>
+    <t>SHAFIRA</t>
+  </si>
+  <si>
+    <t>JOHN</t>
+  </si>
+  <si>
+    <t>ADRIA</t>
+  </si>
+  <si>
+    <t>CHARDE</t>
+  </si>
+  <si>
+    <t>LILLIAN</t>
+  </si>
+  <si>
+    <t>SIERRA</t>
+  </si>
+  <si>
+    <t>JONAS</t>
+  </si>
+  <si>
+    <t>NITA</t>
+  </si>
+  <si>
+    <t>XANDER</t>
+  </si>
+  <si>
+    <t>JENETTE</t>
+  </si>
+  <si>
+    <t>RUSSELL</t>
+  </si>
+  <si>
+    <t>KARINA</t>
+  </si>
+  <si>
+    <t>NOLAN</t>
+  </si>
+  <si>
+    <t>INDIGO</t>
+  </si>
+  <si>
+    <t>CAIRO</t>
+  </si>
+  <si>
+    <t>AIKO</t>
+  </si>
+  <si>
+    <t>MARIAM</t>
+  </si>
+  <si>
+    <t>CIARA</t>
+  </si>
+  <si>
+    <t>HANNA</t>
+  </si>
+  <si>
+    <t>DANIEL</t>
+  </si>
+  <si>
+    <t>OCTAVIA</t>
+  </si>
+  <si>
+    <t>DEANNA</t>
+  </si>
+  <si>
+    <t>KEIKO</t>
+  </si>
+  <si>
+    <t>AMAL</t>
+  </si>
+  <si>
+    <t>AUTUMN</t>
+  </si>
+  <si>
+    <t>YEO</t>
+  </si>
+  <si>
+    <t>ELIANA</t>
+  </si>
+  <si>
+    <t>HALL</t>
+  </si>
+  <si>
+    <t>BARBARA</t>
+  </si>
+  <si>
+    <t>PETER</t>
+  </si>
+  <si>
+    <t>EDEN</t>
+  </si>
+  <si>
+    <t>DEXTER</t>
+  </si>
+  <si>
+    <t>MOLLY</t>
+  </si>
+  <si>
+    <t>DEMETRIA</t>
+  </si>
+  <si>
+    <t>HIRAM</t>
+  </si>
+  <si>
+    <t>ZOE</t>
+  </si>
+  <si>
+    <t>RICHARD</t>
+  </si>
+  <si>
+    <t>BRIAN</t>
+  </si>
+  <si>
+    <t>DAKOTA</t>
+  </si>
+  <si>
+    <t>SHEILA</t>
+  </si>
+  <si>
+    <t>REBECCA</t>
+  </si>
+  <si>
+    <t>KATO</t>
+  </si>
+  <si>
+    <t>RAHIM</t>
+  </si>
+  <si>
+    <t>DANTE</t>
+  </si>
+  <si>
+    <t>CASSADY</t>
+  </si>
+  <si>
+    <t>HAYFA</t>
+  </si>
+  <si>
+    <t>ANGELICA</t>
+  </si>
+  <si>
+    <t>EMI</t>
+  </si>
+  <si>
+    <t>KAMEKO</t>
+  </si>
+  <si>
+    <t>IVY</t>
+  </si>
+  <si>
+    <t>JOSHUA</t>
+  </si>
+  <si>
+    <t>BRYNN</t>
+  </si>
+  <si>
+    <t>NOLA</t>
+  </si>
+  <si>
+    <t>KEELIE</t>
+  </si>
+  <si>
+    <t>KELLIE</t>
+  </si>
+  <si>
+    <t>AUGUST</t>
+  </si>
+  <si>
+    <t>HALLA</t>
+  </si>
+  <si>
+    <t>BRIELLE</t>
+  </si>
+  <si>
+    <t>NATALIE</t>
+  </si>
+  <si>
+    <t>JOEL</t>
+  </si>
+  <si>
+    <t>LUCAS</t>
+  </si>
+  <si>
+    <t>GINGER</t>
+  </si>
+  <si>
+    <t>YOKO</t>
+  </si>
+  <si>
+    <t>ANJOLIE</t>
+  </si>
+  <si>
+    <t>JACQUELINE</t>
+  </si>
+  <si>
+    <t>IMA</t>
+  </si>
+  <si>
+    <t>BRUCE</t>
+  </si>
+  <si>
+    <t>TASHYA</t>
+  </si>
+  <si>
+    <t>DEREK</t>
+  </si>
+  <si>
+    <t>LUCY</t>
+  </si>
+  <si>
+    <t>MARI</t>
+  </si>
+  <si>
+    <t>ALLISTAIR</t>
+  </si>
+  <si>
+    <t>CHRISTINE</t>
+  </si>
+  <si>
+    <t>BORIS</t>
+  </si>
+  <si>
+    <t>CAILIN</t>
+  </si>
+  <si>
+    <t>ALINE</t>
+  </si>
+  <si>
+    <t>CHASTITY</t>
+  </si>
+  <si>
+    <t>KEITH</t>
+  </si>
+  <si>
+    <t>KAY</t>
+  </si>
+  <si>
+    <t>RAYMOND</t>
+  </si>
+  <si>
+    <t>GRAHAM</t>
+  </si>
+  <si>
+    <t>AHMED</t>
+  </si>
+  <si>
+    <t>ULLA</t>
+  </si>
+  <si>
+    <t>BRENDEN</t>
+  </si>
+  <si>
+    <t>HELEN</t>
+  </si>
+  <si>
+    <t>KEANE</t>
+  </si>
+  <si>
+    <t>ERIN</t>
+  </si>
+  <si>
+    <t>QUIN</t>
+  </si>
+  <si>
+    <t>RAMA</t>
+  </si>
+  <si>
+    <t>BRITANNI</t>
+  </si>
+  <si>
+    <t>NISSIM</t>
+  </si>
+  <si>
+    <t>ALEXANDER</t>
+  </si>
+  <si>
+    <t>JUSTIN</t>
+  </si>
+  <si>
+    <t>JOSIAH</t>
+  </si>
+  <si>
+    <t>VERA</t>
+  </si>
+  <si>
+    <t>XENOS</t>
+  </si>
+  <si>
+    <t>RYLEE</t>
+  </si>
+  <si>
+    <t>NELL</t>
+  </si>
+  <si>
+    <t>LEO</t>
+  </si>
+  <si>
+    <t>CHELSEA</t>
+  </si>
+  <si>
+    <t>LARA</t>
+  </si>
+  <si>
+    <t>EDAN</t>
+  </si>
+  <si>
+    <t>ZEPHANIA</t>
+  </si>
+  <si>
+    <t>DALTON</t>
+  </si>
+  <si>
+    <t>SANDRA</t>
+  </si>
+  <si>
+    <t>SOLOMON</t>
+  </si>
+  <si>
+    <t>BEATRICE</t>
+  </si>
+  <si>
+    <t>IGNATIUS</t>
+  </si>
+  <si>
+    <t>ROBERT</t>
+  </si>
+  <si>
+    <t>ERASMUS</t>
+  </si>
+  <si>
+    <t>TYLER</t>
+  </si>
+  <si>
+    <t>CASSANDRA</t>
+  </si>
+  <si>
+    <t>MARY</t>
+  </si>
+  <si>
+    <t>DANIELLE</t>
+  </si>
+  <si>
+    <t>CARA</t>
+  </si>
+  <si>
+    <t>LUCIAN</t>
+  </si>
+  <si>
+    <t>AMOS</t>
+  </si>
+  <si>
+    <t>BRANDEN</t>
+  </si>
+  <si>
+    <t>NAOMI</t>
+  </si>
+  <si>
+    <t>YAEL</t>
+  </si>
+  <si>
+    <t>MACEY</t>
+  </si>
+  <si>
+    <t>JONAH</t>
+  </si>
+  <si>
+    <t>MELANIE</t>
+  </si>
+  <si>
+    <t>ALFREDA</t>
+  </si>
+  <si>
+    <t>BRITANNEY</t>
+  </si>
+  <si>
+    <t>SLADE</t>
+  </si>
+  <si>
+    <t>QUYN</t>
+  </si>
+  <si>
+    <t>CECILIA</t>
+  </si>
+  <si>
+    <t>XAVIERA</t>
+  </si>
+  <si>
+    <t>ANDREW</t>
+  </si>
+  <si>
+    <t>AVA</t>
+  </si>
+  <si>
+    <t>MAITE</t>
+  </si>
+  <si>
+    <t>NERO</t>
+  </si>
+  <si>
+    <t>REGINA</t>
+  </si>
+  <si>
+    <t>CULLEN</t>
+  </si>
+  <si>
+    <t>FRITZ</t>
+  </si>
+  <si>
+    <t>RALPH</t>
+  </si>
+  <si>
+    <t>NEVADA</t>
+  </si>
+  <si>
+    <t>CAMDEN</t>
+  </si>
+  <si>
+    <t>INGA</t>
+  </si>
+  <si>
+    <t>ILIANA</t>
+  </si>
+  <si>
+    <t>MADESON</t>
+  </si>
+  <si>
+    <t>ELLA</t>
+  </si>
+  <si>
+    <t>LOUIS</t>
+  </si>
+  <si>
+    <t>AMERY</t>
+  </si>
+  <si>
+    <t>YOSHI</t>
+  </si>
+  <si>
+    <t>WILLIAM</t>
+  </si>
+  <si>
+    <t>HARRISON</t>
+  </si>
+  <si>
+    <t>IRMA</t>
+  </si>
+  <si>
+    <t>LEONARD</t>
+  </si>
+  <si>
+    <t>JAMAL</t>
+  </si>
+  <si>
+    <t>CLINTON</t>
+  </si>
+  <si>
+    <t>RASHAD</t>
+  </si>
+  <si>
+    <t>WILLOW</t>
+  </si>
+  <si>
+    <t>ASPEN</t>
+  </si>
+  <si>
+    <t>HASHIM</t>
+  </si>
+  <si>
+    <t>ARMAND</t>
+  </si>
+  <si>
+    <t>DEBORAH</t>
+  </si>
+  <si>
+    <t>IAN</t>
+  </si>
+  <si>
+    <t>IVOR</t>
+  </si>
+  <si>
+    <t>JAMESON</t>
+  </si>
+  <si>
+    <t>RINA</t>
+  </si>
+  <si>
+    <t>NATHANIEL</t>
+  </si>
+  <si>
+    <t>ASHTON</t>
+  </si>
+  <si>
+    <t>MARVIN</t>
+  </si>
+  <si>
+    <t>DRAKE</t>
+  </si>
+  <si>
+    <t>DENTON</t>
+  </si>
+  <si>
+    <t>YETTA</t>
+  </si>
+  <si>
+    <t>MELISSA</t>
+  </si>
+  <si>
+    <t>LESTER</t>
+  </si>
+  <si>
+    <t>JEREMY</t>
+  </si>
+  <si>
+    <t>VANCE</t>
+  </si>
+  <si>
+    <t>KAREEM</t>
+  </si>
+  <si>
+    <t>SUKI</t>
+  </si>
+  <si>
+    <t>XYLA</t>
+  </si>
+  <si>
+    <t>CARISSA</t>
+  </si>
+  <si>
+    <t>BAKER</t>
+  </si>
+  <si>
+    <t>KIRSTEN</t>
+  </si>
+  <si>
+    <t>BO</t>
+  </si>
+  <si>
+    <t>CALLIE</t>
+  </si>
+  <si>
+    <t>EBONY</t>
+  </si>
+  <si>
+    <t>ARTHUR</t>
+  </si>
+  <si>
+    <t>LANA</t>
+  </si>
+  <si>
+    <t>HUNTER</t>
+  </si>
+  <si>
+    <t>ATHENA</t>
+  </si>
+  <si>
+    <t>LOGAN</t>
+  </si>
+  <si>
+    <t>KEEGAN</t>
+  </si>
+  <si>
+    <t>RHONDA</t>
+  </si>
+  <si>
+    <t>MARA</t>
+  </si>
+  <si>
+    <t>WARE</t>
+  </si>
+  <si>
+    <t>CAMACHO</t>
+  </si>
+  <si>
+    <t>DELANEY</t>
+  </si>
+  <si>
+    <t>PACE</t>
+  </si>
+  <si>
+    <t>FISHER</t>
+  </si>
+  <si>
+    <t>BURNS</t>
+  </si>
+  <si>
+    <t>RIVERA</t>
+  </si>
+  <si>
+    <t>HUNT</t>
+  </si>
+  <si>
+    <t>RAMOS</t>
+  </si>
+  <si>
+    <t>WILCOX</t>
+  </si>
+  <si>
+    <t>MCLEAN</t>
+  </si>
+  <si>
+    <t>VELASQUEZ</t>
+  </si>
+  <si>
+    <t>HORN</t>
+  </si>
+  <si>
+    <t>VAZQUEZ</t>
+  </si>
+  <si>
+    <t>WILDER</t>
+  </si>
+  <si>
+    <t>MATHIS</t>
+  </si>
+  <si>
+    <t>MCGUIRE</t>
+  </si>
+  <si>
+    <t>ROCHA</t>
+  </si>
+  <si>
+    <t>GLOVER</t>
+  </si>
+  <si>
+    <t>BURCH</t>
+  </si>
+  <si>
+    <t>WEBSTER</t>
+  </si>
+  <si>
+    <t>BARR</t>
+  </si>
+  <si>
+    <t>JUSTICE</t>
+  </si>
+  <si>
+    <t>WIGGINS</t>
+  </si>
+  <si>
+    <t>WEAVER</t>
+  </si>
+  <si>
+    <t>GOODMAN</t>
+  </si>
+  <si>
+    <t>SALAS</t>
+  </si>
+  <si>
+    <t>ARNOLD</t>
+  </si>
+  <si>
+    <t>PATTERSON</t>
+  </si>
+  <si>
+    <t>LAMB</t>
+  </si>
+  <si>
+    <t>ENGLISH</t>
+  </si>
+  <si>
+    <t>TAYLOR</t>
+  </si>
+  <si>
+    <t>DENNIS</t>
+  </si>
+  <si>
+    <t>MIDDLETON</t>
+  </si>
+  <si>
+    <t>REYNOLDS</t>
+  </si>
+  <si>
+    <t>RUIZ</t>
+  </si>
+  <si>
+    <t>FROST</t>
+  </si>
+  <si>
+    <t>WHITEHEAD</t>
+  </si>
+  <si>
+    <t>LANGLEY</t>
+  </si>
+  <si>
+    <t>GALLEGOS</t>
+  </si>
+  <si>
+    <t>CRAFT</t>
+  </si>
+  <si>
+    <t>JONES</t>
+  </si>
+  <si>
+    <t>MULLINS</t>
+  </si>
+  <si>
+    <t>JENSEN</t>
+  </si>
+  <si>
+    <t>DOUGLAS</t>
+  </si>
+  <si>
+    <t>WONG</t>
+  </si>
+  <si>
+    <t>PICKETT</t>
+  </si>
+  <si>
+    <t>HINTON</t>
+  </si>
+  <si>
+    <t>MORRIS</t>
+  </si>
+  <si>
+    <t>DIXON</t>
+  </si>
+  <si>
+    <t>ROJAS</t>
+  </si>
+  <si>
+    <t>MCFADDEN</t>
+  </si>
+  <si>
+    <t>MOSES</t>
+  </si>
+  <si>
+    <t>COLLINS</t>
+  </si>
+  <si>
+    <t>PARRISH</t>
+  </si>
+  <si>
+    <t>KENT</t>
+  </si>
+  <si>
+    <t>HEWITT</t>
+  </si>
+  <si>
+    <t>MOLINA</t>
+  </si>
+  <si>
+    <t>ROBERTSON</t>
+  </si>
+  <si>
+    <t>COMPTON</t>
+  </si>
+  <si>
+    <t>MCMILLAN</t>
+  </si>
+  <si>
+    <t>BOLTON</t>
+  </si>
+  <si>
+    <t>HOFFMAN</t>
+  </si>
+  <si>
+    <t>BALLARD</t>
+  </si>
+  <si>
+    <t>MEYERS</t>
+  </si>
+  <si>
+    <t>SIMMONS</t>
+  </si>
+  <si>
+    <t>VILLARREAL</t>
+  </si>
+  <si>
+    <t>CARDENAS</t>
+  </si>
+  <si>
+    <t>CONLEY</t>
+  </si>
+  <si>
+    <t>MILLER</t>
+  </si>
+  <si>
+    <t>FOREMAN</t>
+  </si>
+  <si>
+    <t>WILSON</t>
+  </si>
+  <si>
+    <t>OLSON</t>
+  </si>
+  <si>
+    <t>LLOYD</t>
+  </si>
+  <si>
+    <t>NGUYEN</t>
+  </si>
+  <si>
+    <t>SOTO</t>
+  </si>
+  <si>
+    <t>WOOD</t>
+  </si>
+  <si>
+    <t>CRANE</t>
+  </si>
+  <si>
+    <t>JACKSON</t>
+  </si>
+  <si>
+    <t>REED</t>
+  </si>
+  <si>
+    <t>MCGOWAN</t>
+  </si>
+  <si>
+    <t>HEATH</t>
+  </si>
+  <si>
+    <t>MURPHY</t>
+  </si>
+  <si>
+    <t>HOUSTON</t>
+  </si>
+  <si>
+    <t>NICHOLSON</t>
+  </si>
+  <si>
+    <t>CLEMONS</t>
+  </si>
+  <si>
+    <t>BUSH</t>
+  </si>
+  <si>
+    <t>CERVANTES</t>
+  </si>
+  <si>
+    <t>LOWERY</t>
+  </si>
+  <si>
+    <t>GOFF</t>
+  </si>
+  <si>
+    <t>BOONE</t>
+  </si>
+  <si>
+    <t>CAREY</t>
+  </si>
+  <si>
+    <t>BEST</t>
+  </si>
+  <si>
+    <t>WEISS</t>
+  </si>
+  <si>
+    <t>HESTER</t>
+  </si>
+  <si>
+    <t>LE</t>
+  </si>
+  <si>
+    <t>BROWNING</t>
+  </si>
+  <si>
+    <t>PAGE</t>
+  </si>
+  <si>
+    <t>BOYD</t>
+  </si>
+  <si>
+    <t>BYERS</t>
+  </si>
+  <si>
+    <t>BLACKWELL</t>
+  </si>
+  <si>
+    <t>BAUER</t>
+  </si>
+  <si>
+    <t>WARREN</t>
+  </si>
+  <si>
+    <t>TERRY</t>
+  </si>
+  <si>
+    <t>FERRELL</t>
+  </si>
+  <si>
+    <t>LEVINE</t>
+  </si>
+  <si>
+    <t>SAMPSON</t>
+  </si>
+  <si>
+    <t>JOSEPH</t>
+  </si>
+  <si>
+    <t>MACDONALD</t>
+  </si>
+  <si>
+    <t>ODOM</t>
+  </si>
+  <si>
+    <t>LOVE</t>
+  </si>
+  <si>
+    <t>BRYAN</t>
+  </si>
+  <si>
+    <t>STONE</t>
+  </si>
+  <si>
+    <t>SILVA</t>
+  </si>
+  <si>
+    <t>STRONG</t>
+  </si>
+  <si>
+    <t>YOUNG</t>
+  </si>
+  <si>
+    <t>CHAVEZ</t>
+  </si>
+  <si>
+    <t>RODRIQUEZ</t>
+  </si>
+  <si>
+    <t>GOOD</t>
+  </si>
+  <si>
+    <t>CONWAY</t>
+  </si>
+  <si>
+    <t>BENNETT</t>
+  </si>
+  <si>
+    <t>DURAN</t>
+  </si>
+  <si>
+    <t>BREWER</t>
+  </si>
+  <si>
+    <t>MORSE</t>
+  </si>
+  <si>
+    <t>DYER</t>
+  </si>
+  <si>
+    <t>FOX</t>
+  </si>
+  <si>
+    <t>HARVEY</t>
+  </si>
+  <si>
+    <t>EATON</t>
+  </si>
+  <si>
+    <t>PARKER</t>
+  </si>
+  <si>
+    <t>KRAMER</t>
+  </si>
+  <si>
+    <t>LEVY</t>
+  </si>
+  <si>
+    <t>BUCKNER</t>
+  </si>
+  <si>
+    <t>MCCARTHY</t>
+  </si>
+  <si>
+    <t>GIBBS</t>
+  </si>
+  <si>
+    <t>FRYE</t>
+  </si>
+  <si>
+    <t>SHAFFER</t>
+  </si>
+  <si>
+    <t>HANEY</t>
+  </si>
+  <si>
+    <t>BUCHANAN</t>
+  </si>
+  <si>
+    <t>GREEN</t>
+  </si>
+  <si>
+    <t>OWEN</t>
+  </si>
+  <si>
+    <t>YATES</t>
+  </si>
+  <si>
+    <t>BUTLER</t>
+  </si>
+  <si>
+    <t>MATHEWS</t>
+  </si>
+  <si>
+    <t>LITTLE</t>
+  </si>
+  <si>
+    <t>THOMAS</t>
+  </si>
+  <si>
+    <t>PHELPS</t>
+  </si>
+  <si>
+    <t>RICHMOND</t>
+  </si>
+  <si>
+    <t>KIDD</t>
+  </si>
+  <si>
+    <t>SHARPE</t>
+  </si>
+  <si>
+    <t>GOULD</t>
+  </si>
+  <si>
+    <t>MANN</t>
+  </si>
+  <si>
+    <t>KLINE</t>
+  </si>
+  <si>
+    <t>ROBERSON</t>
+  </si>
+  <si>
+    <t>NUNEZ</t>
+  </si>
+  <si>
+    <t>HAYNES</t>
+  </si>
+  <si>
+    <t>CASTRO</t>
+  </si>
+  <si>
+    <t>FRANKLIN</t>
+  </si>
+  <si>
+    <t>PATE</t>
+  </si>
+  <si>
+    <t>ESTES</t>
+  </si>
+  <si>
+    <t>AYALA</t>
+  </si>
+  <si>
+    <t>SERRANO</t>
+  </si>
+  <si>
+    <t>ERICKSON</t>
+  </si>
+  <si>
+    <t>VAUGHN</t>
+  </si>
+  <si>
+    <t>CALLAHAN</t>
+  </si>
+  <si>
+    <t>EVANS</t>
+  </si>
+  <si>
+    <t>CAIN</t>
+  </si>
+  <si>
+    <t>CLAY</t>
+  </si>
+  <si>
+    <t>MONTGOMERY</t>
+  </si>
+  <si>
+    <t>FULTON</t>
+  </si>
+  <si>
+    <t>DONALDSON</t>
+  </si>
+  <si>
+    <t>MATTHEWS</t>
+  </si>
+  <si>
+    <t>MIRANDA</t>
+  </si>
+  <si>
+    <t>JACOBSON</t>
+  </si>
+  <si>
+    <t>PRUITT</t>
+  </si>
+  <si>
+    <t>RASMUSSEN</t>
+  </si>
+  <si>
+    <t>CURRY</t>
+  </si>
+  <si>
+    <t>ESTRADA</t>
+  </si>
+  <si>
+    <t>GAMBLE</t>
+  </si>
+  <si>
+    <t>SELLERS</t>
+  </si>
+  <si>
+    <t>CARNEY</t>
+  </si>
+  <si>
+    <t>CUMMINGS</t>
+  </si>
+  <si>
+    <t>BARRON</t>
+  </si>
+  <si>
+    <t>LUNA</t>
+  </si>
+  <si>
+    <t>GILLIAM</t>
+  </si>
+  <si>
+    <t>SUMMERS</t>
+  </si>
+  <si>
+    <t>FISCHER</t>
+  </si>
+  <si>
+    <t>ROMERO</t>
+  </si>
+  <si>
+    <t>LANDRY</t>
+  </si>
+  <si>
+    <t>MCCORMICK</t>
+  </si>
+  <si>
+    <t>FRANCO</t>
+  </si>
+  <si>
+    <t>CALHOUN</t>
+  </si>
+  <si>
+    <t>GUTIERREZ</t>
+  </si>
+  <si>
+    <t>MUELLER</t>
+  </si>
+  <si>
+    <t>WALLER</t>
+  </si>
+  <si>
+    <t>NEWMAN</t>
+  </si>
+  <si>
+    <t>WILEY</t>
+  </si>
+  <si>
+    <t>HURST</t>
+  </si>
+  <si>
+    <t>WITT</t>
+  </si>
+  <si>
+    <t>JOYCE</t>
+  </si>
+  <si>
+    <t>EVERETT</t>
+  </si>
+  <si>
+    <t>BARLOW</t>
+  </si>
+  <si>
+    <t>GARDNER</t>
+  </si>
+  <si>
+    <t>OCONNOR</t>
+  </si>
+  <si>
+    <t>KNAPP</t>
+  </si>
+  <si>
+    <t>KANE</t>
+  </si>
+  <si>
+    <t>KELLER</t>
+  </si>
+  <si>
+    <t>JOHNSON</t>
+  </si>
+  <si>
+    <t>RATLIFF</t>
+  </si>
+  <si>
+    <t>MCCONNELL</t>
+  </si>
+  <si>
+    <t>SUTTON</t>
+  </si>
+  <si>
+    <t>BALDWIN</t>
+  </si>
+  <si>
+    <t>GOODWIN</t>
+  </si>
+  <si>
+    <t>CANTRELL</t>
+  </si>
+  <si>
+    <t>WALLACE</t>
+  </si>
+  <si>
+    <t>CANNON</t>
+  </si>
+  <si>
+    <t>FOWLER</t>
+  </si>
+  <si>
+    <t>HANSEN</t>
+  </si>
+  <si>
+    <t>AUSTIN</t>
+  </si>
+  <si>
+    <t>GRANT</t>
+  </si>
+  <si>
+    <t>FERNANDEZ</t>
+  </si>
+  <si>
+    <t>WILKINS</t>
+  </si>
+  <si>
+    <t>PACHECO</t>
+  </si>
+  <si>
+    <t>FUENTES</t>
+  </si>
+  <si>
+    <t>BECK</t>
+  </si>
+  <si>
+    <t>POWELL</t>
+  </si>
+  <si>
+    <t>DAUGHERTY</t>
+  </si>
+  <si>
+    <t>SALAZAR</t>
+  </si>
+  <si>
+    <t>HOWELL</t>
+  </si>
+  <si>
+    <t>GARCIA</t>
+  </si>
+  <si>
+    <t>LANG</t>
+  </si>
+  <si>
+    <t>HENRY</t>
+  </si>
+  <si>
+    <t>HODGE</t>
+  </si>
+  <si>
+    <t>ASHLEY</t>
+  </si>
+  <si>
+    <t>FINLEY</t>
+  </si>
+  <si>
+    <t>GUTHRIE</t>
+  </si>
+  <si>
+    <t>CASE</t>
+  </si>
+  <si>
+    <t>FARLEY</t>
+  </si>
+  <si>
+    <t>FOSTER</t>
+  </si>
+  <si>
+    <t>OSBORN</t>
+  </si>
+  <si>
+    <t>LAWSON</t>
+  </si>
+  <si>
+    <t>GUERRERO</t>
+  </si>
+  <si>
+    <t>CORTEZ</t>
+  </si>
+  <si>
+    <t>PENNINGTON</t>
+  </si>
+  <si>
+    <t>MCMAHON</t>
+  </si>
+  <si>
+    <t>BOWMAN</t>
+  </si>
+  <si>
+    <t>STOUT</t>
+  </si>
+  <si>
+    <t>JOYNER</t>
+  </si>
+  <si>
+    <t>RICHARDSON</t>
+  </si>
+  <si>
+    <t>SCHNEIDER</t>
+  </si>
+  <si>
+    <t>MORRISON</t>
+  </si>
+  <si>
+    <t>WHITE</t>
+  </si>
+  <si>
+    <t>ADAMS</t>
+  </si>
+  <si>
+    <t>MOONEY</t>
+  </si>
+  <si>
+    <t>WOOTEN</t>
+  </si>
+  <si>
+    <t>COLEMAN</t>
+  </si>
+  <si>
+    <t>PUCKETT</t>
+  </si>
+  <si>
+    <t>POPE</t>
+  </si>
+  <si>
+    <t>RAMIREZ</t>
+  </si>
+  <si>
+    <t>MCLEOD</t>
+  </si>
+  <si>
+    <t>TODD</t>
+  </si>
+  <si>
+    <t>CHERRY</t>
+  </si>
+  <si>
+    <t>NELSON</t>
+  </si>
+  <si>
+    <t>BENSON</t>
+  </si>
+  <si>
+    <t>SWEET</t>
+  </si>
+  <si>
+    <t>HARPER</t>
+  </si>
+  <si>
+    <t>THORNTON</t>
+  </si>
+  <si>
+    <t>BERG</t>
+  </si>
+  <si>
+    <t>LYONS</t>
+  </si>
+  <si>
+    <t>CASTANEDA</t>
+  </si>
+  <si>
+    <t>WOLF</t>
+  </si>
+  <si>
+    <t>MADDOX</t>
+  </si>
+  <si>
+    <t>CHAN</t>
+  </si>
+  <si>
+    <t>JACOBS</t>
+  </si>
+  <si>
+    <t>MOON</t>
+  </si>
+  <si>
+    <t>MORALES</t>
+  </si>
+  <si>
+    <t>GRIFFITH</t>
+  </si>
+  <si>
+    <t>MENDEZ</t>
+  </si>
+  <si>
+    <t>CASEY</t>
+  </si>
+  <si>
+    <t>HATFIELD</t>
+  </si>
+  <si>
+    <t>EMERSON</t>
+  </si>
+  <si>
+    <t>BARNES</t>
+  </si>
+  <si>
+    <t>FIGUEROA</t>
+  </si>
+  <si>
+    <t>WAGNER</t>
+  </si>
+  <si>
+    <t>FRANK</t>
+  </si>
+  <si>
+    <t>MEDINA</t>
+  </si>
+  <si>
+    <t>SHARP</t>
+  </si>
+  <si>
+    <t>BRADFORD</t>
+  </si>
+  <si>
+    <t>ANDERSON</t>
+  </si>
+  <si>
+    <t>PETERSEN</t>
+  </si>
+  <si>
+    <t>FRANKS</t>
+  </si>
+  <si>
+    <t>NAVARRO</t>
+  </si>
+  <si>
+    <t>PHILLIPS</t>
+  </si>
+  <si>
+    <t>ORTIZ</t>
+  </si>
+  <si>
+    <t>DICKERSON</t>
+  </si>
+  <si>
+    <t>WOODWARD</t>
+  </si>
+  <si>
+    <t>HUMPHREY</t>
+  </si>
+  <si>
+    <t>KIRK</t>
+  </si>
+  <si>
+    <t>BURKS</t>
+  </si>
+  <si>
+    <t>SCHMIDT</t>
+  </si>
+  <si>
+    <t>HERNANDEZ</t>
+  </si>
+  <si>
+    <t>FORD</t>
+  </si>
+  <si>
+    <t>MENDOZA</t>
+  </si>
+  <si>
+    <t>STANTON</t>
+  </si>
+  <si>
+    <t>DANIELS</t>
+  </si>
+  <si>
+    <t>BALL</t>
+  </si>
+  <si>
+    <t>FOLEY</t>
+  </si>
+  <si>
+    <t>HENDERSON</t>
+  </si>
+  <si>
+    <t>BRIDGES</t>
+  </si>
+  <si>
+    <t>REEVES</t>
+  </si>
+  <si>
+    <t>WILLIAMS</t>
+  </si>
+  <si>
+    <t>COPELAND</t>
+  </si>
+  <si>
+    <t>SAUNDERS</t>
+  </si>
+  <si>
+    <t>FORBES</t>
+  </si>
+  <si>
+    <t>CLINE</t>
+  </si>
+  <si>
+    <t>LYNN</t>
+  </si>
+  <si>
+    <t>BULLOCK</t>
+  </si>
+  <si>
+    <t>ACOSTA</t>
+  </si>
+  <si>
+    <t>BATES</t>
+  </si>
+  <si>
+    <t>BURTON</t>
+  </si>
+  <si>
+    <t>LONG</t>
+  </si>
+  <si>
+    <t>STARK</t>
+  </si>
+  <si>
+    <t>MCKENZIE</t>
+  </si>
+  <si>
+    <t>DICKSON</t>
+  </si>
+  <si>
+    <t>STEVENSON</t>
+  </si>
+  <si>
+    <t>EWING</t>
+  </si>
+  <si>
+    <t>CROSBY</t>
+  </si>
+  <si>
+    <t>ROWLAND</t>
+  </si>
+  <si>
+    <t>RICHARDS</t>
+  </si>
+  <si>
+    <t>MILLS</t>
+  </si>
+  <si>
+    <t>BLEVINS</t>
+  </si>
+  <si>
+    <t>OLSEN</t>
+  </si>
+  <si>
+    <t>DUNN</t>
+  </si>
+  <si>
+    <t>OWENS</t>
+  </si>
+  <si>
+    <t>SLOAN</t>
+  </si>
+  <si>
+    <t>CASH</t>
+  </si>
+  <si>
+    <t>LOTT</t>
+  </si>
+  <si>
+    <t>WINTERS</t>
+  </si>
+  <si>
+    <t>BURNETT</t>
+  </si>
+  <si>
+    <t>HOUSE</t>
+  </si>
+  <si>
+    <t>MCCULLOUGH</t>
+  </si>
+  <si>
+    <t>MASON</t>
+  </si>
+  <si>
+    <t>DUFFY</t>
+  </si>
+  <si>
+    <t>HICKS</t>
+  </si>
+  <si>
+    <t>DUNCAN</t>
+  </si>
+  <si>
+    <t>GILBERT</t>
+  </si>
+  <si>
+    <t>WILKERSON</t>
+  </si>
+  <si>
+    <t>GUY</t>
+  </si>
+  <si>
+    <t>NIXON</t>
+  </si>
+  <si>
+    <t>MACK</t>
+  </si>
+  <si>
+    <t>CROSS</t>
+  </si>
+  <si>
+    <t>FRENCH</t>
+  </si>
+  <si>
+    <t>CARROLL</t>
+  </si>
+  <si>
+    <t>BENTLEY</t>
+  </si>
+  <si>
+    <t>HUFFMAN</t>
+  </si>
+  <si>
+    <t>LYNCH</t>
+  </si>
+  <si>
+    <t>FINCH</t>
+  </si>
+  <si>
+    <t>FLOWERS</t>
+  </si>
+  <si>
+    <t>BYRD</t>
+  </si>
+  <si>
+    <t>FAULKNER</t>
+  </si>
+  <si>
+    <t>PARKS</t>
+  </si>
+  <si>
+    <t>CARSON</t>
+  </si>
+  <si>
+    <t>ROY</t>
+  </si>
+  <si>
+    <t>HILL</t>
+  </si>
+  <si>
+    <t>SARGENT</t>
+  </si>
+  <si>
+    <t>GILL</t>
+  </si>
+  <si>
+    <t>BLACKBURN</t>
+  </si>
+  <si>
+    <t>WILLIS</t>
+  </si>
+  <si>
+    <t>CALDWELL</t>
+  </si>
+  <si>
+    <t>VEGA</t>
+  </si>
+  <si>
+    <t>SANCHEZ</t>
+  </si>
+  <si>
+    <t>GONZALES</t>
+  </si>
+  <si>
+    <t>GIBSON</t>
+  </si>
+  <si>
+    <t>STEPHENSON</t>
+  </si>
+  <si>
+    <t>KOCH</t>
+  </si>
+  <si>
+    <t>DAVIDSON</t>
+  </si>
+  <si>
+    <t>UNDERWOOD</t>
+  </si>
+  <si>
+    <t>HULL</t>
+  </si>
+  <si>
+    <t>ORR</t>
+  </si>
+  <si>
+    <t>ROBBINS</t>
+  </si>
+  <si>
+    <t>VALENCIA</t>
+  </si>
+  <si>
+    <t>PEREZ</t>
+  </si>
+  <si>
+    <t>BURGESS</t>
+  </si>
+  <si>
+    <t>DAY</t>
+  </si>
+  <si>
+    <t>CALDERON</t>
+  </si>
+  <si>
+    <t>HOLT</t>
+  </si>
+  <si>
+    <t>PAYNE</t>
+  </si>
+  <si>
+    <t>KIRBY</t>
+  </si>
+  <si>
+    <t>KIM</t>
+  </si>
+  <si>
+    <t>STAFFORD</t>
+  </si>
+  <si>
+    <t>FREDERICK</t>
+  </si>
+  <si>
+    <t>MCKEE</t>
+  </si>
+  <si>
+    <t>EDWARDS</t>
+  </si>
+  <si>
+    <t>TRUJILLO</t>
+  </si>
+  <si>
+    <t>RUTLEDGE</t>
+  </si>
+  <si>
+    <t>HENDRICKS</t>
+  </si>
+  <si>
+    <t>HARRIS</t>
+  </si>
+  <si>
+    <t>MORGAN</t>
+  </si>
+  <si>
+    <t>HUDSON</t>
+  </si>
+  <si>
+    <t>HUBER</t>
+  </si>
+  <si>
+    <t>RIVERS</t>
+  </si>
+  <si>
+    <t>MEJIA</t>
+  </si>
+  <si>
+    <t>NIELSEN</t>
+  </si>
+  <si>
+    <t>ROBERTS</t>
+  </si>
+  <si>
+    <t>FREEMAN</t>
+  </si>
+  <si>
+    <t>CHASE</t>
+  </si>
+  <si>
+    <t>GRAY</t>
+  </si>
+  <si>
+    <t>HAHN</t>
+  </si>
+  <si>
+    <t>MARTINEZ</t>
+  </si>
+  <si>
+    <t>BARRERA</t>
+  </si>
+  <si>
+    <t>HOOVER</t>
+  </si>
+  <si>
+    <t>MAYO</t>
+  </si>
+  <si>
+    <t>ATKINSON</t>
+  </si>
+  <si>
+    <t>WALTON</t>
+  </si>
+  <si>
+    <t>ONEIL</t>
+  </si>
+  <si>
+    <t>LIVINGSTON</t>
+  </si>
+  <si>
+    <t>MERCADO</t>
+  </si>
+  <si>
+    <t>POLLARD</t>
+  </si>
+  <si>
+    <t>STEELE</t>
+  </si>
+  <si>
+    <t>HOWE</t>
+  </si>
+  <si>
+    <t>CARLSON</t>
+  </si>
+  <si>
+    <t>CARPENTER</t>
+  </si>
+  <si>
+    <t>MANNING</t>
+  </si>
+  <si>
+    <t>POTTER</t>
+  </si>
+  <si>
+    <t>ROSALES</t>
+  </si>
+  <si>
+    <t>HOOPER</t>
+  </si>
+  <si>
+    <t>SCHWARTZ</t>
+  </si>
+  <si>
+    <t>MALE</t>
+  </si>
+  <si>
+    <t>FEMALE</t>
+  </si>
+  <si>
+    <t>8679 PRIMIS AVENUE</t>
+  </si>
+  <si>
+    <t>252-8718 DICTUM RD.</t>
+  </si>
+  <si>
+    <t>AP #198-2498 FELIS ROAD</t>
+  </si>
+  <si>
+    <t>4481 DONEC AV.</t>
+  </si>
+  <si>
+    <t>461-7845 DUI, STREET</t>
+  </si>
+  <si>
+    <t>AP #881-5503 MALESUADA AVENUE</t>
+  </si>
+  <si>
+    <t>802-4119 IMPERDIET AVENUE</t>
+  </si>
+  <si>
+    <t>AP #760-7115 UT ST.</t>
+  </si>
+  <si>
+    <t>3300 IN AVE</t>
+  </si>
+  <si>
+    <t>AP #327-9658 NEC, AVENUE</t>
+  </si>
+  <si>
+    <t>P.O. BOX 495, 2922 NULLA. STREET</t>
+  </si>
+  <si>
+    <t>917 ENIM. STREET</t>
+  </si>
+  <si>
+    <t>P.O. BOX 466, 4134 ORNARE, ROAD</t>
+  </si>
+  <si>
+    <t>9357 ELIT ST.</t>
+  </si>
+  <si>
+    <t>7808 PORTTITOR RD.</t>
+  </si>
+  <si>
+    <t>AP #217-6504 EUISMOD RD.</t>
+  </si>
+  <si>
+    <t>P.O. BOX 915, 472 ERAT AVE</t>
+  </si>
+  <si>
+    <t>AP #182-5660 ALIQUAM STREET</t>
+  </si>
+  <si>
+    <t>AP #817-3183 NISL AV.</t>
+  </si>
+  <si>
+    <t>AP #500-5066 ODIO AVENUE</t>
+  </si>
+  <si>
+    <t>9587 MAGNA, ROAD</t>
+  </si>
+  <si>
+    <t>P.O. BOX 449, 4040 IMPERDIET RD.</t>
+  </si>
+  <si>
+    <t>AP #538-9162 NUNC ROAD</t>
+  </si>
+  <si>
+    <t>AP #482-6246 EROS RD.</t>
+  </si>
+  <si>
+    <t>318-8493 DAPIBUS AVE</t>
+  </si>
+  <si>
+    <t>7278 PEDE. ROAD</t>
+  </si>
+  <si>
+    <t>1261 NONUMMY STREET</t>
+  </si>
+  <si>
+    <t>P.O. BOX 309, 6936 ET AVE</t>
+  </si>
+  <si>
+    <t>P.O. BOX 930, 6447 LUCTUS. AVENUE</t>
+  </si>
+  <si>
+    <t>P.O. BOX 777, 9165 EU, AVE</t>
+  </si>
+  <si>
+    <t>P.O. BOX 388, 8517 LOREM AVENUE</t>
+  </si>
+  <si>
+    <t>P.O. BOX 185, 4976 DOLOR AV.</t>
+  </si>
+  <si>
+    <t>P.O. BOX 130, 4813 A AVE</t>
+  </si>
+  <si>
+    <t>P.O. BOX 446, 2679 AC, AVENUE</t>
+  </si>
+  <si>
+    <t>687-3397 INTEGER ROAD</t>
+  </si>
+  <si>
+    <t>244-5311 LEO. RD.</t>
+  </si>
+  <si>
+    <t>3201 UT ST.</t>
+  </si>
+  <si>
+    <t>P.O. BOX 699, 9161 EGET AVENUE</t>
+  </si>
+  <si>
+    <t>AP #322-4486 TINCIDUNT AVENUE</t>
+  </si>
+  <si>
+    <t>3962 NON, RD.</t>
+  </si>
+  <si>
+    <t>AP #780-3416 BIBENDUM. AV.</t>
+  </si>
+  <si>
+    <t>AP #581-6936 A, AV.</t>
+  </si>
+  <si>
+    <t>5380 ULTRICES ROAD</t>
+  </si>
+  <si>
+    <t>206 TORQUENT RD.</t>
+  </si>
+  <si>
+    <t>7243 MONTES, AVE</t>
+  </si>
+  <si>
+    <t>6948 ALIQUET. AVENUE</t>
+  </si>
+  <si>
+    <t>P.O. BOX 583, 3534 LECTUS. RD.</t>
+  </si>
+  <si>
+    <t>3612 VESTIBULUM AVE</t>
+  </si>
+  <si>
+    <t>8618 INTERDUM AVE</t>
+  </si>
+  <si>
+    <t>3833 MAGNA. RD.</t>
+  </si>
+  <si>
+    <t>9945 CRAS STREET</t>
+  </si>
+  <si>
+    <t>AP #268-7014 PARTURIENT ST.</t>
+  </si>
+  <si>
+    <t>AP #519-9013 SAPIEN AV.</t>
+  </si>
+  <si>
+    <t>2201 EU ST.</t>
+  </si>
+  <si>
+    <t>4966 DIAM. STREET</t>
+  </si>
+  <si>
+    <t>168-6184 LOREM STREET</t>
+  </si>
+  <si>
+    <t>AP #752-2675 AT, AVE</t>
+  </si>
+  <si>
+    <t>AP #354-5186 NEC RD.</t>
+  </si>
+  <si>
+    <t>P.O. BOX 760, 4765 EST. RD.</t>
+  </si>
+  <si>
+    <t>AP #650-3955 ULLAMCORPER AVE</t>
+  </si>
+  <si>
+    <t>P.O. BOX 691, 9461 MASSA RD.</t>
+  </si>
+  <si>
+    <t>4172 ARCU. ST.</t>
+  </si>
+  <si>
+    <t>618-4821 JUSTO. AV.</t>
+  </si>
+  <si>
+    <t>693-6312 ERAT, RD.</t>
+  </si>
+  <si>
+    <t>P.O. BOX 160, 7950 NULLA ST.</t>
+  </si>
+  <si>
+    <t>493-4350 MAURIS RD.</t>
+  </si>
+  <si>
+    <t>AP #158-9288 PROIN AVE</t>
+  </si>
+  <si>
+    <t>AP #459-9737 ENIM. AVE</t>
+  </si>
+  <si>
+    <t>874-5056 NULLA ST.</t>
+  </si>
+  <si>
+    <t>AP #824-7675 NISI AVENUE</t>
+  </si>
+  <si>
+    <t>P.O. BOX 930, 1093 MAURIS ROAD</t>
+  </si>
+  <si>
+    <t>7284 DICTUM RD.</t>
+  </si>
+  <si>
+    <t>483-1889 EUISMOD STREET</t>
+  </si>
+  <si>
+    <t>AP #601-954 PHASELLUS RD.</t>
+  </si>
+  <si>
+    <t>6585 UT ROAD</t>
+  </si>
+  <si>
+    <t>P.O. BOX 693, 3921 NUNC RD.</t>
+  </si>
+  <si>
+    <t>P.O. BOX 556, 9887 ULTRICES ST.</t>
+  </si>
+  <si>
+    <t>P.O. BOX 116, 7435 AUCTOR. AVE</t>
+  </si>
+  <si>
+    <t>P.O. BOX 286, 6444 CONSECTETUER RD.</t>
+  </si>
+  <si>
+    <t>7149 PROIN ROAD</t>
+  </si>
+  <si>
+    <t>850-4364 NONUMMY ST.</t>
+  </si>
+  <si>
+    <t>124-9690 IN, RD.</t>
+  </si>
+  <si>
+    <t>P.O. BOX 728, 9033 NISI AV.</t>
+  </si>
+  <si>
+    <t>206-698 FACILISIS RD.</t>
+  </si>
+  <si>
+    <t>7945 QUISQUE RD.</t>
+  </si>
+  <si>
+    <t>8473 JUSTO. AVE</t>
+  </si>
+  <si>
+    <t>9451 FAUCIBUS ROAD</t>
+  </si>
+  <si>
+    <t>P.O. BOX 758, 7728 EST RD.</t>
+  </si>
+  <si>
+    <t>113-8873 NIBH. AVE</t>
+  </si>
+  <si>
+    <t>657-3280 ARCU. AVENUE</t>
+  </si>
+  <si>
+    <t>963-1023 QUAM RD.</t>
+  </si>
+  <si>
+    <t>1598 FERMENTUM ST.</t>
+  </si>
+  <si>
+    <t>P.O. BOX 517, 5746 EGESTAS. STREET</t>
+  </si>
+  <si>
+    <t>178-2557 ARCU. AVENUE</t>
+  </si>
+  <si>
+    <t>5747 MAURIS AV.</t>
+  </si>
+  <si>
+    <t>AP #483-3029 PLACERAT. RD.</t>
+  </si>
+  <si>
+    <t>2403 LACUS. ST.</t>
+  </si>
+  <si>
+    <t>P.O. BOX 920, 604 AENEAN AV.</t>
+  </si>
+  <si>
+    <t>P.O. BOX 286, 8529 RISUS. ST.</t>
+  </si>
+  <si>
+    <t>737-5326 AMET AV.</t>
+  </si>
+  <si>
+    <t>219-881 NEC, AVENUE</t>
+  </si>
+  <si>
+    <t>467-3332 ERAT, ST.</t>
+  </si>
+  <si>
+    <t>AP #350-1415 VENENATIS ST.</t>
+  </si>
+  <si>
+    <t>P.O. BOX 964, 7936 LOREM AVE</t>
+  </si>
+  <si>
+    <t>AP #405-4291 PRAESENT ROAD</t>
+  </si>
+  <si>
+    <t>426-4969 NULLA ST.</t>
+  </si>
+  <si>
+    <t>P.O. BOX 106, 5356 LIBERO. ROAD</t>
+  </si>
+  <si>
+    <t>2498 SAPIEN. AVENUE</t>
+  </si>
+  <si>
+    <t>3958 MALESUADA ST.</t>
+  </si>
+  <si>
+    <t>613-9004 ODIO ST.</t>
+  </si>
+  <si>
+    <t>946-6480 FACILISIS RD.</t>
+  </si>
+  <si>
+    <t>4380 AMET RD.</t>
+  </si>
+  <si>
+    <t>816-9720 ID AVENUE</t>
+  </si>
+  <si>
+    <t>681-8614 HABITANT ST.</t>
+  </si>
+  <si>
+    <t>8565 LIBERO. AVE</t>
+  </si>
+  <si>
+    <t>233 NUNC RD.</t>
+  </si>
+  <si>
+    <t>P.O. BOX 997, 7436 DUIS AVENUE</t>
+  </si>
+  <si>
+    <t>AP #291-8093 EGESTAS ST.</t>
+  </si>
+  <si>
+    <t>P.O. BOX 987, 7882 ELIT, RD.</t>
+  </si>
+  <si>
+    <t>618-2810 DIGNISSIM AVE</t>
+  </si>
+  <si>
+    <t>AP #164-2510 EGET RD.</t>
+  </si>
+  <si>
+    <t>4590 A ROAD</t>
+  </si>
+  <si>
+    <t>5115 AT AV.</t>
+  </si>
+  <si>
+    <t>4123 NISI. AVENUE</t>
+  </si>
+  <si>
+    <t>6645 VEHICULA RD.</t>
+  </si>
+  <si>
+    <t>9523 ET RD.</t>
+  </si>
+  <si>
+    <t>P.O. BOX 635, 7315 LOREM AVENUE</t>
+  </si>
+  <si>
+    <t>P.O. BOX 980, 4966 LACINIA RD.</t>
+  </si>
+  <si>
+    <t>AP #337-5063 ELIT, AV.</t>
+  </si>
+  <si>
+    <t>P.O. BOX 614, 7997 LACUS. STREET</t>
+  </si>
+  <si>
+    <t>935-3085 ALIQUAM AV.</t>
+  </si>
+  <si>
+    <t>AP #528-8676 NUNC AVENUE</t>
+  </si>
+  <si>
+    <t>768-1877 PLACERAT, AVENUE</t>
+  </si>
+  <si>
+    <t>AP #279-3143 RHONCUS. RD.</t>
+  </si>
+  <si>
+    <t>AP #413-9237 VITAE STREET</t>
+  </si>
+  <si>
+    <t>AP #509-2596 PELLENTESQUE RD.</t>
+  </si>
+  <si>
+    <t>513-1604 LOREM RD.</t>
+  </si>
+  <si>
+    <t>AP #121-4481 EROS AV.</t>
+  </si>
+  <si>
+    <t>3271 SEM AV.</t>
+  </si>
+  <si>
+    <t>AP #617-788 TURPIS ROAD</t>
+  </si>
+  <si>
+    <t>1496 PROIN RD.</t>
+  </si>
+  <si>
+    <t>284-5744 LIBERO AV.</t>
+  </si>
+  <si>
+    <t>959-4753 ID, AV.</t>
+  </si>
+  <si>
+    <t>P.O. BOX 129, 1497 VENENATIS AV.</t>
+  </si>
+  <si>
+    <t>P.O. BOX 509, 2604 INTEGER RD.</t>
+  </si>
+  <si>
+    <t>AP #648-7372 MAURIS ST.</t>
+  </si>
+  <si>
+    <t>AP #832-113 SED ROAD</t>
+  </si>
+  <si>
+    <t>P.O. BOX 102, 4994 NEC, AVE</t>
+  </si>
+  <si>
+    <t>AP #623-7324 TINCIDUNT ST.</t>
+  </si>
+  <si>
+    <t>AP #592-8548 SIT ROAD</t>
+  </si>
+  <si>
+    <t>918-8234 NONUMMY ROAD</t>
+  </si>
+  <si>
+    <t>9238 ALIQUAM STREET</t>
+  </si>
+  <si>
+    <t>9778 ANTE. AVE</t>
+  </si>
+  <si>
+    <t>P.O. BOX 635, 4520 FAUCIBUS AV.</t>
+  </si>
+  <si>
+    <t>456-9203 LOREM RD.</t>
+  </si>
+  <si>
+    <t>834 ETIAM RD.</t>
+  </si>
+  <si>
+    <t>9673 EGESTAS, STREET</t>
+  </si>
+  <si>
+    <t>3610 AUCTOR, STREET</t>
+  </si>
+  <si>
+    <t>3541 DONEC ST.</t>
+  </si>
+  <si>
+    <t>5912 LACINIA AVENUE</t>
+  </si>
+  <si>
+    <t>434-844 MAURIS AV.</t>
+  </si>
+  <si>
+    <t>808-7340 FUSCE ROAD</t>
+  </si>
+  <si>
+    <t>P.O. BOX 403, 4183 TELLUS AVE</t>
+  </si>
+  <si>
+    <t>P.O. BOX 473, 3732 FUSCE STREET</t>
+  </si>
+  <si>
+    <t>906-3074 MI. ST.</t>
+  </si>
+  <si>
+    <t>530-6594 QUISQUE ROAD</t>
+  </si>
+  <si>
+    <t>671-7030 NON ST.</t>
+  </si>
+  <si>
+    <t>P.O. BOX 433, 5994 EGESTAS AVENUE</t>
+  </si>
+  <si>
+    <t>6937 FAUCIBUS RD.</t>
+  </si>
+  <si>
+    <t>397-5152 QUAM. RD.</t>
+  </si>
+  <si>
+    <t>416-9178 VELIT. RD.</t>
+  </si>
+  <si>
+    <t>P.O. BOX 214, 9013 URNA RD.</t>
+  </si>
+  <si>
+    <t>5942 ULTRICIES AVE</t>
+  </si>
+  <si>
+    <t>P.O. BOX 262, 8031 LEO. ST.</t>
+  </si>
+  <si>
+    <t>P.O. BOX 449, 263 LUCTUS AVENUE</t>
+  </si>
+  <si>
+    <t>394-2475 NEC, ROAD</t>
+  </si>
+  <si>
+    <t>AP #387-2377 JUSTO. ST.</t>
+  </si>
+  <si>
+    <t>AP #981-6239 MAURIS ROAD</t>
+  </si>
+  <si>
+    <t>AP #813-1691 LOREM AV.</t>
+  </si>
+  <si>
+    <t>6019 PARTURIENT RD.</t>
+  </si>
+  <si>
+    <t>AP #624-9870 DUI, RD.</t>
+  </si>
+  <si>
+    <t>450-2308 SEM AVE</t>
+  </si>
+  <si>
+    <t>P.O. BOX 233, 4594 AC ST.</t>
+  </si>
+  <si>
+    <t>P.O. BOX 579, 2825 UT, ROAD</t>
+  </si>
+  <si>
+    <t>3574 PHASELLUS AVE</t>
+  </si>
+  <si>
+    <t>AP #895-3306 MONTES, AV.</t>
+  </si>
+  <si>
+    <t>AP #278-4463 NUNC AVENUE</t>
+  </si>
+  <si>
+    <t>996-3029 ERAT RD.</t>
+  </si>
+  <si>
+    <t>116-634 VENENATIS ST.</t>
+  </si>
+  <si>
+    <t>AP #917-5249 PLACERAT, ST.</t>
+  </si>
+  <si>
+    <t>6772 CURSUS. ST.</t>
+  </si>
+  <si>
+    <t>865 PLACERAT. AVE</t>
+  </si>
+  <si>
+    <t>P.O. BOX 733, 6625 CUM AV.</t>
+  </si>
+  <si>
+    <t>P.O. BOX 934, 9157 SED ST.</t>
+  </si>
+  <si>
+    <t>925-6019 ELIT RD.</t>
+  </si>
+  <si>
+    <t>P.O. BOX 308, 9459 IN ST.</t>
+  </si>
+  <si>
+    <t>AP #540-7369 SOCIOSQU AVENUE</t>
+  </si>
+  <si>
+    <t>AP #281-4274 GRAVIDA. AVENUE</t>
+  </si>
+  <si>
+    <t>AP #393-398 SEM AV.</t>
+  </si>
+  <si>
+    <t>P.O. BOX 560, 7091 TEMPOR ST.</t>
+  </si>
+  <si>
+    <t>560 ANTE. AVENUE</t>
+  </si>
+  <si>
+    <t>366-4171 LECTUS. AVE</t>
+  </si>
+  <si>
+    <t>AP #285-9205 NUNC. AVE</t>
+  </si>
+  <si>
+    <t>865-8738 PEDE ST.</t>
+  </si>
+  <si>
+    <t>7665 MASSA STREET</t>
+  </si>
+  <si>
+    <t>146-7089 TEMPOR RD.</t>
+  </si>
+  <si>
+    <t>AP #428-5145 ANTE ROAD</t>
+  </si>
+  <si>
+    <t>AP #429-2214 IPSUM RD.</t>
+  </si>
+  <si>
+    <t>7534 LACUS, AVE</t>
+  </si>
+  <si>
+    <t>P.O. BOX 783, 2750 PHASELLUS RD.</t>
+  </si>
+  <si>
+    <t>AP #943-4645 VELIT AVE</t>
+  </si>
+  <si>
+    <t>8929 INTEGER AV.</t>
+  </si>
+  <si>
+    <t>508-463 MAGNA. RD.</t>
+  </si>
+  <si>
+    <t>973-4501 GRAVIDA. ROAD</t>
+  </si>
+  <si>
+    <t>P.O. BOX 906, 7551 CONSEQUAT AVE</t>
+  </si>
+  <si>
+    <t>138-8825 SOCIIS AVENUE</t>
+  </si>
+  <si>
+    <t>693-6769 IN RD.</t>
+  </si>
+  <si>
+    <t>201-3915 IPSUM ST.</t>
+  </si>
+  <si>
+    <t>222-8490 NUNC ST.</t>
+  </si>
+  <si>
+    <t>624-2912 EU RD.</t>
+  </si>
+  <si>
+    <t>AP #681-5911 MAGNA. RD.</t>
+  </si>
+  <si>
+    <t>P.O. BOX 792, 844 NEC AV.</t>
+  </si>
+  <si>
+    <t>4678 ACCUMSAN RD.</t>
+  </si>
+  <si>
+    <t>3926 DONEC AV.</t>
+  </si>
+  <si>
+    <t>P.O. BOX 105, 3166 SED STREET</t>
+  </si>
+  <si>
+    <t>AP #885-4919 ARCU. ST.</t>
+  </si>
+  <si>
+    <t>5567 VELIT RD.</t>
+  </si>
+  <si>
+    <t>P.O. BOX 989, 3223 TINCIDUNT ROAD</t>
+  </si>
+  <si>
+    <t>P.O. BOX 208, 7424 CONSECTETUER AVENUE</t>
+  </si>
+  <si>
+    <t>P.O. BOX 537, 7622 AENEAN AVENUE</t>
+  </si>
+  <si>
+    <t>565-8354 SAPIEN STREET</t>
+  </si>
+  <si>
+    <t>AP #816-5343 ELIT, RD.</t>
+  </si>
+  <si>
+    <t>817-9691 SUSPENDISSE AVE</t>
+  </si>
+  <si>
+    <t>352-9267 NONUMMY AVE</t>
+  </si>
+  <si>
+    <t>P.O. BOX 742, 4959 DIAM. AV.</t>
+  </si>
+  <si>
+    <t>461-7662 NON AV.</t>
+  </si>
+  <si>
+    <t>P.O. BOX 523, 9679 TELLUS STREET</t>
+  </si>
+  <si>
+    <t>6248 SAGITTIS. RD.</t>
+  </si>
+  <si>
+    <t>911-3837 AMET ST.</t>
+  </si>
+  <si>
+    <t>P.O. BOX 162, 6039 VELIT ST.</t>
+  </si>
+  <si>
+    <t>P.O. BOX 212, 3595 ALIQUAM ST.</t>
+  </si>
+  <si>
+    <t>499-9165 LIGULA RD.</t>
+  </si>
+  <si>
+    <t>P.O. BOX 605, 1013 TRISTIQUE AV.</t>
+  </si>
+  <si>
+    <t>2846 NULLAM ST.</t>
+  </si>
+  <si>
+    <t>441-8364 VEL RD.</t>
+  </si>
+  <si>
+    <t>AP #166-3642 LUCTUS AV.</t>
+  </si>
+  <si>
+    <t>AP #115-9478 SAGITTIS AVENUE</t>
+  </si>
+  <si>
+    <t>7015 LIBERO RD.</t>
+  </si>
+  <si>
+    <t>828-2887 NONUMMY AVE</t>
+  </si>
+  <si>
+    <t>P.O. BOX 990, 5262 ELIT STREET</t>
+  </si>
+  <si>
+    <t>7538 NEQUE STREET</t>
+  </si>
+  <si>
+    <t>457-1383 URNA AVE</t>
+  </si>
+  <si>
+    <t>7565 IN AVE</t>
+  </si>
+  <si>
+    <t>757-7013 CURSUS, AVENUE</t>
+  </si>
+  <si>
+    <t>430-4013 FRINGILLA. AVENUE</t>
+  </si>
+  <si>
+    <t>P.O. BOX 927, 8340 DIS STREET</t>
+  </si>
+  <si>
+    <t>6871 AT, RD.</t>
+  </si>
+  <si>
+    <t>AP #206-4915 VELIT ST.</t>
+  </si>
+  <si>
+    <t>P.O. BOX 172, 6632 MAURIS ST.</t>
+  </si>
+  <si>
+    <t>144-9275 VULPUTATE AV.</t>
+  </si>
+  <si>
+    <t>P.O. BOX 236, 5407 PHASELLUS ROAD</t>
+  </si>
+  <si>
+    <t>4342 ERAT. ST.</t>
+  </si>
+  <si>
+    <t>AP #353-6085 TINCIDUNT ROAD</t>
+  </si>
+  <si>
+    <t>P.O. BOX 641, 8472 VEL, STREET</t>
+  </si>
+  <si>
+    <t>P.O. BOX 665, 8553 LACINIA ROAD</t>
+  </si>
+  <si>
+    <t>661-4234 TINCIDUNT AV.</t>
+  </si>
+  <si>
+    <t>1332 DIAM. STREET</t>
+  </si>
+  <si>
+    <t>P.O. BOX 358, 3265 QUIS, AVENUE</t>
+  </si>
+  <si>
+    <t>901 NASCETUR AVE</t>
+  </si>
+  <si>
+    <t>P.O. BOX 619, 4800 LIGULA. STREET</t>
+  </si>
+  <si>
+    <t>646-8067 EST STREET</t>
+  </si>
+  <si>
+    <t>6880 SED, AVENUE</t>
+  </si>
+  <si>
+    <t>P.O. BOX 163, 9714 UT AVENUE</t>
+  </si>
+  <si>
+    <t>P.O. BOX 996, 1106 NUNC AVE</t>
+  </si>
+  <si>
+    <t>P.O. BOX 735, 644 CURABITUR AVENUE</t>
+  </si>
+  <si>
+    <t>P.O. BOX 646, 6778 AMET AVE</t>
+  </si>
+  <si>
+    <t>725-8431 EGESTAS RD.</t>
+  </si>
+  <si>
+    <t>5128 FRINGILLA AV.</t>
+  </si>
+  <si>
+    <t>AP #151-2908 MOLESTIE RD.</t>
+  </si>
+  <si>
+    <t>AP #412-6917 ET STREET</t>
+  </si>
+  <si>
+    <t>5643 SAPIEN. AVENUE</t>
+  </si>
+  <si>
+    <t>8230 ULTRICES, ROAD</t>
+  </si>
+  <si>
+    <t>6473 CONVALLIS RD.</t>
+  </si>
+  <si>
+    <t>P.O. BOX 902, 1410 LACUS. ST.</t>
+  </si>
+  <si>
+    <t>253 FRINGILLA RD.</t>
+  </si>
+  <si>
+    <t>AP #467-5041 NISL AV.</t>
+  </si>
+  <si>
+    <t>649-5580 NEQUE RD.</t>
+  </si>
+  <si>
+    <t>334-9208 QUAM AV.</t>
+  </si>
+  <si>
+    <t>P.O. BOX 899, 1664 DONEC RD.</t>
+  </si>
+  <si>
+    <t>AP #252-3838 ETIAM ROAD</t>
+  </si>
+  <si>
+    <t>P.O. BOX 899, 3180 QUAM. RD.</t>
+  </si>
+  <si>
+    <t>5342 ORNARE, STREET</t>
+  </si>
+  <si>
+    <t>AP #290-2014 URNA RD.</t>
+  </si>
+  <si>
+    <t>352-1956 SEM STREET</t>
+  </si>
+  <si>
+    <t>108-6883 LAOREET ST.</t>
+  </si>
+  <si>
+    <t>P.O. BOX 628, 826 ENIM ST.</t>
+  </si>
+  <si>
+    <t>AP #107-8564 VOLUTPAT AVE</t>
+  </si>
+  <si>
+    <t>AP #802-3330 LECTUS. ROAD</t>
+  </si>
+  <si>
+    <t>AP #821-9860 LECTUS AV.</t>
+  </si>
+  <si>
+    <t>6777 ALIQUET, AVENUE</t>
+  </si>
+  <si>
+    <t>P.O. BOX 173, 706 FEUGIAT RD.</t>
+  </si>
+  <si>
+    <t>537-7658 SEMPER ROAD</t>
+  </si>
+  <si>
+    <t>9694 LIGULA AVENUE</t>
+  </si>
+  <si>
+    <t>9524 DONEC AVENUE</t>
+  </si>
+  <si>
+    <t>P.O. BOX 415, 5950 ET ST.</t>
+  </si>
+  <si>
+    <t>1606 DONEC AV.</t>
+  </si>
+  <si>
+    <t>224-5727 AENEAN ST.</t>
+  </si>
+  <si>
+    <t>AP #635-5914 SODALES. RD.</t>
+  </si>
+  <si>
+    <t>P.O. BOX 161, 1484 ALIQUET, RD.</t>
+  </si>
+  <si>
+    <t>P.O. BOX 215, 6178 RISUS. ST.</t>
+  </si>
+  <si>
+    <t>P.O. BOX 257, 1856 LEO. STREET</t>
+  </si>
+  <si>
+    <t>AP #242-6270 PULVINAR ST.</t>
+  </si>
+  <si>
+    <t>AP #385-3875 FAUCIBUS ROAD</t>
+  </si>
+  <si>
+    <t>9949 SIT RD.</t>
+  </si>
+  <si>
+    <t>P.O. BOX 939, 6150 AC ROAD</t>
+  </si>
+  <si>
+    <t>7034 VENENATIS ROAD</t>
+  </si>
+  <si>
+    <t>AP #110-9720 MAECENAS RD.</t>
+  </si>
+  <si>
+    <t>553-4253 QUIS RD.</t>
+  </si>
+  <si>
+    <t>P.O. BOX 360, 6117 BLANDIT ROAD</t>
+  </si>
+  <si>
+    <t>AP #361-4358 SED ST.</t>
+  </si>
+  <si>
+    <t>AP #836-9895 EST AV.</t>
+  </si>
+  <si>
+    <t>P.O. BOX 342, 8111 DICTUM AVENUE</t>
+  </si>
+  <si>
+    <t>P.O. BOX 562, 487 ANTE, AVE</t>
+  </si>
+  <si>
+    <t>AP #708-7053 ORCI. AV.</t>
+  </si>
+  <si>
+    <t>9270 FAMES ST.</t>
+  </si>
+  <si>
+    <t>AP #728-3889 SIT RD.</t>
+  </si>
+  <si>
+    <t>6717 LECTUS. ST.</t>
+  </si>
+  <si>
+    <t>1056 COMMODO ST.</t>
+  </si>
+  <si>
+    <t>5885 SED ST.</t>
+  </si>
+  <si>
+    <t>P.O. BOX 426, 1648 DIAM ST.</t>
+  </si>
+  <si>
+    <t>1284 PURUS RD.</t>
+  </si>
+  <si>
+    <t>914-9281 SIT RD.</t>
+  </si>
+  <si>
+    <t>P.O. BOX 645, 4270 UT RD.</t>
+  </si>
+  <si>
+    <t>623-7394 IN AVENUE</t>
+  </si>
+  <si>
+    <t>674-2390 ORCI. ST.</t>
+  </si>
+  <si>
+    <t>P.O. BOX 833, 3365 MAGNIS ST.</t>
+  </si>
+  <si>
+    <t>AP #625-5821 RISUS. AVE</t>
+  </si>
+  <si>
+    <t>AP #813-164 TEMPUS, ST.</t>
+  </si>
+  <si>
+    <t>435-6345 MOLESTIE STREET</t>
+  </si>
+  <si>
+    <t>P.O. BOX 994, 2279 NEC AV.</t>
+  </si>
+  <si>
+    <t>AP #750-1809 ENIM. AVE</t>
+  </si>
+  <si>
+    <t>4751 UT ST.</t>
+  </si>
+  <si>
+    <t>P.O. BOX 954, 5877 NEC STREET</t>
+  </si>
+  <si>
+    <t>2627 ALIQUET AVE</t>
+  </si>
+  <si>
+    <t>5807 ORCI. ST.</t>
+  </si>
+  <si>
+    <t>AP #866-4514 DONEC ST.</t>
+  </si>
+  <si>
+    <t>5717 ULTRICIES AVENUE</t>
+  </si>
+  <si>
+    <t>AP #159-3111 JUSTO RD.</t>
+  </si>
+  <si>
+    <t>P.O. BOX 710, 6130 PRIMIS ROAD</t>
+  </si>
+  <si>
+    <t>P.O. BOX 672, 3734 AMET AV.</t>
+  </si>
+  <si>
+    <t>P.O. BOX 684, 3887 A, STREET</t>
+  </si>
+  <si>
+    <t>396-5072 NON ST.</t>
+  </si>
+  <si>
+    <t>6982 ORNARE. STREET</t>
+  </si>
+  <si>
+    <t>AP #499-4115 AMET AVENUE</t>
+  </si>
+  <si>
+    <t>AP #492-4727 UT AV.</t>
+  </si>
+  <si>
+    <t>P.O. BOX 585, 3683 GRAVIDA. AV.</t>
+  </si>
+  <si>
+    <t>AP #106-3214 A, ST.</t>
+  </si>
+  <si>
+    <t>196-252 DUIS ST.</t>
+  </si>
+  <si>
+    <t>AP #472-196 NONUMMY AVENUE</t>
+  </si>
+  <si>
+    <t>5713 DOLOR. AVE</t>
+  </si>
+  <si>
+    <t>P.O. BOX 277, 6059 DICTUM AVENUE</t>
+  </si>
+  <si>
+    <t>P.O. BOX 883, 2027 MAGNA ST.</t>
+  </si>
+  <si>
+    <t>AP #192-6041 NON, RD.</t>
+  </si>
+  <si>
+    <t>AP #279-9290 IPSUM STREET</t>
+  </si>
+  <si>
+    <t>7594 MAURIS AVENUE</t>
+  </si>
+  <si>
+    <t>420-4294 PROIN STREET</t>
+  </si>
+  <si>
+    <t>7614 LACUS. RD.</t>
+  </si>
+  <si>
+    <t>AP #888-8711 QUAM RD.</t>
+  </si>
+  <si>
+    <t>466-4325 EUISMOD AV.</t>
+  </si>
+  <si>
+    <t>P.O. BOX 693, 502 CURABITUR STREET</t>
+  </si>
+  <si>
+    <t>AP #135-324 NAM ROAD</t>
+  </si>
+  <si>
+    <t>P.O. BOX 584, 6789 SED AVE</t>
+  </si>
+  <si>
+    <t>4994 NIBH AVENUE</t>
+  </si>
+  <si>
+    <t>AP #230-3814 ET STREET</t>
+  </si>
+  <si>
+    <t>P.O. BOX 584, 5233 SOCIIS ROAD</t>
+  </si>
+  <si>
+    <t>P.O. BOX 395, 902 BIBENDUM. ROAD</t>
+  </si>
+  <si>
+    <t>6114 DAPIBUS ST.</t>
+  </si>
+  <si>
+    <t>7087 CONVALLIS ST.</t>
+  </si>
+  <si>
+    <t>5282 ID ST.</t>
+  </si>
+  <si>
+    <t>9985 MONTES, AVENUE</t>
+  </si>
+  <si>
+    <t>775-155 PEDE AVENUE</t>
+  </si>
+  <si>
+    <t>8330 AT ROAD</t>
+  </si>
+  <si>
+    <t>5657 ULLAMCORPER STREET</t>
+  </si>
+  <si>
+    <t>P.O. BOX 249, 1945 ET ST.</t>
+  </si>
+  <si>
+    <t>P.O. BOX 791, 7653 AC ROAD</t>
+  </si>
+  <si>
+    <t>5924 AMET STREET</t>
+  </si>
+  <si>
+    <t>9356 GRAVIDA ROAD</t>
+  </si>
+  <si>
+    <t>468-2353 AUGUE ST.</t>
+  </si>
+  <si>
+    <t>AP #513-258 MALESUADA AV.</t>
+  </si>
+  <si>
+    <t>3040 ANTE ST.</t>
+  </si>
+  <si>
+    <t>752-4120 PELLENTESQUE AVE</t>
+  </si>
+  <si>
+    <t>317-2284 AC AVENUE</t>
+  </si>
+  <si>
+    <t>3412 LOREM STREET</t>
+  </si>
+  <si>
+    <t>472 VEHICULA STREET</t>
+  </si>
+  <si>
+    <t>875-8422 EGESTAS RD.</t>
+  </si>
+  <si>
+    <t>AP #677-2961 ALIQUET RD.</t>
+  </si>
+  <si>
+    <t>AP #938-3417 ANTE. ROAD</t>
+  </si>
+  <si>
+    <t>3437 UT AV.</t>
+  </si>
+  <si>
+    <t>7740 UT AVE</t>
+  </si>
+  <si>
+    <t>P.O. BOX 551, 2227 NULLA. AV.</t>
+  </si>
+  <si>
+    <t>7468 TRISTIQUE AV.</t>
+  </si>
+  <si>
+    <t>982-4955 NISL. AVE</t>
+  </si>
+  <si>
+    <t>AP #537-1504 HENDRERIT ROAD</t>
+  </si>
+  <si>
+    <t>734-3166 MASSA ST.</t>
+  </si>
+  <si>
+    <t>AP #418-6805 MAURIS ROAD</t>
+  </si>
+  <si>
+    <t>421-3138 METUS. ROAD</t>
+  </si>
+  <si>
+    <t>P.O. BOX 897, 4694 IMPERDIET ST.</t>
+  </si>
+  <si>
+    <t>1106 QUISQUE STREET</t>
+  </si>
+  <si>
+    <t>P.O. BOX 166, 4015 AMET AVE</t>
+  </si>
+  <si>
+    <t>576 AT RD.</t>
+  </si>
+  <si>
+    <t>AP #813-2751 UT, ST.</t>
+  </si>
+  <si>
+    <t>P.O. BOX 732, 8144 JUSTO. AVENUE</t>
+  </si>
+  <si>
+    <t>AP #280-2097 FEUGIAT AVENUE</t>
+  </si>
+  <si>
+    <t>AP #528-1701 SOCIIS AV.</t>
+  </si>
+  <si>
+    <t>1480 QUISQUE RD.</t>
+  </si>
+  <si>
+    <t>P.O. BOX 726, 4379 TINCIDUNT AVE</t>
+  </si>
+  <si>
+    <t>AP #996-3165 MOLESTIE STREET</t>
+  </si>
+  <si>
+    <t>418-703 IN RD.</t>
+  </si>
+  <si>
+    <t>573-6578 PHASELLUS RD.</t>
+  </si>
+  <si>
+    <t>9296 RISUS. ST.</t>
+  </si>
+  <si>
+    <t>758-6997 DICTUM ST.</t>
+  </si>
+  <si>
+    <t>P.O. BOX 903, 2040 PROIN ST.</t>
+  </si>
+  <si>
+    <t>8705 ADIPISCING AVENUE</t>
+  </si>
+  <si>
+    <t>6742 ENIM ST.</t>
+  </si>
+  <si>
+    <t>3954 TEMPUS AVENUE</t>
+  </si>
+  <si>
+    <t>4473 FRINGILLA STREET</t>
+  </si>
+  <si>
+    <t>AP #886-4798 DUIS AVE</t>
+  </si>
+  <si>
+    <t>AP #168-2665 FACILISIS ST.</t>
+  </si>
+  <si>
+    <t>969-1870 NUNC AV.</t>
+  </si>
+  <si>
+    <t>5203 NUNC STREET</t>
+  </si>
+  <si>
+    <t>718-9518 DOLOR ROAD</t>
+  </si>
+  <si>
+    <t>2558 UT AVE</t>
+  </si>
+  <si>
+    <t>2507 FAMES ROAD</t>
+  </si>
+  <si>
+    <t>334-5014 TELLUS ST.</t>
+  </si>
+  <si>
+    <t>138-1503 ALIQUAM AV.</t>
+  </si>
+  <si>
+    <t>128 IN RD.</t>
+  </si>
+  <si>
+    <t>576-2402 AUCTOR. STREET</t>
+  </si>
+  <si>
+    <t>P.O. BOX 398, 954 MOLESTIE RD.</t>
+  </si>
+  <si>
+    <t>9335 MALESUADA AV.</t>
+  </si>
+  <si>
+    <t>P.O. BOX 308, 9481 MAURIS AVENUE</t>
+  </si>
+  <si>
+    <t>P.O. BOX 598, 5036 ENIM. RD.</t>
+  </si>
+  <si>
+    <t>AP #844-7039 LECTUS RD.</t>
+  </si>
+  <si>
+    <t>960-5073 MI ROAD</t>
+  </si>
+  <si>
+    <t>AP #920-7439 DICTUM. RD.</t>
+  </si>
+  <si>
+    <t>8930 LEO. AVE</t>
+  </si>
+  <si>
+    <t>5178 NULLAM ST.</t>
+  </si>
+  <si>
+    <t>9734 FUSCE AVENUE</t>
+  </si>
+  <si>
+    <t>AP #715-2606 ALIQUAM ST.</t>
+  </si>
+  <si>
+    <t>1211 NEQUE ST.</t>
+  </si>
+  <si>
+    <t>P.O. BOX 401, 3413 DOLOR. ST.</t>
+  </si>
+  <si>
+    <t>9467 NATOQUE ST.</t>
+  </si>
+  <si>
+    <t>P.O. BOX 575, 4580 METUS. AVENUE</t>
+  </si>
+  <si>
+    <t>536-3397 PLACERAT AV.</t>
+  </si>
+  <si>
+    <t>255-1827 EGET ST.</t>
+  </si>
+  <si>
+    <t>7613 LOREM AV.</t>
+  </si>
+  <si>
+    <t>AP #913-2562 IMPERDIET, RD.</t>
+  </si>
+  <si>
+    <t>948-7328 MOLESTIE AVE</t>
+  </si>
+  <si>
+    <t>AP #252-4816 LAOREET, AVE</t>
+  </si>
+  <si>
+    <t>AP #110-5738 NUNC. RD.</t>
+  </si>
+  <si>
+    <t>640-5910 MOLESTIE AVE</t>
+  </si>
+  <si>
+    <t>814-2508 PURUS, AVE</t>
+  </si>
+  <si>
+    <t>AP #321-4350 ET AVENUE</t>
+  </si>
+  <si>
+    <t>6205 VENENATIS RD.</t>
+  </si>
+  <si>
+    <t>981-9670 DONEC STREET</t>
+  </si>
+  <si>
+    <t>289-5213 METUS AV.</t>
+  </si>
+  <si>
+    <t>732-9340 RUTRUM RD.</t>
+  </si>
+  <si>
+    <t>AP #647-7787 BIBENDUM AV.</t>
+  </si>
+  <si>
+    <t>AP #277-1463 ULLAMCORPER AV.</t>
+  </si>
+  <si>
+    <t>AP #727-2761 DICTUM AV.</t>
+  </si>
+  <si>
+    <t>P.O. BOX 277, 7796 VEHICULA AVENUE</t>
+  </si>
+  <si>
+    <t>4872 SED AV.</t>
+  </si>
+  <si>
+    <t>P.O. BOX 990, 1603 MAGNA ROAD</t>
+  </si>
+  <si>
+    <t>P.O. BOX 105, 9478 IPSUM AVE</t>
+  </si>
+  <si>
+    <t>AP #423-658 PEDE ROAD</t>
+  </si>
+  <si>
+    <t>223 SED STREET</t>
+  </si>
+  <si>
+    <t>8604 MOLLIS. AV.</t>
+  </si>
+  <si>
+    <t>5940 QUIS ST.</t>
+  </si>
+  <si>
+    <t>P.O. BOX 172, 685 SAGITTIS ROAD</t>
+  </si>
+  <si>
+    <t>P.O. BOX 207, 4651 NEC STREET</t>
+  </si>
+  <si>
+    <t>259-8736 ORNARE. ST.</t>
+  </si>
+  <si>
+    <t>AP #912-7827 URNA, AVE</t>
+  </si>
+  <si>
+    <t>5215 LECTUS. RD.</t>
+  </si>
+  <si>
+    <t>654-8679 EU AVENUE</t>
+  </si>
+  <si>
+    <t>AP #937-4623 ELEIFEND. RD.</t>
+  </si>
+  <si>
+    <t>AP #485-8850 VEL, ST.</t>
+  </si>
+  <si>
+    <t>297-5499 AT, RD.</t>
+  </si>
+  <si>
+    <t>1199 A AVE</t>
+  </si>
+  <si>
+    <t>260 ELIT RD.</t>
+  </si>
+  <si>
+    <t>P.O. BOX 671, 5772 FEUGIAT STREET</t>
+  </si>
+  <si>
+    <t>P.O. BOX 105, 1426 DONEC AV.</t>
+  </si>
+  <si>
+    <t>P.O. BOX 531, 4838 RUTRUM. ST.</t>
+  </si>
+  <si>
+    <t>P.O. BOX 382, 6280 SEM, RD.</t>
+  </si>
+  <si>
+    <t>5285 MAURIS ROAD</t>
+  </si>
+  <si>
+    <t>AP #675-2604 VULPUTATE, ROAD</t>
+  </si>
+  <si>
+    <t>P.O. BOX 716, 3066 PORTA ST.</t>
+  </si>
+  <si>
+    <t>9894 VIVAMUS ST.</t>
+  </si>
+  <si>
+    <t>AP #324-8921 LIGULA. AVE</t>
+  </si>
+  <si>
+    <t>P.O. BOX 482, 4964 ULTRICIES RD.</t>
+  </si>
+  <si>
+    <t>P.O. BOX 222, 2908 NUNC RD.</t>
+  </si>
+  <si>
+    <t>AP #122-7574 TURPIS AVENUE</t>
+  </si>
+  <si>
+    <t>AP #919-8745 NUNC ST.</t>
+  </si>
+  <si>
+    <t>P.O. BOX 113, 5453 AUCTOR STREET</t>
+  </si>
+  <si>
+    <t>146 EGET AVENUE</t>
+  </si>
+  <si>
+    <t>474-7978 SED AV.</t>
+  </si>
+  <si>
+    <t>P.O. BOX 590, 6160 DUIS ST.</t>
+  </si>
+  <si>
+    <t>683-1490 LOREM, AVE</t>
+  </si>
+  <si>
+    <t>487-4895 MAURIS AVENUE</t>
+  </si>
+  <si>
+    <t>2596 CONSECTETUER ROAD</t>
+  </si>
+  <si>
+    <t>AP #412-8311 ERAT STREET</t>
+  </si>
+  <si>
+    <t>435-9554 BIBENDUM. RD.</t>
+  </si>
+  <si>
+    <t>593-361 NON, AV.</t>
+  </si>
+  <si>
+    <t>P.O. BOX 613, 4251 LOREM, STREET</t>
+  </si>
+  <si>
+    <t>AP #861-9472 ORCI, ST.</t>
+  </si>
+  <si>
+    <t>AP #776-9390 DONEC ROAD</t>
+  </si>
+  <si>
+    <t>P.O. BOX 556, 7059 LIGULA AV.</t>
+  </si>
+  <si>
+    <t>AP #543-6055 EGESTAS ST.</t>
+  </si>
+  <si>
+    <t>1321 RUTRUM RD.</t>
+  </si>
+  <si>
+    <t>AP #881-2112 AT, STREET</t>
+  </si>
+  <si>
+    <t>674-1871 NEC, ST.</t>
+  </si>
+  <si>
+    <t>P.O. BOX 945, 9104 MAGNIS STREET</t>
+  </si>
+  <si>
+    <t>7279 DIGNISSIM STREET</t>
+  </si>
+  <si>
+    <t>3376 EGET RD.</t>
+  </si>
+  <si>
+    <t>P.O. BOX 710, 5894 CONVALLIS STREET</t>
+  </si>
+  <si>
+    <t>P.O. BOX 173, 7057 LACINIA STREET</t>
+  </si>
+  <si>
+    <t>658-2202 METUS RD.</t>
+  </si>
+  <si>
+    <t>AP #412-8543 IPSUM. ST.</t>
+  </si>
+  <si>
+    <t>2349 DICTUM AVE</t>
+  </si>
+  <si>
+    <t>AP #932-3496 ET ST.</t>
+  </si>
+  <si>
+    <t>9289 PORTTITOR RD.</t>
+  </si>
+  <si>
+    <t>8740 DOLOR, AV.</t>
+  </si>
+  <si>
+    <t>7118 FRINGILLA, AV.</t>
+  </si>
+  <si>
+    <t>3320 ID ST.</t>
+  </si>
+  <si>
+    <t>9153 CUM ROAD</t>
+  </si>
+  <si>
+    <t>P.O. BOX 751, 3214 CONGUE RD.</t>
+  </si>
+  <si>
+    <t>AP #633-8045 QUISQUE AVE</t>
+  </si>
+  <si>
+    <t>AP #371-1509 ET, AVENUE</t>
+  </si>
+  <si>
+    <t>P.O. BOX 712, 4825 JUSTO ROAD</t>
+  </si>
+  <si>
+    <t>P.O. BOX 317, 4743 ANTE AVENUE</t>
+  </si>
+  <si>
+    <t>AP #995-8498 CUM ROAD</t>
+  </si>
+  <si>
+    <t>9296 NEC, ROAD</t>
+  </si>
+  <si>
+    <t>AP #272-8959 MASSA. RD.</t>
+  </si>
+  <si>
+    <t>AP #866-5787 DIAM AV.</t>
+  </si>
+  <si>
+    <t>AP #147-3702 LAOREET ROAD</t>
+  </si>
+  <si>
+    <t>367-9289 TURPIS STREET</t>
+  </si>
+  <si>
+    <t>P.O. BOX 166, 6115 ARCU. RD.</t>
+  </si>
+  <si>
+    <t>AP #677-2969 ID ST.</t>
+  </si>
+  <si>
+    <t>P.O. BOX 448, 4547 FAUCIBUS AVENUE</t>
+  </si>
+  <si>
+    <t>287-6523 QUIS STREET</t>
+  </si>
+  <si>
+    <t>7808 CONSEQUAT AVE</t>
+  </si>
+  <si>
+    <t>P.O. BOX 943, 3373 NULLAM AVENUE</t>
+  </si>
+  <si>
+    <t>P.O. BOX 708, 3643 AT STREET</t>
+  </si>
+  <si>
+    <t>P.O. BOX 533, 5852 A ST.</t>
+  </si>
+  <si>
+    <t>4715 NON, RD.</t>
+  </si>
+  <si>
+    <t>P.O. BOX 728, 4817 METUS. RD.</t>
+  </si>
+  <si>
+    <t>606-4866 UT AVE</t>
+  </si>
+  <si>
+    <t>AP #837-1286 VELIT ST.</t>
+  </si>
+  <si>
+    <t>AP #291-8298 ID ST.</t>
+  </si>
+  <si>
+    <t>275-7354 MAURIS. ROAD</t>
+  </si>
+  <si>
+    <t>AP #490-2171 MAECENAS AVENUE</t>
+  </si>
+  <si>
+    <t>7723 PLACERAT AVE</t>
+  </si>
+  <si>
+    <t>AP #514-9440 METUS. RD.</t>
+  </si>
+  <si>
+    <t>184-5914 AENEAN AV.</t>
+  </si>
+  <si>
+    <t>8638 VARIUS ROAD</t>
+  </si>
+  <si>
+    <t>3082 CRAS STREET</t>
+  </si>
+  <si>
+    <t>P.O. BOX 549, 2162 GRAVIDA. ST.</t>
+  </si>
+  <si>
+    <t>4216 DUI AV.</t>
+  </si>
+  <si>
+    <t>6591 ODIO. ST.</t>
+  </si>
+  <si>
+    <t>535-2071 MORBI ROAD</t>
+  </si>
+  <si>
+    <t>756-1256 NEC STREET</t>
+  </si>
+  <si>
+    <t>P.O. BOX 638, 3185 ACCUMSAN RD.</t>
+  </si>
+  <si>
+    <t>9548 VITAE, AVE</t>
+  </si>
+  <si>
+    <t>448-7413 DIAM ST.</t>
+  </si>
+  <si>
+    <t>503-6047 CRAS RD.</t>
+  </si>
+  <si>
+    <t>1583 INTEGER ROAD</t>
+  </si>
+  <si>
+    <t>997-3676 PORTTITOR STREET</t>
+  </si>
+  <si>
+    <t>AP #578-3124 LACUS. RD.</t>
+  </si>
+  <si>
+    <t>P.O. BOX 369, 6224 LUCTUS RD.</t>
+  </si>
+  <si>
+    <t>141-8554 LACINIA AVE</t>
+  </si>
+  <si>
+    <t>685-4975 MONTES, AVENUE</t>
+  </si>
+  <si>
+    <t>P.O. BOX 283, 9422 LIGULA. ROAD</t>
+  </si>
+  <si>
+    <t>P.O. BOX 827, 3409 EST STREET</t>
+  </si>
+  <si>
+    <t>AP #718-2384 LACUS. RD.</t>
+  </si>
+  <si>
+    <t>P.O. BOX 496, 7544 RUTRUM AV.</t>
+  </si>
+  <si>
+    <t>AP #436-6569 PHASELLUS STREET</t>
+  </si>
+  <si>
+    <t>P.O. BOX 302, 231 FACILISIS AVENUE</t>
+  </si>
+  <si>
+    <t>793-1306 TELLUS ST.</t>
+  </si>
+  <si>
+    <t>655 AUGUE AVENUE</t>
+  </si>
+  <si>
+    <t>AP #283-8499 MUS. ROAD</t>
+  </si>
+  <si>
+    <t>280-7098 EU AVE</t>
+  </si>
+  <si>
+    <t>2256 CUBILIA RD.</t>
+  </si>
+  <si>
+    <t>3284 NEQUE. AVENUE</t>
+  </si>
+  <si>
+    <t>AP #868-538 RUTRUM ROAD</t>
+  </si>
+  <si>
+    <t>9594 DONEC ST.</t>
+  </si>
+  <si>
+    <t>P.O. BOX 168, 1096 DONEC AV.</t>
+  </si>
+  <si>
+    <t>4276 HABITANT ST.</t>
+  </si>
+  <si>
+    <t>178-3433 MI STREET</t>
+  </si>
+  <si>
+    <t>160-9900 NON, RD.</t>
+  </si>
+  <si>
+    <t>2196 DOLOR. AVE</t>
+  </si>
+  <si>
+    <t>AP #822-6862 NISL RD.</t>
+  </si>
+  <si>
+    <t>7252 DICTUM STREET</t>
   </si>
 </sst>
 </file>
